--- a/data/descargables/PlanCFK.xlsx
+++ b/data/descargables/PlanCFK.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V233"/>
+  <dimension ref="A1:V235"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24874,6 +24874,220 @@
         </is>
       </c>
     </row>
+    <row r="234">
+      <c r="A234" t="n">
+        <v>233</v>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>Encuesta Planes de estudio</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>26/05</t>
+        </is>
+      </c>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>175</t>
+        </is>
+      </c>
+      <c r="E234" t="n">
+        <v>233</v>
+      </c>
+      <c r="F234" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G234" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="H234" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I234" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="J234" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="L234" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="M234" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="N234" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="O234" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="P234" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="Q234" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="R234" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="S234" t="inlineStr">
+        <is>
+          <t>El plan de estudios se basa en informática básica, no hay pensamiento computacional, manejan la tecnología desde la creación de artefactos básicos.</t>
+        </is>
+      </c>
+      <c r="T234" t="inlineStr"/>
+      <c r="U234" t="inlineStr">
+        <is>
+          <t>La Institución Educativa Ciudadela Sucre, de carácter oficial para los niveles de educación preescolar, básica y media articulada con el SENA ofrece un proceso pedagógico incluyente orientado a la formación de niños, niñas, adolescentes y adultos en el ejercicio de sus derechos y deberes a través del desarrollo de competencias científicas, artísticas, tecnológicas, deportivas y ciudadanas promoviendo el crecimiento personal y de nuestra comunidad educativa.</t>
+        </is>
+      </c>
+      <c r="V234" t="inlineStr">
+        <is>
+          <t>La Institución Educativa Ciudadela Sucre se proyecta  en el 2025 como  una institución pionera a nivel municipal en la formación de personas integrales capaces de plantear y ejecutar proyectos de vida orientados al crecimiento individual y comunitario.</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="n">
+        <v>234</v>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>Encuesta Planes de estudio</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>26/05</t>
+        </is>
+      </c>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>245</t>
+        </is>
+      </c>
+      <c r="E235" t="n">
+        <v>234</v>
+      </c>
+      <c r="F235" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="G235" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="H235" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I235" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="J235" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="L235" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="M235" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="N235" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="O235" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="P235" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="Q235" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="R235" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="S235" t="inlineStr"/>
+      <c r="T235" t="inlineStr"/>
+      <c r="U235" t="inlineStr">
+        <is>
+          <t>La Institución Educativa Limonar, de carácter
+Oficial, ofrece los niveles de Preescolar, Básica y Media
+Técnica, programas de educación para jóvenes, adultos, e
+inclusión de niños (as) con necesidades educativas
+especiales y promueve la formación en competencias para
+el desempeño exitoso en el mundo laboral, mediante la
+vivencia de valores que contribuyan a mejorar la calidad de
+vida de todos los integrantes de la comunidad educativa.</t>
+        </is>
+      </c>
+      <c r="V235" t="inlineStr">
+        <is>
+          <t>La Institución Educativa El Limonar en el año 2017,
+será líder en el trabajo basado en la convivencia, el respeto
+por el otro y sus diferencias, así como la protección del
+medio ambiente.</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/descargables/PlanCFK.xlsx
+++ b/data/descargables/PlanCFK.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V235"/>
+  <dimension ref="A1:V237"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25088,6 +25088,213 @@
         </is>
       </c>
     </row>
+    <row r="236">
+      <c r="A236" t="n">
+        <v>235</v>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>Encuesta Planes de estudio</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>26/05</t>
+        </is>
+      </c>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>248</t>
+        </is>
+      </c>
+      <c r="E236" t="n">
+        <v>235</v>
+      </c>
+      <c r="F236" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="G236" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="H236" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I236" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="J236" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="L236" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="M236" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="N236" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="O236" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="P236" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="Q236" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="R236" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="S236" t="inlineStr">
+        <is>
+          <t>El plan de estudios suministrado incluye los grados 5 a 11.</t>
+        </is>
+      </c>
+      <c r="T236" t="inlineStr"/>
+      <c r="U236" t="inlineStr">
+        <is>
+          <t>Somos la Institución Educativa Académica y Técnica-Turística de Santa Verónica de carácter oficial que ofrece formación en los niveles de preescolar, básica y media (académica y turística); desarrollando procesos significativos y humanísticos que forman individuos integrales y competentes capaces de transformar positivamente su realidad y que aportan al progreso de la sociedad.  Ofrece a sus estudiantes la oportunidad de preparación técnica con competencias específicas en emprendimiento turístico, teniendo en cuenta el contexto y el mejoramiento de su calidad de vida; todo esto, de la mano de la ciencia, investigación y la tecnología.</t>
+        </is>
+      </c>
+      <c r="V236" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ser para el año 2025 un establecimiento educativo líder en la formación de jóvenes integrales, preparados para continuar con sus estudios superiores, competentes en emprendimiento turístico, capaces de acceder a diferentes alternativas laborales y a posibilidades de autoempleo. 
+Así mismo, buscará consolidar procesos de articulación con el sector productivo, la educación superior y la educación para el trabajo.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="n">
+        <v>236</v>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>Encuesta Planes de estudio</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>26/05</t>
+        </is>
+      </c>
+      <c r="D237" t="inlineStr">
+        <is>
+          <t>081</t>
+        </is>
+      </c>
+      <c r="E237" t="n">
+        <v>236</v>
+      </c>
+      <c r="F237" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="G237" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="H237" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I237" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="J237" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="L237" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="M237" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="N237" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="O237" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="P237" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="Q237" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="R237" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="S237" t="inlineStr"/>
+      <c r="T237" t="inlineStr"/>
+      <c r="U237" t="inlineStr">
+        <is>
+          <t>Nuestra I. E. María Auxiliadora Fortalecillas forma personas críticas, innovadoras, investigativas y espirituales con actitud mediadora que genere y garantice su proyecto de vida desarrollando su capacidad de adaptación a las condiciones cambiantes del mundo, mejorando así su bienestar personal y familiar; aportando a la construcción de paz, cultura y ciudadanía, en caminada a rescatar los valores que con llevan a formar personas integras.
+De lo anterior de deduce el lema: “FORMANDO PERSONAS CRÍTICAS PARA QUE APRENDAN CÓMO CAMBIAR EL MUNDO”</t>
+        </is>
+      </c>
+      <c r="V237" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Nuestra Institución Educativa María Auxiliadora Fortalecillas para el año 2022, será reconocida en el Municipio de Neiva como una Institución Oficial con altos estándares de calidad académica evidenciada en los resultados de las pruebas externas, complementadas con el manejo apropiado de las TIC y una segunda lengua para el desarrollo transversal de las competencias laborales para el mundo cambiante de hoy. Fortalecido con la articulación de la Educación Media convenio con el SENA.  Desarrollando un espíritu ecológico, social y humanista interactuando con egresados y padres de familia. </t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/descargables/PlanCFK.xlsx
+++ b/data/descargables/PlanCFK.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V237"/>
+  <dimension ref="A1:V238"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25295,6 +25295,106 @@
         </is>
       </c>
     </row>
+    <row r="238">
+      <c r="A238" t="n">
+        <v>237</v>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>Encuesta Planes de estudio</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>31/05</t>
+        </is>
+      </c>
+      <c r="D238" t="inlineStr">
+        <is>
+          <t>025</t>
+        </is>
+      </c>
+      <c r="E238" t="n">
+        <v>237</v>
+      </c>
+      <c r="F238" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="G238" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="H238" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I238" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="J238" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="L238" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="M238" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="N238" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="O238" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="P238" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="Q238" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="R238" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="S238" t="inlineStr"/>
+      <c r="T238" t="inlineStr"/>
+      <c r="U238" t="inlineStr">
+        <is>
+          <t>Somos una Institución oficial de carácter mixto. Ofrecemos educación Pre-escolar, Básica Primaria Secundaria y Media en las jornadas Diurna y nocturna. Formamos jóvenes responsables, críticos, éticos, participativos, productivos y competentes en el uso de nuevas tecnologías de la información y comunicación, en la transformación y conservación de su entorno, en la valoración de su identidad étnica, como soporte fundamental para alcanzar niveles de calidad y reconocimiento educativo.</t>
+        </is>
+      </c>
+      <c r="V238" t="inlineStr">
+        <is>
+          <t>Ser líderes en la prestación del servicio educativo integral en la modalidad académica con profundización en humanidades. Constituirnos en una alternativa educativa para el suroccidente de la ciudad, ofreciendo servicios educativos integrales en niños y jóvenes orientados hacia el liderazgo con formación ética, en valores y en tecnologías para la información y comunicación, mediante espacios de formación pedagógica, posicionada para contribuir a mejorar la calidad de vida de nuestro entorno comunitario.</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/descargables/PlanCFK.xlsx
+++ b/data/descargables/PlanCFK.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V238"/>
+  <dimension ref="A1:V239"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25395,6 +25395,109 @@
         </is>
       </c>
     </row>
+    <row r="239">
+      <c r="A239" t="n">
+        <v>238</v>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>Encuesta Planes de estudio</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>31/05</t>
+        </is>
+      </c>
+      <c r="D239" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
+      <c r="E239" t="n">
+        <v>238</v>
+      </c>
+      <c r="F239" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="G239" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="H239" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="I239" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="J239" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="L239" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="M239" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="N239" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="O239" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="P239" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="Q239" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="R239" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="S239" t="inlineStr"/>
+      <c r="T239" t="inlineStr"/>
+      <c r="U239" t="inlineStr">
+        <is>
+          <t>Como Institución educativa, la Misión del Instituto es educar integralmente a los(as) niños(as) inculcándoles el respeto por la vida, la convivencia, el deseo de construir una sociedad más justa y fomentar un ambiente adecuado para la construcción del conocimiento.
+Como Instituto Técnico, busca formar hombres y mujeres capaces de transformar su entorno para el bienestar comunitario, formar líderes que sean capaces de desempeñarse laboralmente en el mercado productivo y/o proporcionar los elementos básicos para continuar con su proceso de formación superior acorde con las exigencias sociales y tecnológicas de la postmodernidad, ética social, libertad y autonomía.</t>
+        </is>
+      </c>
+      <c r="V239" t="inlineStr">
+        <is>
+          <t>EL INSTITUTO TÉCNICO SUPERIOR “DÁMASO ZAPATA”, aspira a convertirse en una Institución educativa, altamente competitiva y de excelente calidad, que lleve al estudiante en su proceso de formación integral desde el preescolar hasta la media técnica, desarrollando sus competencias fundamentales para que responda en forma prospectiva ante las necesidades de la época.
+Busca formar Comunidad Educativa capaz de asumir responsabilidades que posibiliten la justicia social y el equilibrio armónico de las relaciones interpersonales, que viva en paz y en medio de la diversidad de pensamiento pueda construir acuerdos dentro de una moral de mínimos, que utilice el conocimiento científico y tecnológico para contribuir desde su campo de acción al desarrollo sostenible del país.
+Responderá al reto de constituirse en una institución educativa pionera en la formación científica y tecnológica que le dé posibilidad a sus educandos de ubicarse en las diferentes modalidades de la educación técnica a nivel profesional y afianzar los elementos básicos para su realización personal.</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/descargables/PlanCFK.xlsx
+++ b/data/descargables/PlanCFK.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V239"/>
+  <dimension ref="A1:V247"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25498,6 +25498,808 @@
         </is>
       </c>
     </row>
+    <row r="240">
+      <c r="A240" t="n">
+        <v>239</v>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>Encuesta Planes de estudio</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>31/05</t>
+        </is>
+      </c>
+      <c r="D240" t="inlineStr">
+        <is>
+          <t>139</t>
+        </is>
+      </c>
+      <c r="E240" t="n">
+        <v>239</v>
+      </c>
+      <c r="F240" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="G240" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="H240" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I240" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="J240" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="K240" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="L240" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="M240" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="N240" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="O240" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="P240" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="Q240" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="R240" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="S240" t="inlineStr"/>
+      <c r="T240" t="inlineStr"/>
+      <c r="U240" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Brindar educación para la formación ciudadana integral, de niños, niñas y jóvenes; guiándolos a ser conscientes y críticos de su realidad contextual, con sentido de identidad y pertenencia cultural y territorial, hacia la construcción de una sociedad solidaria y pacifica, orientada al progreso y a la prosperidad. </t>
+        </is>
+      </c>
+      <c r="V240" t="inlineStr">
+        <is>
+          <t>En el 2022, seremos una institución educativa sólida, respetable, importante, deseable y líder, fundamentada en la cultura de la excelencia, y enfática en la formación ciudadana integral, con una visión sistémica de ambiente.</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="n">
+        <v>240</v>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>Encuesta Planes de estudio</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>31/05</t>
+        </is>
+      </c>
+      <c r="D241" t="inlineStr">
+        <is>
+          <t>136</t>
+        </is>
+      </c>
+      <c r="E241" t="n">
+        <v>240</v>
+      </c>
+      <c r="F241" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="G241" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="H241" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I241" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="J241" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="K241" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="L241" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="M241" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="N241" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="O241" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="P241" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="Q241" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="R241" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="S241" t="inlineStr"/>
+      <c r="T241" t="inlineStr"/>
+      <c r="U241" t="inlineStr">
+        <is>
+          <t>La Institución Educativa Rural Luis Antonio Robles propende por el desarrollo integral de los educandos encaminando sus capacidades y potencialidades físicas, ambientales y morales hacía el desarrollo sostenible para que participe activa y creativamente en su entorno social</t>
+        </is>
+      </c>
+      <c r="V241" t="inlineStr">
+        <is>
+          <t>La Institución Educativa Rural Luis Antonio Robles proyecta ser a 2022 líder en el contexto social del Distrito de Riohacha con la participación de toda la comunidad educativa, mediante un proceso significativo que incluye el énfasis en ECOTURISMO, propiciando el desarrollo sostenible y sustentable con sentido de pertenencia y conciencia ciudadana.</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="n">
+        <v>241</v>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>Encuesta Planes de estudio</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>31/05</t>
+        </is>
+      </c>
+      <c r="D242" t="inlineStr">
+        <is>
+          <t>099</t>
+        </is>
+      </c>
+      <c r="E242" t="n">
+        <v>241</v>
+      </c>
+      <c r="F242" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="G242" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="H242" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="I242" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="J242" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="K242" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="L242" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="M242" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="N242" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="O242" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="P242" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="Q242" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="R242" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="S242" t="inlineStr"/>
+      <c r="T242" t="inlineStr"/>
+      <c r="U242" t="inlineStr">
+        <is>
+          <t>La institución educativa Instituto Técnico Nacional de Comercio de Bucaramanga, es un plantel educativo de carácter oficial con orientación técnico comercial y bilingüe que, con el compromiso y participación de padres y docentes, labora para formar a estudiantes con valores, pensamiento socio-crítico, excelencia humana y académica, capaces de enfrentar su inserción a la educación superior y al sector productivo.</t>
+        </is>
+      </c>
+      <c r="V242" t="inlineStr">
+        <is>
+          <t>La institución educativa Instituto Técnico Nacional de Comercio, para el año 2025, será reconocida por su identidad pedagógica socio crítica; que fortalece la formación de líderes emprendedores con un alto sentido humano, quienes se distinguirán por sus valores, sentido crítico, orientación bilingüe, excelencia humana y académica, que posibilita su ingreso a la educación superior y vinculación al sector productivo.</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="n">
+        <v>242</v>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>Encuesta Planes de estudio</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>31/05</t>
+        </is>
+      </c>
+      <c r="D243" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="E243" t="n">
+        <v>242</v>
+      </c>
+      <c r="F243" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G243" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="H243" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I243" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="J243" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="K243" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="L243" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="M243" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="N243" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="O243" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="P243" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="Q243" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="R243" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="S243" t="inlineStr"/>
+      <c r="T243" t="inlineStr"/>
+      <c r="U243" t="inlineStr">
+        <is>
+          <t>La Institución Educativa Rural Vijagual es una entidad de carácter oficial que brinda educación en los niveles de preescolar, básica y media, con el propósito de desarrollar el potencial humano mediante procesos integrales que promueven los valores éticos y sociales, la formación técnica agropecuaria y la proyección profesional de sus egresados.</t>
+        </is>
+      </c>
+      <c r="V243" t="inlineStr">
+        <is>
+          <t>La Institución Educativa Rural Vijagual se proyecta para el año 2025 como una institución líder en formación académica y en la modalidad técnica agropecuaria del sector norte de Bucaramanga mediante una educación integral inclusiva acorde con las nuevas exigencias en cultura ciudadana, convivencia pacífica y los avances en ciencia y tecnología, que le permitan a sus egresados el acceso a niveles superiores de educación, al mercado laboral y la formulación de alternativas de solución a los problemas del entorno regional.</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="n">
+        <v>243</v>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>Encuesta Planes de estudio</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>31/05</t>
+        </is>
+      </c>
+      <c r="D244" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="E244" t="n">
+        <v>243</v>
+      </c>
+      <c r="F244" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G244" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="H244" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I244" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="J244" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="K244" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="L244" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="M244" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="N244" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="O244" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="P244" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="Q244" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="R244" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="S244" t="inlineStr"/>
+      <c r="T244" t="inlineStr"/>
+      <c r="U244" t="inlineStr">
+        <is>
+          <t>Tiene como misión formar ciudadanos con espíritu investigativo e innovador, emprendedores, comprometidos con la paz, la diversidad, el medio natural, cultural y
+tecnológico, como una oportunidad para el desarrollo social, económico y sostenible de la región.</t>
+        </is>
+      </c>
+      <c r="V244" t="inlineStr">
+        <is>
+          <t>Su visión al 2025 es ser una institución incluyente, articulada con programas de educación superior, que formará jóvenes con énfasis en educación ambiental, respetuosos, responsables, con sentido de pertenencia y generadores de cambio en su entorno.</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="n">
+        <v>244</v>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>Encuesta Planes de estudio</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>31/05</t>
+        </is>
+      </c>
+      <c r="D245" t="inlineStr">
+        <is>
+          <t>102</t>
+        </is>
+      </c>
+      <c r="E245" t="n">
+        <v>244</v>
+      </c>
+      <c r="F245" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G245" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="H245" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="I245" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="J245" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="K245" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="L245" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="M245" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="N245" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="O245" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="P245" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="Q245" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="R245" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="S245" t="inlineStr"/>
+      <c r="T245" t="inlineStr"/>
+      <c r="U245" t="inlineStr">
+        <is>
+          <t>Como Institución educativa, la Misión del Instituto es educar integralmente a los(as) niños(as) inculcándoles el respeto por la vida, la convivencia, el deseo de construir una sociedad más justa y fomentar un ambiente adecuado para la construcción del conocimiento. Como Instituto Técnico, busca formar hombres y mujeres capaces de transformar su entorno para el bienestar comunitario, formar líderes que sean capaces de desempeñarse laboralmente en el mercado productivo y/o proporcionar los elementos básicos para continuar con su proceso de formación superior acorde con las exigencias sociales y tecnológicas de la postmodernidad, ética social, libertad y autonomía.</t>
+        </is>
+      </c>
+      <c r="V245" t="inlineStr">
+        <is>
+          <t xml:space="preserve">EL ITS “DÁMASO ZAPATA”, aspira a convertirse en una Institución educativa, altamente competitiva y de excelente calidad, que lleve al estudiante en su proceso de formación integral desde el preescolar hasta la media técnica, desarrollando sus competencias fundamentales para que responda en forma prospectiva ante las necesidades de la época. Busca formar Comunidad Educativa capaz de asumir responsabilidades que posibiliten la justicia social y el equilibrio armónico de las relaciones interpersonales, que viva en paz y en medio de la diversidad de pensamiento pueda construir acuerdos dentro de una moral de mínimos, que utilice el conocimiento científico y tecnológico para contribuir desde su campo de acción al desarrollo sostenible del país. Responderá al reto de constituirse en una institución educativa pionera en la formación científica y tecnológica que le dé posibilidad a sus educandos de ubicarse en las diferentes modalidades de la educación técnica a nivel profesional y afianzar los elementos básicos para su realización personal.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="n">
+        <v>245</v>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>Encuesta Planes de estudio</t>
+        </is>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>31/05</t>
+        </is>
+      </c>
+      <c r="D246" t="inlineStr">
+        <is>
+          <t>103</t>
+        </is>
+      </c>
+      <c r="E246" t="n">
+        <v>245</v>
+      </c>
+      <c r="F246" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G246" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="H246" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="I246" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="J246" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="K246" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="L246" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="M246" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="N246" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="O246" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="P246" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="Q246" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="R246" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="S246" t="inlineStr"/>
+      <c r="T246" t="inlineStr"/>
+      <c r="U246" t="inlineStr">
+        <is>
+          <t>La ESCUELA NORMAL SUPERIOR DE BUCARAMANGA tiene como misión la formación de maestros y maestras de preescolar y básica secundaria, auto generadores de su proyecto de vida, competentes en lo emocional, intelectual y laboral en una sociedad democrática, compleja y cambiante.</t>
+        </is>
+      </c>
+      <c r="V246" t="inlineStr">
+        <is>
+          <t>La ESCUELA NORMAL SUPERIOR DE BUCARAMANGA se visiona como una entidad que se construye a si misma, atreves de prácticas reflexivas, sistemáticas e históricas, que giran entorno a su comprensión como institución líder en la formación de maestros (as), pensadores creativos que se expresan en variedad de lenguajes.</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="n">
+        <v>246</v>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>Encuesta Planes de estudio</t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>31/05</t>
+        </is>
+      </c>
+      <c r="D247" t="inlineStr">
+        <is>
+          <t>105</t>
+        </is>
+      </c>
+      <c r="E247" t="n">
+        <v>246</v>
+      </c>
+      <c r="F247" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G247" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="H247" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I247" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="J247" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="K247" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="L247" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="M247" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="N247" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="O247" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="P247" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="Q247" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="R247" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="S247" t="inlineStr"/>
+      <c r="T247" t="inlineStr"/>
+      <c r="U247" t="inlineStr">
+        <is>
+          <t>Nuestra misión es dotar a nuestros alumnos de herramientas que les permitan un desempeño competitivo en una sociedad globalizada, una sana convivencia y una mejor calidad de vida.</t>
+        </is>
+      </c>
+      <c r="V247" t="inlineStr">
+        <is>
+          <t>Pretendemos constituirnos como la Institución educativa que lidere la transformación de la realidad sociocultural de nuestro entorno, a través del fortalecimiento de nuestra acción pedagógica, lo que facilitará el acceso de nuestros estudiantes a la educación superior y/o al mundo laboral y de esta manera lograremos impactar positivamente en el desarrollo local, regional y nacional.</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/descargables/PlanCFK.xlsx
+++ b/data/descargables/PlanCFK.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V247"/>
+  <dimension ref="A1:V248"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26300,6 +26300,106 @@
         </is>
       </c>
     </row>
+    <row r="248">
+      <c r="A248" t="n">
+        <v>247</v>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>Encuesta Planes de estudio</t>
+        </is>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>01/06</t>
+        </is>
+      </c>
+      <c r="D248" t="inlineStr">
+        <is>
+          <t>159</t>
+        </is>
+      </c>
+      <c r="E248" t="n">
+        <v>247</v>
+      </c>
+      <c r="F248" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="G248" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="H248" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I248" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="J248" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="K248" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="L248" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="M248" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="N248" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="O248" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="P248" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="Q248" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="R248" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="S248" t="inlineStr"/>
+      <c r="T248" t="inlineStr"/>
+      <c r="U248" t="inlineStr">
+        <is>
+          <t>Somos una Institución educativa de carácter oficial que brinda formación integral en los niveles de preescolar, básica y media a nuestros beneficiarios, garantizándoles un buen nivel en los resultados de las pruebas internas y externas, procesos metodológicos y pedagógicos apropiados, docentes idóneos, cumplimiento de la cobertura, adecuada planta física y la mejora del clima institucional</t>
+        </is>
+      </c>
+      <c r="V248" t="inlineStr">
+        <is>
+          <t>Ser la Institución Educativa oficial reconocida entre las mejores a nivel regional, por la calidad de la prestación de sus servicios educativos, el desarrollo óptimo de niveles de competencias académicas, socio afectivas y de cultura ciudadana, contribuyendo al mejoramiento de la calidad de vida de los educandos.</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/descargables/PlanCFK.xlsx
+++ b/data/descargables/PlanCFK.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V248"/>
+  <dimension ref="A1:V250"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26400,6 +26400,206 @@
         </is>
       </c>
     </row>
+    <row r="249">
+      <c r="A249" t="n">
+        <v>248</v>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>Encuesta Planes de estudio</t>
+        </is>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>02/06</t>
+        </is>
+      </c>
+      <c r="D249" t="inlineStr">
+        <is>
+          <t>134</t>
+        </is>
+      </c>
+      <c r="E249" t="n">
+        <v>248</v>
+      </c>
+      <c r="F249" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="G249" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="H249" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I249" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="J249" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="K249" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="L249" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="M249" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="N249" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="O249" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="P249" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="Q249" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="R249" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="S249" t="inlineStr"/>
+      <c r="T249" t="inlineStr"/>
+      <c r="U249" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La institución educativa Helión Pinedo Ríos tiene cómo propósito fundamental la formación de ciudadanos pluriculturales, éticos, respetuosos del medio ambiente, autónomos, con una actitud crítica, propositiva e investigativa que permite adaptarse a los parámetros y exigencias de una sociedad en permanente transformación. </t>
+        </is>
+      </c>
+      <c r="V249" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Para el 2025 seremos una institución reconocida en el contexto educativo regional, a nivel superior en procesos educativos, mediante la innovación en estrategias y prácticas pedagógicas, el fortalecimiento de los principios valores éticos, y conciencia ambiental, que generen cambios positivos, en procura de consolidar un proyecto de vida con identidad pinedista que impacte en la vida familiar y social del ciudadano. </t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="n">
+        <v>249</v>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>Encuesta Planes de estudio</t>
+        </is>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>02/06</t>
+        </is>
+      </c>
+      <c r="D250" t="inlineStr">
+        <is>
+          <t>157</t>
+        </is>
+      </c>
+      <c r="E250" t="n">
+        <v>249</v>
+      </c>
+      <c r="F250" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="G250" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="H250" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="I250" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="J250" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="K250" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="L250" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="M250" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="N250" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="O250" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="P250" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="Q250" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="R250" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="S250" t="inlineStr"/>
+      <c r="T250" t="inlineStr"/>
+      <c r="U250" t="inlineStr">
+        <is>
+          <t>“Formar con amor buenos cristianos y honestos ciudadanos”.</t>
+        </is>
+      </c>
+      <c r="V250" t="inlineStr">
+        <is>
+          <t>Desde el análisis del contexto interno y externo (DOFA) y de las necesidades y expectativas de los integrantes de la CEP, trabajaremos a partir tres escenarios posibles: a. EDUCACIÓN-EVANGELIZACIÓN: Formar integralmente en un fuerte sentido de ciudadanía, de justicia social y de valores evangélicos. b. AMBIENTE: Ser “casa común” que acoge, parroquia misionera que evangeliza, patio donde hacer amigos y escuela que educa para la vida, los derechos y el desarrollo sostenible. c. PROSPECTIVA: Obra salesiana en movimiento (mejoramiento continuo).</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/descargables/PlanCFK.xlsx
+++ b/data/descargables/PlanCFK.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V250"/>
+  <dimension ref="A1:V258"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26600,6 +26600,823 @@
         </is>
       </c>
     </row>
+    <row r="251">
+      <c r="A251" t="n">
+        <v>250</v>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>Encuesta Planes de estudio</t>
+        </is>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>03/06</t>
+        </is>
+      </c>
+      <c r="D251" t="inlineStr">
+        <is>
+          <t>125</t>
+        </is>
+      </c>
+      <c r="E251" t="n">
+        <v>250</v>
+      </c>
+      <c r="F251" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="G251" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="H251" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I251" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="J251" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="K251" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="L251" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="M251" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="N251" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="O251" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="P251" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="Q251" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="R251" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="S251" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Se trabaja transversalmente con otras asignaturas pero, no se encuentra especificado como tal en el plan de área. 
+Se incluye personal externo para trabajar con estudiantes con necesidades educativas especiales pero desde el área de psicología y bienestar estudiantil de la institución.
+En el pla de estudio no se hace diferencias de genero, todos los estudiantes trabjan en igual de condiciones. </t>
+        </is>
+      </c>
+      <c r="T251" t="inlineStr"/>
+      <c r="U251" t="inlineStr">
+        <is>
+          <t>La red de comunidades y escuelas Lasallistas tiene por misión formar integralmente, generar conocimiento educativo pertinente, aprender en comunidad, anunciar el evangelio y contribuir a la consolidación de una sociedad pacífica, justa, inclusiva, democrática que promueve el desarrollo humano integral y sustentable.</t>
+        </is>
+      </c>
+      <c r="V251" t="inlineStr">
+        <is>
+          <t>En el año 2024 seremos reconocidos por:
+1. Ser comunidades que reflexionan, recrean y oran los procesos de las instituciones educativas que animan.
+2. Ser una red de comunidades y obras educativas comprometidas con la consolidación de una sociedad pacífica, justa, inclusiva, democrática que promueve el desarrollo humano integral y sustentable.
+3.La opción preferencial por los pobres en especial la niñez y la juventud.
+4. Los procesos de anuncio del evangelio en los contextos educativos.
+5. Ser referentes de formación integral de excelencia.
+6. La generación de conocimiento pertinente que transforma los procesos educativos y sociales.</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="n">
+        <v>251</v>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>Encuesta Planes de estudio</t>
+        </is>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>03/06</t>
+        </is>
+      </c>
+      <c r="D252" t="inlineStr">
+        <is>
+          <t>037</t>
+        </is>
+      </c>
+      <c r="E252" t="n">
+        <v>251</v>
+      </c>
+      <c r="F252" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="G252" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="H252" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="I252" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="J252" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="K252" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="L252" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="M252" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="N252" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="O252" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="P252" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="Q252" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="R252" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="S252" t="inlineStr"/>
+      <c r="T252" t="inlineStr"/>
+      <c r="U252" t="inlineStr">
+        <is>
+          <t>Inspirar a los estudiantes para que logren metas personales y academicas, a través de actividades apropiadas que motiven su interes y aprendizaje</t>
+        </is>
+      </c>
+      <c r="V252" t="inlineStr">
+        <is>
+          <t>Ayudar a extender los valores más allá del aula de clase, asegurándonos que las habilidades y conceptos enseñados sean auténticamente útiles en el mundo.</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="n">
+        <v>252</v>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>Encuesta Planes de estudio</t>
+        </is>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>03/06</t>
+        </is>
+      </c>
+      <c r="D253" t="inlineStr">
+        <is>
+          <t>038</t>
+        </is>
+      </c>
+      <c r="E253" t="n">
+        <v>252</v>
+      </c>
+      <c r="F253" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="G253" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="H253" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="I253" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="J253" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="K253" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="L253" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="M253" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="N253" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="O253" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="P253" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="Q253" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="R253" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="S253" t="inlineStr"/>
+      <c r="T253" t="inlineStr"/>
+      <c r="U253" t="inlineStr">
+        <is>
+          <t>Formar jóvenes emprendedores responsables con valores que le permitan su máximo desenvolvimiento y productividad en la sociedad. Desde los niveles Preescolar, Básico y Medía se ofrece una educación de alta calidad donde se forman personas emprendedoras, responsables y con valores sólidos que les permita su máximo desenvolvimiento y productividad en la sociedad.</t>
+        </is>
+      </c>
+      <c r="V253" t="inlineStr">
+        <is>
+          <t>La institución educativa Rafael Valle Meza se proyecta como una comunidad que propende por la contextualización del quehacer pedagógico en los aspectos académicos y Técnico Comercial con un alto nivel de competencia acorde con las exigencias del mercado ocupacional sin dejar de lado la dimensión social.</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="n">
+        <v>253</v>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>Encuesta Planes de estudio</t>
+        </is>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>03/06</t>
+        </is>
+      </c>
+      <c r="D254" t="inlineStr">
+        <is>
+          <t>039</t>
+        </is>
+      </c>
+      <c r="E254" t="n">
+        <v>253</v>
+      </c>
+      <c r="F254" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="G254" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="H254" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="I254" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="J254" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="K254" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="L254" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="M254" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="N254" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="O254" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="P254" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="Q254" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="R254" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="S254" t="inlineStr"/>
+      <c r="T254" t="inlineStr"/>
+      <c r="U254" t="inlineStr">
+        <is>
+          <t>Nuestra misión es formar a personas que contribuyan a su desarrollo afectivo, social, competentes tanto en lo cognitivo o intelectual como en lo deportivo, con capacidad para resolver problemas y que convivan en armonía y respeto dentro de la divergencia.</t>
+        </is>
+      </c>
+      <c r="V254" t="inlineStr">
+        <is>
+          <t>El Colegio Nacional Loperena aspira a convertirse en los próximos años en una de las instituciones más destacadas del país, donde sus educandos sean respetados por la cultura de la convivencia, por su alto desarrollo académico, deportivo y responsables de su medio ambiente.</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="n">
+        <v>254</v>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>Encuesta Planes de estudio</t>
+        </is>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>03/06</t>
+        </is>
+      </c>
+      <c r="D255" t="inlineStr">
+        <is>
+          <t>040</t>
+        </is>
+      </c>
+      <c r="E255" t="n">
+        <v>254</v>
+      </c>
+      <c r="F255" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="G255" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H255" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I255" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="J255" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="K255" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="L255" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="M255" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="N255" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="O255" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="P255" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="Q255" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="R255" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="S255" t="inlineStr"/>
+      <c r="T255" t="inlineStr"/>
+      <c r="U255" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Desarrollar la formación integral de los estudiantes en competencias básicas, generales, ciudadanas y laborales con alta calidad académica y humanística; fortaleciendo los valores, estimulando el espíritu creativo, investigativo y competitivo, mediante la utilización de las diferentes propuestas pedagógicas, propiciando la satisfacción de las necesidades y expectativas de nuestros padres de familia y educandos, en busca de la excelencia educativa y la mejora continua de los procesos. </t>
+        </is>
+      </c>
+      <c r="V255" t="inlineStr">
+        <is>
+          <t>La institución educativa Leonidas Acuña, con sus sedes Rafael Valle Meza, San Fernando y Hogar del Niño, dedican todos sus esfuerzos directivos, administrativos, académicos y financieros, para que hacia el año 2016, nos encontremos ubicados dentro de las mejores Instituciones educativas de la región, aportando a la sociedad jóvenes con alto comportamiento humanístico, asertivos, emprendedores y competitivos para adaptarse a las exigencias del mundo global.</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="n">
+        <v>255</v>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>Encuesta Planes de estudio</t>
+        </is>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>03/06</t>
+        </is>
+      </c>
+      <c r="D256" t="inlineStr">
+        <is>
+          <t>041</t>
+        </is>
+      </c>
+      <c r="E256" t="n">
+        <v>255</v>
+      </c>
+      <c r="F256" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="G256" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H256" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I256" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="J256" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="K256" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="L256" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="M256" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="N256" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="O256" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="P256" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="Q256" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="R256" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="S256" t="inlineStr"/>
+      <c r="T256" t="inlineStr"/>
+      <c r="U256" t="inlineStr">
+        <is>
+          <t>La institución Educativa Casimiro Raúl Maestre es un establecimiento de carácter oficial,  de modalidad académica, que tiene como misión ofrecer un servicio educativo en los niveles Preescolar, básica, media y educación por ciclos, cimentado en el modelo Critico-Social con  un enfoque pedagógico humanista-desarrollista que contribuya al crecimiento personal, familiar y social de la comunidad.</t>
+        </is>
+      </c>
+      <c r="V256" t="inlineStr">
+        <is>
+          <t>La institución Educativa Casimiro Raúl Maestre, para el año 2020 será reconocida por su currículo incluyente, impactando  en la comunidad con una educación de calidad. Formando lideres emprendedores con espíritu investigativo y dinámico, generadores de cambios positivos en su contexto.</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="n">
+        <v>256</v>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>Encuesta Planes de estudio</t>
+        </is>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>03/06</t>
+        </is>
+      </c>
+      <c r="D257" t="inlineStr">
+        <is>
+          <t>042</t>
+        </is>
+      </c>
+      <c r="E257" t="n">
+        <v>256</v>
+      </c>
+      <c r="F257" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="G257" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H257" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I257" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="J257" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="K257" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="L257" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="M257" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="N257" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="O257" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="P257" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="Q257" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="R257" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="S257" t="inlineStr"/>
+      <c r="T257" t="inlineStr"/>
+      <c r="U257" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La Institución Educativa MANUEL GERMAN CUELLO GUTIERREZ, tiene la misión  de formar un educando integral, capaz de generar cambios a partir de sus propios conocimientos, teniendo siempre en cuenta el desarrollo sociocultural de su entorno y el respeto mutuo por la dignidad humana, además poseer un espíritu científico y unos  valores  éticos  que  le  permitan  afrontar  los  desafíos  del  nuevo  milenio, apoyados  en  una  planta  de  personal  docente  idónea  en  las  diferentes  áreas  del saber,  una  planta  física  acorde  a  nuestras  necesidades  y  materiales  didácticos  y suficientes para avanzar paralelos a la tecnología y los avances del mundo.  </t>
+        </is>
+      </c>
+      <c r="V257" t="inlineStr">
+        <is>
+          <t>Ser una de las primeras instituciones educativas del departamento por la calidad de 
+la  educación  que  aquí  se  brinda,  centrada  en  los  valores  de  amor,  tolerancia, 
+autoestima,  equidad;  desarrollando  competencias  comunicativas  e  investigando, 
+para  lo  cual  contamos  con  ayudas  pedagógicas  y  un  talento  humano  que  nos 
+permitirá  hacia  el  año  2014  convertirnos  en  una  de las  mejores  instituciones 
+educativas del municipio y del departamento.</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="n">
+        <v>257</v>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>Encuesta Planes de estudio</t>
+        </is>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>03/06</t>
+        </is>
+      </c>
+      <c r="D258" t="inlineStr">
+        <is>
+          <t>036</t>
+        </is>
+      </c>
+      <c r="E258" t="n">
+        <v>257</v>
+      </c>
+      <c r="F258" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="G258" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H258" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I258" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="J258" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="K258" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="L258" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="M258" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="N258" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="O258" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="P258" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="Q258" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="R258" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="S258" t="inlineStr"/>
+      <c r="T258" t="inlineStr"/>
+      <c r="U258" t="inlineStr">
+        <is>
+          <t>Formar y Educar» para desarrollar las potencialidades  y talentos de sus educandos: como conocimientos,  habilidades, aptitudes  y valores  mediante  las  cuales  pueden  fundamentar  su desarrollo  en forma permanente, contribuyendo a la formación agricultura vocacional como futuros agricultores y promotores del Desarrollo Rural de Colombia con el lema: Cabeza Corazón para los Campos Colombianos</t>
+        </is>
+      </c>
+      <c r="V258" t="inlineStr">
+        <is>
+          <t>Contribuir al mejoramiento educativo de la institución mediante la reflexión, participación y concentración de la comunidad educativa, para alcanzar la «excelencia educativa</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/descargables/PlanCFK.xlsx
+++ b/data/descargables/PlanCFK.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V254"/>
+  <dimension ref="A1:V256"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26986,6 +26986,217 @@
         </is>
       </c>
     </row>
+    <row r="255">
+      <c r="A255" t="n">
+        <v>259</v>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>Encuesta Planes de estudio</t>
+        </is>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>10/06</t>
+        </is>
+      </c>
+      <c r="D255" t="inlineStr">
+        <is>
+          <t>194</t>
+        </is>
+      </c>
+      <c r="E255" t="n">
+        <v>259</v>
+      </c>
+      <c r="F255" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="G255" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="H255" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I255" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="J255" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="K255" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="L255" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="M255" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="N255" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="O255" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="P255" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="Q255" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="R255" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="S255" t="inlineStr"/>
+      <c r="T255" t="inlineStr"/>
+      <c r="U255" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La misión de la institución etnoeducativa rural el eden está contemplada en sus objetivos, principios, fundamentos y filosofía que buscan la formación de los educandos con actitud positiva, activa, crítica y participativa frente a la problemática de su contexto con el compromiso de contribuir en la formación de las nuevas generaciones basados en la idoneidad, en la ética y en lo moral donde se resalte su formación, desarrollando su currículo  con la finalidad de que puedan continuar sus estudios superiores con miras de convertirse en líderes que en el mañana rijan los destinos de su comunidad o de su propio pueblo en el respeto y cumplimiento de valores éticos y axiológicos. </t>
+        </is>
+      </c>
+      <c r="V255" t="inlineStr">
+        <is>
+          <t>La institución etnoeducativa rural el eden se propone ser una Institución formadora de generaciones que  valoren su cultura y que cada día se sientan más orgulosos de ella,  que estén en  permanente actitud de construcción e investigación del saber que permita retomar a través  de paradigmas pertinentes, donde el educando aprenda a buscar estrategias para la solución de problemas, que le facilite su autonomía, el enriquecimiento y fortaleza de su cultura donde se tengan en cuenta todos los aspectos de la persona en relación con el entorno etnológico, cultural, político, y social, tenidos en cuenta el Componente Laboral Artesanal Wayuu para su desempeño.</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="n">
+        <v>260</v>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>Encuesta Planes de estudio</t>
+        </is>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>10/06</t>
+        </is>
+      </c>
+      <c r="D256" t="inlineStr">
+        <is>
+          <t>193</t>
+        </is>
+      </c>
+      <c r="E256" t="n">
+        <v>260</v>
+      </c>
+      <c r="F256" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="G256" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="H256" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="I256" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="J256" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="K256" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="L256" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="M256" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="N256" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="O256" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="P256" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="Q256" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="R256" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="S256" t="inlineStr"/>
+      <c r="T256" t="inlineStr"/>
+      <c r="U256" t="inlineStr">
+        <is>
+          <t>La IED GUILLERMO CANO ISAZA jornada mañana, tarde y noche es una
+institución oficial de grado 0 a 11 de carácter media técnica y superior , enfocada a
+las especialidades de Comercio (Contabilidad), Industrial (Diseño Industrial) y
+Ciencias (Procesamiento de Alimentos). El colegio forma niños, jóvenes y adultos
+en desarrollo de competencias laborales, con herramientas conceptuales,
+artísticas, científicas, tecnológicas y axiológicas, preparándolos para solucionar
+sus problemas personales, de su entorno social, profesional y laboral.</t>
+        </is>
+      </c>
+      <c r="V256" t="inlineStr">
+        <is>
+          <t>El Colegio CEDID Guillermo Cano Isaza IED, aspira a consolidarse y mantenerse
+como una institución sobresaliente en Educación Media Técnica y nivel superior
+en articulación con el SENA en la localidad de Ciudad Bolívar, que sea reconocida
+por su eficacia y eficiencia en su organización: formación académica, técnica y
+humana con la vinculación en la generación de proyectos que beneficien a la
+comunidad.</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/descargables/PlanCFK.xlsx
+++ b/data/descargables/PlanCFK.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V256"/>
+  <dimension ref="A1:V258"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27197,6 +27197,216 @@
         </is>
       </c>
     </row>
+    <row r="257">
+      <c r="A257" t="n">
+        <v>261</v>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>Encuesta Planes de estudio</t>
+        </is>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>11/06</t>
+        </is>
+      </c>
+      <c r="D257" t="inlineStr">
+        <is>
+          <t>033</t>
+        </is>
+      </c>
+      <c r="E257" t="n">
+        <v>261</v>
+      </c>
+      <c r="F257" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="G257" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="H257" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I257" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="J257" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="K257" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="L257" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="M257" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="N257" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="O257" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="P257" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="Q257" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="R257" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="S257" t="inlineStr"/>
+      <c r="T257" t="inlineStr"/>
+      <c r="U257" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La Institución Educativa Técnica “Ciudad Arkalá “, de carácter oficial, con énfasis en Sistemas y articulación con el SENA en Técnico en Sistemas, forma integralmente al futuro ciudadano con capacidad de liderazgo,   a través de la práctica   de competencias lingüísticas, ciudadanas, ambientales, éticas y  laborales,  acorde con las exigencias y avances de la ciencia y la tecnología, a fin de que sea un agente dinamizador del desarrollo local, regional y nacional, proporcionándole los recursos humanos y tecnológicos actualizados para cada área de estudio, con proyección a la educación superior como lo consagran los objetivos de la educación media técnica en la ley general de la Educación. </t>
+        </is>
+      </c>
+      <c r="V257" t="inlineStr">
+        <is>
+          <t>La Institución Educativa Técnica Ciudad Arkalá, de Ibagué, tiene como visión posicionarse en el año 2020 como una institución técnica líder en articulación con el SENA y universidades locales, formadora de seres humanos moralmente íntegros, amantes de la naturaleza, que conciban el conocimiento como liberación y un medio de acción transformadora de la realidad; artífices del cambio social, político, cultural; conocedores de las nuevas tecnologías y avances científicos para ponerlos al servicio del progreso y el mejoramiento de la calidad de vida de la familia y de la sociedad.</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="n">
+        <v>262</v>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>Encuesta Planes de estudio</t>
+        </is>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>11/06</t>
+        </is>
+      </c>
+      <c r="D258" t="inlineStr">
+        <is>
+          <t>245</t>
+        </is>
+      </c>
+      <c r="E258" t="n">
+        <v>262</v>
+      </c>
+      <c r="F258" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="G258" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="H258" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I258" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="J258" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="K258" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="L258" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="M258" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="N258" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="O258" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="P258" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="Q258" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="R258" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="S258" t="inlineStr"/>
+      <c r="T258" t="inlineStr"/>
+      <c r="U258" t="inlineStr">
+        <is>
+          <t>La Institución Educativa Limonar, de carácter
+Oficial, ofrece los niveles de Preescolar, Básica y Media
+Técnica, programas de educación para jóvenes, adultos, e
+inclusión de niños (as) con necesidades educativas
+especiales y promueve la formación en competencias para
+el desempeño exitoso en el mundo laboral, mediante la
+vivencia de valores que contribuyan a mejorar la calidad de
+vida de todos los integrantes de la comunidad educativa.</t>
+        </is>
+      </c>
+      <c r="V258" t="inlineStr">
+        <is>
+          <t>La Institución Educativa El Limonar en el año 2017,
+será líder en el trabajo basado en la convivencia, el respeto
+por el otro y sus diferencias, así como la protección del
+medio ambiente.</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/descargables/PlanCFK.xlsx
+++ b/data/descargables/PlanCFK.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V258"/>
+  <dimension ref="A1:V259"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27407,6 +27407,106 @@
         </is>
       </c>
     </row>
+    <row r="259">
+      <c r="A259" t="n">
+        <v>263</v>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>Encuesta Planes de estudio</t>
+        </is>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>15/06</t>
+        </is>
+      </c>
+      <c r="D259" t="inlineStr">
+        <is>
+          <t>143</t>
+        </is>
+      </c>
+      <c r="E259" t="n">
+        <v>263</v>
+      </c>
+      <c r="F259" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="G259" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="H259" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I259" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="J259" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="K259" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="L259" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="M259" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="N259" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="O259" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="P259" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="Q259" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="R259" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="S259" t="inlineStr"/>
+      <c r="T259" t="inlineStr"/>
+      <c r="U259" t="inlineStr">
+        <is>
+          <t>Formar a estudiantes competentes en lo cognitivo y lo social, fortaleciendo su responsabilidad con lo público, lo ético, los derechos humanos y el medio ambiente, haciendo de ellos personas críticas capaces de llevar a cabo una transformación personal y de su entorno.</t>
+        </is>
+      </c>
+      <c r="V259" t="inlineStr">
+        <is>
+          <t>Nos proyectamos al 2025 como una Institución Educativa reconocida a nivel Distrital por la superación y el mejoramiento continuo de sus procesos escolares al servicio de la comunidad, con calidez humana, compromiso institucional y trabajo en equipo.</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/descargables/PlanCFK.xlsx
+++ b/data/descargables/PlanCFK.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V259"/>
+  <dimension ref="A1:V260"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27507,6 +27507,106 @@
         </is>
       </c>
     </row>
+    <row r="260">
+      <c r="A260" t="n">
+        <v>264</v>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>Encuesta Planes de estudio</t>
+        </is>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>17/06</t>
+        </is>
+      </c>
+      <c r="D260" t="inlineStr">
+        <is>
+          <t>195</t>
+        </is>
+      </c>
+      <c r="E260" t="n">
+        <v>264</v>
+      </c>
+      <c r="F260" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="G260" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="H260" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I260" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="J260" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="K260" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="L260" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="M260" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="N260" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="O260" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="P260" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="Q260" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="R260" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="S260" t="inlineStr"/>
+      <c r="T260" t="inlineStr"/>
+      <c r="U260" t="inlineStr">
+        <is>
+          <t>El Colegio Cundinamarca IED, contribuye en la formación de personas autónomas; a partir del desarrollo humano y una educación de calidad, fundamentada en las competencias comunicativas en lengua materna e inglesa, la lúdica y el pensamiento crítico para que a partir de la construcción de su proyecto de vida transforme su realidad individual y colectiva.</t>
+        </is>
+      </c>
+      <c r="V260" t="inlineStr">
+        <is>
+          <t>El Colegio Cundinamarca IED ubicado en la localidad 19 ciudad Bolívar; será reconocido por la comunidad local, Distrital y Departamental por brindar a los estudiantes una formación integral caracterizada por altos niveles de competencia comunicativa, en lengua materna e inglesa y pensamiento crítico; permitiéndole mayor competitividad y mejores desempeños académicos y laborales.</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/descargables/PlanCFK.xlsx
+++ b/data/descargables/PlanCFK.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V260"/>
+  <dimension ref="A1:V261"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27607,6 +27607,106 @@
         </is>
       </c>
     </row>
+    <row r="261">
+      <c r="A261" t="n">
+        <v>265</v>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>Encuesta Planes de estudio</t>
+        </is>
+      </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>18/06</t>
+        </is>
+      </c>
+      <c r="D261" t="inlineStr">
+        <is>
+          <t>242</t>
+        </is>
+      </c>
+      <c r="E261" t="n">
+        <v>265</v>
+      </c>
+      <c r="F261" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="G261" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="H261" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="I261" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="J261" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="K261" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="L261" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="M261" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="N261" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="O261" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="P261" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="Q261" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="R261" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="S261" t="inlineStr"/>
+      <c r="T261" t="inlineStr"/>
+      <c r="U261" t="inlineStr">
+        <is>
+          <t>Somos una comunidad educativa incluyente que forma niños, niñas y jóvenes en competencias académicas y ciudadanas, capaces de participar en la transformación constructiva de su entorno.</t>
+        </is>
+      </c>
+      <c r="V261" t="inlineStr">
+        <is>
+          <t>En el 2025 seremos una comunidad educativa que lleva a cabo procesos de inclusión, convivencia y mejoramiento académico para aportar al bienestar individual y social de sus miembros.</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/descargables/PlanCFK.xlsx
+++ b/data/descargables/PlanCFK.xlsx
@@ -13874,7 +13874,7 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>045</t>
+          <t>164</t>
         </is>
       </c>
       <c r="E128" t="n">
@@ -13882,7 +13882,7 @@
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No</t>
         </is>
       </c>
       <c r="G128" t="inlineStr">
@@ -13892,7 +13892,7 @@
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
@@ -13902,7 +13902,7 @@
       </c>
       <c r="J128" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="K128" t="inlineStr">
@@ -13917,17 +13917,17 @@
       </c>
       <c r="M128" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="N128" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="O128" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="P128" t="inlineStr">
@@ -13945,13 +13945,114 @@
           <t>No</t>
         </is>
       </c>
-      <c r="S128" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En plan de estudios no hace referencia específicamente al pensamiento computacional, más sin embargo,  la mayoría de los grados en el tercer trimestre ven programación donde se hace referencia al trabajo con la algoritmia </t>
-        </is>
-      </c>
+      <c r="S128" t="inlineStr"/>
       <c r="T128" t="inlineStr"/>
       <c r="U128" t="inlineStr">
+        <is>
+          <t>El Liceo Antioqueño es una institución educativa oficial y atiende estudiantes en los niveles de preescolar, básica y media. Desarrolla un proyecto de transformación social, democrática, pluralista, participativa e incluyente. 
+Ofrece un servicio de calidad para la formación permanente de personas integrales, con altas competencias personales, sociales, científicas, tecnológicas y laborales, para asumir los retos que la sociedad le demanda, en aras de un desarrollo humano sostenible.</t>
+        </is>
+      </c>
+      <c r="V128" t="inlineStr">
+        <is>
+          <t>El Liceo Antioqueño en la perspectiva del año 2025, será reconocida por la comunidad local y nacional como una institución de calidad, inclusiva y con altos índices de eficacia y eficiencia de su sistema de gestión, reflejados en la formación y desempeño de sus estudiantes y egresados, como seres integrales, ciudadanos de bien y gestores de una transformación de impacto social.</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="n">
+        <v>130</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>Encuesta Planes de estudio</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>12/05</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>045</t>
+        </is>
+      </c>
+      <c r="E129" t="n">
+        <v>130</v>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="H129" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I129" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="J129" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="M129" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="N129" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="O129" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="P129" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="Q129" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="R129" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="S129" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En plan de estudios no hace referencia específicamente al pensamiento computacional, más sin embargo,  la mayoría de los grados en el tercer trimestre ven programación donde se hace referencia al trabajo con la algoritmia </t>
+        </is>
+      </c>
+      <c r="T129" t="inlineStr"/>
+      <c r="U129" t="inlineStr">
         <is>
           <t>“El colegio San Cayetano IED contribuye a la
 formación de estudiantes integrales con alta calidad
@@ -13961,113 +14062,12 @@
 aporten a la construcción de su proyecto de vida.”</t>
         </is>
       </c>
-      <c r="V128" t="inlineStr">
+      <c r="V129" t="inlineStr">
         <is>
           <t>“El colegio San Cayetano IED será reconocido en
 2025 a nivel local por formar estudiantes con alto nivel
 académico y humano, siendo agentes transformadores de
 su realidad social”</t>
-        </is>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" t="n">
-        <v>130</v>
-      </c>
-      <c r="B129" t="inlineStr">
-        <is>
-          <t>Encuesta Planes de estudio</t>
-        </is>
-      </c>
-      <c r="C129" t="inlineStr">
-        <is>
-          <t>12/05</t>
-        </is>
-      </c>
-      <c r="D129" t="inlineStr">
-        <is>
-          <t>164</t>
-        </is>
-      </c>
-      <c r="E129" t="n">
-        <v>130</v>
-      </c>
-      <c r="F129" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="G129" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="H129" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="I129" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="J129" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="M129" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="N129" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="O129" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="P129" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="Q129" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="R129" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="S129" t="inlineStr"/>
-      <c r="T129" t="inlineStr"/>
-      <c r="U129" t="inlineStr">
-        <is>
-          <t>El Liceo Antioqueño es una institución educativa oficial y atiende estudiantes en los niveles de preescolar, básica y media. Desarrolla un proyecto de transformación social, democrática, pluralista, participativa e incluyente. 
-Ofrece un servicio de calidad para la formación permanente de personas integrales, con altas competencias personales, sociales, científicas, tecnológicas y laborales, para asumir los retos que la sociedad le demanda, en aras de un desarrollo humano sostenible.</t>
-        </is>
-      </c>
-      <c r="V129" t="inlineStr">
-        <is>
-          <t>El Liceo Antioqueño en la perspectiva del año 2025, será reconocida por la comunidad local y nacional como una institución de calidad, inclusiva y con altos índices de eficacia y eficiencia de su sistema de gestión, reflejados en la formación y desempeño de sus estudiantes y egresados, como seres integrales, ciudadanos de bien y gestores de una transformación de impacto social.</t>
         </is>
       </c>
     </row>
@@ -15146,7 +15146,7 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>196</t>
+          <t>190</t>
         </is>
       </c>
       <c r="E140" t="n">
@@ -15169,7 +15169,7 @@
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
@@ -15179,7 +15179,7 @@
       </c>
       <c r="K140" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No</t>
         </is>
       </c>
       <c r="L140" t="inlineStr">
@@ -15221,13 +15221,12 @@
       <c r="T140" t="inlineStr"/>
       <c r="U140" t="inlineStr">
         <is>
-          <t xml:space="preserve">La Institución Educativa Escuela Normal Superior Indígena de Uribía, tiene como Misión formar maestros para Preescolar y la Básica Primaria, mediante la Propuesta Pedagógica  de la Afirmación Cultural  en la flexibilización y diversificación curricular, aprendizaje cooperativo y significativo con un talento humano altamente cualificado.
-</t>
+          <t>La misión de la Institución Educativa Alfonso López Pumarejo propende por  la formación de los educandos con actitud positiva, activa, crítica y participativa frente a la problemática de su contexto, con el compromiso de contribuir en el desarrollo de las nuevas generaciones basados en la idoneidad, en la ética y en lo moral donde se resalte su formación, con la finalidad de convertirse en líderes que rijan los destinos de su comunidad en el respeto y cumplimiento de valores éticos y axiológicos, donde prevalezca y se reafirme la cultura wayuu.</t>
         </is>
       </c>
       <c r="V140" t="inlineStr">
         <is>
-          <t>La Institución Educativa Escuela Normal Superior Indígena de Uribía al 2023, se constituirá en una institución líder en la formación de maestros para el Preescolar y la Básica Primaria con calidad pedagógica e investigativa mediante su Propuesta Pedagógica de la Afirmación Cultural en contextos interculturales.</t>
+          <t xml:space="preserve">La Institución Educativa Alfonso López Pumarejo en procura de la excelencia académica y la calidad humana emanada de sus estudiantes y docentes para el año 2030 será reconocida por su gestión académica y sociocultural, aportando a la sociedad seres humanos critico pensantes que impacten de manera asertiva y positiva y cuyo enfoque sea la transformación de su pensamiento a  través de la sensibilidad, la pedagogía, el amor y la pluralidad sobre las cuales se fundamenta nuestra amada nación. Demostrando ser personas competitivas, comprometidas con el desarrollo  del potencial humano y  el mejoramiento de la calidad de vida. </t>
         </is>
       </c>
     </row>
@@ -15247,7 +15246,7 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>190</t>
+          <t>196</t>
         </is>
       </c>
       <c r="E141" t="n">
@@ -15270,7 +15269,7 @@
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
@@ -15280,7 +15279,7 @@
       </c>
       <c r="K141" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="L141" t="inlineStr">
@@ -15322,12 +15321,13 @@
       <c r="T141" t="inlineStr"/>
       <c r="U141" t="inlineStr">
         <is>
-          <t>La misión de la Institución Educativa Alfonso López Pumarejo propende por  la formación de los educandos con actitud positiva, activa, crítica y participativa frente a la problemática de su contexto, con el compromiso de contribuir en el desarrollo de las nuevas generaciones basados en la idoneidad, en la ética y en lo moral donde se resalte su formación, con la finalidad de convertirse en líderes que rijan los destinos de su comunidad en el respeto y cumplimiento de valores éticos y axiológicos, donde prevalezca y se reafirme la cultura wayuu.</t>
+          <t xml:space="preserve">La Institución Educativa Escuela Normal Superior Indígena de Uribía, tiene como Misión formar maestros para Preescolar y la Básica Primaria, mediante la Propuesta Pedagógica  de la Afirmación Cultural  en la flexibilización y diversificación curricular, aprendizaje cooperativo y significativo con un talento humano altamente cualificado.
+</t>
         </is>
       </c>
       <c r="V141" t="inlineStr">
         <is>
-          <t xml:space="preserve">La Institución Educativa Alfonso López Pumarejo en procura de la excelencia académica y la calidad humana emanada de sus estudiantes y docentes para el año 2030 será reconocida por su gestión académica y sociocultural, aportando a la sociedad seres humanos critico pensantes que impacten de manera asertiva y positiva y cuyo enfoque sea la transformación de su pensamiento a  través de la sensibilidad, la pedagogía, el amor y la pluralidad sobre las cuales se fundamenta nuestra amada nación. Demostrando ser personas competitivas, comprometidas con el desarrollo  del potencial humano y  el mejoramiento de la calidad de vida. </t>
+          <t>La Institución Educativa Escuela Normal Superior Indígena de Uribía al 2023, se constituirá en una institución líder en la formación de maestros para el Preescolar y la Básica Primaria con calidad pedagógica e investigativa mediante su Propuesta Pedagógica de la Afirmación Cultural en contextos interculturales.</t>
         </is>
       </c>
     </row>

--- a/data/descargables/PlanCFK.xlsx
+++ b/data/descargables/PlanCFK.xlsx
@@ -16900,329 +16900,328 @@
     </row>
     <row r="157">
       <c r="A157" t="n">
+        <v>160</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>Encuesta Planes de estudio</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>14/05</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>174</t>
+        </is>
+      </c>
+      <c r="E157" t="n">
+        <v>160</v>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="H157" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I157" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="J157" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="L157" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="M157" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="N157" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="O157" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="P157" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="Q157" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="R157" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="S157" t="inlineStr">
+        <is>
+          <t>La necesidad especial más trabajada en la IE, son los sordos, y para ello en cada salón hay una persona experta en el lenguaje de señas, este colegio es focalicalizado para distintos tipos de necesidades, ya sean en el aprendizaje o físicas o psicologicas; sin mebargo la estructura física de la IE no es la adecuada, no tienen sala de sistemas y por ende no hay computadores.</t>
+        </is>
+      </c>
+      <c r="T157" t="inlineStr"/>
+      <c r="U157" t="inlineStr">
+        <is>
+          <t>La misión de la Institución Educativa Ricaurte es la formación de personas líderes, fundamentada en componentes científicos, tecnológicos, morales, sociales, principios y valores que les permite a los estudiantes mejorar su calidad de vida y proyectar su futuro laboral o profesional, a través del aprendizaje significativo basado en las Tecnologías de la información y el Bilingüismo.</t>
+        </is>
+      </c>
+      <c r="V157" t="inlineStr">
+        <is>
+          <t>La Institución Educativa Ricaurte se proyecta en el 2025,  para ser reconocida en el ámbito local y nacional por brindar un servicio educativo de alta calidad, líderes en el desarrollo de estrategias que fortalezcan: el manejo de las TIC, el cuidado del medio ambiente, el desarrollo de habilidades en el manejo del idioma extranjero inglés, la inclusión de estudiantes con discapacidad auditiva y la convivencia pacífica, mediante un sistema de gestión de calidad, con el apoyo de toda la comunidad.</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="n">
         <v>161</v>
       </c>
-      <c r="B157" t="inlineStr">
+      <c r="B158" t="inlineStr">
         <is>
           <t>Encuesta Planes de estudio</t>
         </is>
       </c>
-      <c r="C157" t="inlineStr">
+      <c r="C158" t="inlineStr">
         <is>
           <t>14/05</t>
         </is>
       </c>
-      <c r="D157" t="inlineStr">
+      <c r="D158" t="inlineStr">
         <is>
           <t>223</t>
         </is>
       </c>
-      <c r="E157" t="n">
+      <c r="E158" t="n">
         <v>161</v>
       </c>
-      <c r="F157" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="G157" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="H157" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="I157" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="J157" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="L157" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="M157" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="N157" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="O157" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="P157" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="Q157" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="R157" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="S157" t="inlineStr"/>
-      <c r="T157" t="inlineStr">
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="H158" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I158" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="J158" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="L158" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="M158" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="N158" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="O158" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="P158" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="Q158" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="R158" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="S158" t="inlineStr"/>
+      <c r="T158" t="inlineStr">
         <is>
           <t xml:space="preserve">Incluyen temáticas como Páginas web,  blogs, Programación en scratch, Introducción al lenguaje de programación, Programación en entorno de Windows, Realidad virtual, Inteligencia artificial, Robótica, Biotecnología, Nanotecnología, Computación cuántica. </t>
         </is>
       </c>
-      <c r="U157" t="inlineStr">
+      <c r="U158" t="inlineStr">
         <is>
           <t xml:space="preserve">El Colegio Marruecos y Molinos es una institución de carácter oficial, que ofrece educación en los niveles de Preescolar (Transición), Básica primaria, Básica secundaria y Media, en jornadas mañana, tarde y nocturna; promueve la inclusión escolar para estudiantes con discapacidad intelectual leve por medio del modelo de educación inclusiva, así como el desarrollo de programas de la Secretaría de Educación para población vulnerable del Distrito.
 A través de la formación académica, socioemocional y los proyectos extracurriculares fomenta el desarrollo humano desde los campos de pensamiento, fortaleciendo la actitud crítica del estudiante para que se convierta en agente de transformación social mientras crece y aprehende siendo feliz.
 </t>
         </is>
       </c>
-      <c r="V157" t="inlineStr">
+      <c r="V158" t="inlineStr">
         <is>
           <t xml:space="preserve">En el año 2025 la institución será reconocida por su calidad educativa,  impactando a la comunidad a través de la promoción de bachilleres con profundización en los campos de pensamiento matemático y comunicativo.
 El colegio entregará a la sociedad personas críticas y gestoras de cambio que forjen su proyecto de vida, asumiendo los retos que les plantea su entorno socio-ambiental, académico y laboral. </t>
         </is>
       </c>
     </row>
-    <row r="158">
-      <c r="A158" t="n">
+    <row r="159">
+      <c r="A159" t="n">
         <v>162</v>
       </c>
-      <c r="B158" t="inlineStr">
+      <c r="B159" t="inlineStr">
         <is>
           <t>Encuesta Planes de estudio</t>
         </is>
       </c>
-      <c r="C158" t="inlineStr">
+      <c r="C159" t="inlineStr">
         <is>
           <t>14/05</t>
         </is>
       </c>
-      <c r="D158" t="inlineStr">
+      <c r="D159" t="inlineStr">
         <is>
           <t>220</t>
         </is>
       </c>
-      <c r="E158" t="n">
+      <c r="E159" t="n">
         <v>162</v>
       </c>
-      <c r="F158" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="G158" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="H158" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="I158" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="J158" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="L158" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="M158" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="N158" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="O158" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="P158" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="Q158" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="R158" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="S158" t="inlineStr">
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="H159" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I159" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="J159" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="L159" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="M159" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="N159" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="O159" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="P159" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="Q159" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="R159" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="S159" t="inlineStr">
         <is>
           <t>Sólo se manejan temáticas de office y de tecnología basados en la guía 30 del MEN</t>
         </is>
       </c>
-      <c r="T158" t="inlineStr">
+      <c r="T159" t="inlineStr">
         <is>
           <t xml:space="preserve">No se puedo revisar mas planes de área. </t>
         </is>
       </c>
-      <c r="U158" t="inlineStr">
+      <c r="U159" t="inlineStr">
         <is>
           <t xml:space="preserve">El INEM José Eustasio Rivera es una institución de carácter oficial ubicada en la zona urbana de Leticia amazonas, orientada a una formación integral en unos niveles de preescolar, básica y media técnica; en las jornadas diurna y nocturnas, con modalidades técnica en Sistema, Comercio y Ciencias Naturales, además del bachillerato académico, nuestra propuesta pedagógica basada en el modelo constructivista permite el desarrollo de competencia científica y labores que facilita el ingreso a la educación superior de los egresados, y/o vinculación al mundo productivo.
 La formación integral de la institución educativa INEM, resalta los valores de solidaridad respeto, responsabilidad, justicia y equidad, inclusión y tolerancia, la comunidad educativa es multicultural conformada por población de indígena colonos, habitantes de frontera de Perú y Brasil y una población minoritaria vulnerable.
 </t>
         </is>
       </c>
-      <c r="V158" t="inlineStr">
+      <c r="V159" t="inlineStr">
         <is>
           <t>El INEM “José Eustasio Rivera” en el 2020 será reconocido a nivel departamental como una institución educativa de excelencia académica que les permita a los estudiantes el desarrollo y fortalecimiento de las competencias necesarias para garantizar la continuidad de sus estudios o realizar un emprendimiento relacionado con su formación técnica.</t>
-        </is>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" t="n">
-        <v>163</v>
-      </c>
-      <c r="B159" t="inlineStr">
-        <is>
-          <t>Encuesta Planes de estudio</t>
-        </is>
-      </c>
-      <c r="C159" t="inlineStr">
-        <is>
-          <t>14/05</t>
-        </is>
-      </c>
-      <c r="D159" t="inlineStr">
-        <is>
-          <t>065</t>
-        </is>
-      </c>
-      <c r="E159" t="n">
-        <v>163</v>
-      </c>
-      <c r="F159" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="G159" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="H159" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="I159" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="J159" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="L159" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="M159" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="N159" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="O159" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="P159" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="Q159" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="R159" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="S159" t="inlineStr"/>
-      <c r="T159" t="inlineStr">
-        <is>
-          <t>En el plan de estudios de la modalidad Taller de Tecnología, si se incluye pensamiento computacional, es más la asignatura se llama Pensamiento computacional y en ella se desarrollan los contenidos de las fichas del curso inicial de CFK de la 0 a la 6</t>
-        </is>
-      </c>
-      <c r="U159" t="inlineStr">
-        <is>
-          <t>La Institución Educativa Gerardo Valencia Cano tiene como misión formar hombres y mujeres integrales, competentes en la sociedad del conocimiento, capaces de tomar decisiones, establecer relaciones afectivas estables y desarrollar competencias laborales generales y específicas que le posibiliten desempeñarse con éxito en su quehacer laboral y enfrenta con seguridad el desafió y la responsabilidad de ser productivos para sí mismo y para quienes lo rodean, a través de las diez especiales que ofrece la institución.
-Esta misión se fundamenta en los principios de liderazgo, identidad cultural pertenencia e interacción y los valores como honestidad, libertad, solidaridad, lealtad, tolerancia, respeto, y autoestima.</t>
-        </is>
-      </c>
-      <c r="V159" t="inlineStr">
-        <is>
-          <t>La Institución Educativa Gerardo Valencia Cano aspira estar posicionada para el 2016 como uno de los principales centros educativos, y pionero en la formación en carreras tecnológicas, que posibiliten la satisfacción de las necesidades humanas y laborales, de los educandos capaces de apropiarse de la ciencia la tecnología y la cultura, para construir su vida como hombres y mujeres excelentes que se esmeren en ser lideres y siempre estén en la búsqueda de su propia realización, la de su región y la de su país.</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B160" t="inlineStr">
         <is>
@@ -17231,16 +17230,16 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>15/05</t>
+          <t>14/05</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>091</t>
+          <t>065</t>
         </is>
       </c>
       <c r="E160" t="n">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F160" t="inlineStr">
         <is>
@@ -17254,27 +17253,27 @@
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No</t>
         </is>
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No</t>
         </is>
       </c>
       <c r="K160" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No</t>
         </is>
       </c>
       <c r="L160" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No</t>
         </is>
       </c>
       <c r="M160" t="inlineStr">
@@ -17289,44 +17288,45 @@
       </c>
       <c r="O160" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No</t>
         </is>
       </c>
       <c r="P160" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No</t>
         </is>
       </c>
       <c r="Q160" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No</t>
         </is>
       </c>
       <c r="R160" t="inlineStr">
         <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="S160" t="inlineStr">
-        <is>
-          <t>La IE realiza a través del PIAR acompañamiento y ajuste a los planes de área y currículo para estudiantes con o en discapacidad del aprendizaje. En los clubes o semilleros de investigación se fomenta la participación en porcentajes equilibrados de niñas y niños</t>
-        </is>
-      </c>
-      <c r="T160" t="inlineStr"/>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="S160" t="inlineStr"/>
+      <c r="T160" t="inlineStr">
+        <is>
+          <t>En el plan de estudios de la modalidad Taller de Tecnología, si se incluye pensamiento computacional, es más la asignatura se llama Pensamiento computacional y en ella se desarrollan los contenidos de las fichas del curso inicial de CFK de la 0 a la 6</t>
+        </is>
+      </c>
       <c r="U160" t="inlineStr">
         <is>
-          <t>Somos una institución educativa de carácter oficial que busca formar humana y académicamente a niños, niñas, jóvenes y adultos; mediante una propuesta pedagógica incluyente e institucional, fundamentada en la investigación como estrategia pedagógica, apoyada en las TIC para lograr el desarrollo social y mejorar la calidad de vida del entorno.</t>
+          <t>La Institución Educativa Gerardo Valencia Cano tiene como misión formar hombres y mujeres integrales, competentes en la sociedad del conocimiento, capaces de tomar decisiones, establecer relaciones afectivas estables y desarrollar competencias laborales generales y específicas que le posibiliten desempeñarse con éxito en su quehacer laboral y enfrenta con seguridad el desafió y la responsabilidad de ser productivos para sí mismo y para quienes lo rodean, a través de las diez especiales que ofrece la institución.
+Esta misión se fundamenta en los principios de liderazgo, identidad cultural pertenencia e interacción y los valores como honestidad, libertad, solidaridad, lealtad, tolerancia, respeto, y autoestima.</t>
         </is>
       </c>
       <c r="V160" t="inlineStr">
         <is>
-          <t>Para el año 2025 la Institución educativa Manuel Ruiz Álvarez, será reconocido a nivel local, regional y nacional por la eficiencia y alta calidad en el desarrollo de la exclusividad y de los procesos pedagógicos, académicos, cognitivos, psicosociales de las poblaciones vulnerables con necesidades educativas especiales.</t>
+          <t>La Institución Educativa Gerardo Valencia Cano aspira estar posicionada para el 2016 como uno de los principales centros educativos, y pionero en la formación en carreras tecnológicas, que posibiliten la satisfacción de las necesidades humanas y laborales, de los educandos capaces de apropiarse de la ciencia la tecnología y la cultura, para construir su vida como hombres y mujeres excelentes que se esmeren en ser lideres y siempre estén en la búsqueda de su propia realización, la de su región y la de su país.</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B161" t="inlineStr">
         <is>
@@ -17335,16 +17335,16 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>16/05</t>
+          <t>15/05</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>203</t>
+          <t>091</t>
         </is>
       </c>
       <c r="E161" t="n">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F161" t="inlineStr">
         <is>
@@ -17358,7 +17358,7 @@
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="I161" t="inlineStr">
@@ -17368,42 +17368,42 @@
       </c>
       <c r="J161" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="K161" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="L161" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="M161" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="N161" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="O161" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="P161" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="Q161" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="R161" t="inlineStr">
@@ -17413,120 +17413,224 @@
       </c>
       <c r="S161" t="inlineStr">
         <is>
-          <t>LA SEDE EDUCATIVA TIENE GRADOS DESDE 5° PRIMARIA A 9 DE BACHILLERATO</t>
-        </is>
-      </c>
-      <c r="T161" t="inlineStr">
-        <is>
-          <t>EN NINGUNA AREA</t>
-        </is>
-      </c>
+          <t>La IE realiza a través del PIAR acompañamiento y ajuste a los planes de área y currículo para estudiantes con o en discapacidad del aprendizaje. En los clubes o semilleros de investigación se fomenta la participación en porcentajes equilibrados de niñas y niños</t>
+        </is>
+      </c>
+      <c r="T161" t="inlineStr"/>
       <c r="U161" t="inlineStr">
         <is>
-          <t>Formar integralmente a los niños, niñas, jóvenes y adultos (decreto 3011) en la practica de valores y con alto sentido de responsabilidad social, cuyo ejercicio de la ciudadanía esta cimentada en la defensa de su identidad cultural étnica, local, regional, nacional y de los patrimonios. Brindar a los estudiantes los espacios y/o ambientes lúdicos, pedagógicos, didácticos, físicos y otros, para motivarlos en los procesos de enseñanza aprendizaje y mejorar la calidad educativa institucional. Establecer acuerdos pedagógicos entre los diferentes entes de la comunidad educativa, que conlleven a nuestros estudiantes a la participación democrática, y al desarrollo de su capacidad crítica, analítica e investigativa haciendo de ellos personas competentes en los diferentes espacios donde se desenvuelvan (familiares y sociales).</t>
+          <t>Somos una institución educativa de carácter oficial que busca formar humana y académicamente a niños, niñas, jóvenes y adultos; mediante una propuesta pedagógica incluyente e institucional, fundamentada en la investigación como estrategia pedagógica, apoyada en las TIC para lograr el desarrollo social y mejorar la calidad de vida del entorno.</t>
         </is>
       </c>
       <c r="V161" t="inlineStr">
         <is>
-          <t xml:space="preserve">Para  el año 2022 será una institución líder en el ofrecimiento  del servicio educativo con calidad y calidez,  cuya política de sana convivencia y de productividad,  Nos permitirá establecer y sostener los convenios inter institucionales, que nos conduzcan al  desarrollo local y regional, con la práctica de los valores como: Amor,  respeto, tolerancia, honestidad, solidaridad, justicia y equidad, en la Apropiación de los avances técnicos, tecnológicos y científicos, cuyo componente de proyección comunitaria contribuya a mejorar la calidad de vida de sus habitantes y los  de su zona de influencia. 
-</t>
+          <t>Para el año 2025 la Institución educativa Manuel Ruiz Álvarez, será reconocido a nivel local, regional y nacional por la eficiencia y alta calidad en el desarrollo de la exclusividad y de los procesos pedagógicos, académicos, cognitivos, psicosociales de las poblaciones vulnerables con necesidades educativas especiales.</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
+        <v>165</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>Encuesta Planes de estudio</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>16/05</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>203</t>
+        </is>
+      </c>
+      <c r="E162" t="n">
+        <v>165</v>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="H162" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I162" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="J162" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="L162" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="M162" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="N162" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="O162" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="P162" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="Q162" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="R162" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="S162" t="inlineStr">
+        <is>
+          <t>LA SEDE EDUCATIVA TIENE GRADOS DESDE 5° PRIMARIA A 9 DE BACHILLERATO</t>
+        </is>
+      </c>
+      <c r="T162" t="inlineStr">
+        <is>
+          <t>EN NINGUNA AREA</t>
+        </is>
+      </c>
+      <c r="U162" t="inlineStr">
+        <is>
+          <t>Formar integralmente a los niños, niñas, jóvenes y adultos (decreto 3011) en la practica de valores y con alto sentido de responsabilidad social, cuyo ejercicio de la ciudadanía esta cimentada en la defensa de su identidad cultural étnica, local, regional, nacional y de los patrimonios. Brindar a los estudiantes los espacios y/o ambientes lúdicos, pedagógicos, didácticos, físicos y otros, para motivarlos en los procesos de enseñanza aprendizaje y mejorar la calidad educativa institucional. Establecer acuerdos pedagógicos entre los diferentes entes de la comunidad educativa, que conlleven a nuestros estudiantes a la participación democrática, y al desarrollo de su capacidad crítica, analítica e investigativa haciendo de ellos personas competentes en los diferentes espacios donde se desenvuelvan (familiares y sociales).</t>
+        </is>
+      </c>
+      <c r="V162" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Para  el año 2022 será una institución líder en el ofrecimiento  del servicio educativo con calidad y calidez,  cuya política de sana convivencia y de productividad,  Nos permitirá establecer y sostener los convenios inter institucionales, que nos conduzcan al  desarrollo local y regional, con la práctica de los valores como: Amor,  respeto, tolerancia, honestidad, solidaridad, justicia y equidad, en la Apropiación de los avances técnicos, tecnológicos y científicos, cuyo componente de proyección comunitaria contribuya a mejorar la calidad de vida de sus habitantes y los  de su zona de influencia. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="n">
         <v>166</v>
       </c>
-      <c r="B162" t="inlineStr">
+      <c r="B163" t="inlineStr">
         <is>
           <t>Encuesta Planes de estudio</t>
         </is>
       </c>
-      <c r="C162" t="inlineStr">
+      <c r="C163" t="inlineStr">
         <is>
           <t>16/05</t>
         </is>
       </c>
-      <c r="D162" t="inlineStr">
+      <c r="D163" t="inlineStr">
         <is>
           <t>244</t>
         </is>
       </c>
-      <c r="E162" t="n">
+      <c r="E163" t="n">
         <v>166</v>
       </c>
-      <c r="F162" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="G162" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="H162" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="I162" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="J162" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="L162" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="M162" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="N162" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="O162" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="P162" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="Q162" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="R162" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="S162" t="inlineStr">
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="H163" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="I163" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="J163" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="L163" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="M163" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="N163" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="O163" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="P163" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="Q163" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="R163" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="S163" t="inlineStr">
         <is>
           <t>CONSTANTEMENTE SE NECESITA FORTALECER EL PLAN DE ESTYDIO EN CUANTO A PENSAMIENTO CO PUTACIONAL</t>
         </is>
       </c>
-      <c r="T162" t="inlineStr"/>
-      <c r="U162" t="inlineStr">
+      <c r="T163" t="inlineStr"/>
+      <c r="U163" t="inlineStr">
         <is>
           <t>La Institución Educativa Federico Ozanam ofrece
 un servicio educativo que fomenta la educación integral del
@@ -17538,7 +17642,7 @@
 y Técnica, y Educación Formal de Adultos.</t>
         </is>
       </c>
-      <c r="V162" t="inlineStr">
+      <c r="V163" t="inlineStr">
         <is>
           <t>La Institución Educativa Federico Ozanam busca
 posicionarse hacia el año 2025 como una organización líder
@@ -17550,113 +17654,9 @@
         </is>
       </c>
     </row>
-    <row r="163">
-      <c r="A163" t="n">
-        <v>167</v>
-      </c>
-      <c r="B163" t="inlineStr">
-        <is>
-          <t>Encuesta Planes de estudio</t>
-        </is>
-      </c>
-      <c r="C163" t="inlineStr">
-        <is>
-          <t>16/05</t>
-        </is>
-      </c>
-      <c r="D163" t="inlineStr">
-        <is>
-          <t>024</t>
-        </is>
-      </c>
-      <c r="E163" t="n">
-        <v>167</v>
-      </c>
-      <c r="F163" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="G163" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="H163" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="I163" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="J163" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="L163" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="M163" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="N163" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="O163" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="P163" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="Q163" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="R163" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="S163" t="inlineStr">
-        <is>
-          <t>El desarrollo de pensamiento computacional, no está incluido en el plan de área</t>
-        </is>
-      </c>
-      <c r="T163" t="inlineStr"/>
-      <c r="U163" t="inlineStr">
-        <is>
-          <t>La institución educativa San Pedro Clavel de Cascajal, tiene como misión, formar personas integras fundamentadas en valores, capaces de resolver situaciones problemáticas mediante el liderazgo, que contribuyan a la transformación positiva de su entorno, orientados hacia el desarrollo de las competencias laborales que le permitan desempeñarse en el ámbito profesional o técnico, mejorando su calidad de vida.</t>
-        </is>
-      </c>
-      <c r="V163" t="inlineStr">
-        <is>
-          <t>La institución educativa San Pedro Clavel de Cascajal, en el 2025, será reconocida por contar con un sistema de gestión de calidad, que promueve la formación de líderes, resignificar su plan de estudios, fortalecer la relación con los padres de familia y comunidad, haber establecido convenios de integración son diversas entidades y asumir los retos tecnológicos del siglo XXI.</t>
-        </is>
-      </c>
-    </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B164" t="inlineStr">
         <is>
@@ -17670,11 +17670,11 @@
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>155</t>
+          <t>024</t>
         </is>
       </c>
       <c r="E164" t="n">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F164" t="inlineStr">
         <is>
@@ -17698,17 +17698,17 @@
       </c>
       <c r="J164" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No</t>
         </is>
       </c>
       <c r="K164" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No</t>
         </is>
       </c>
       <c r="L164" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No</t>
         </is>
       </c>
       <c r="M164" t="inlineStr">
@@ -17733,7 +17733,7 @@
       </c>
       <c r="Q164" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="R164" t="inlineStr">
@@ -17741,22 +17741,26 @@
           <t>No</t>
         </is>
       </c>
-      <c r="S164" t="inlineStr"/>
+      <c r="S164" t="inlineStr">
+        <is>
+          <t>El desarrollo de pensamiento computacional, no está incluido en el plan de área</t>
+        </is>
+      </c>
       <c r="T164" t="inlineStr"/>
       <c r="U164" t="inlineStr">
         <is>
-          <t>Somos una institución educativa de carácter oficial que propende a la formación social y académica en los niveles de preescolar, básica y media; garantizando metodologías apropiadas con un enfoque constructivista social, un buen clima organizacional, ambiente escolar con sentido humanista y una adecuada infraestructura para la transformación del entorno sociocultural en lo relacionado con la convivencia y la cultura ciudadana propendiendo mejores resultados en las pruebas académicas internas y externas.</t>
+          <t>La institución educativa San Pedro Clavel de Cascajal, tiene como misión, formar personas integras fundamentadas en valores, capaces de resolver situaciones problemáticas mediante el liderazgo, que contribuyan a la transformación positiva de su entorno, orientados hacia el desarrollo de las competencias laborales que le permitan desempeñarse en el ámbito profesional o técnico, mejorando su calidad de vida.</t>
         </is>
       </c>
       <c r="V164" t="inlineStr">
         <is>
-          <t>La comunidad educativa Joaquín Ochoa Maestre al 2025, será reconocida por promover una convivencia pacífica y una mayor seguridad institucional que permite optimizar los procesos académicos para alcanzar el nivel alto en las pruebas saber, fundamentado en la formación humanística, científica y técnica, que posibilite crear espacios y ambientes para el desarrollo, crecimiento y transformación en la población (comunidad educativa).</t>
+          <t>La institución educativa San Pedro Clavel de Cascajal, en el 2025, será reconocida por contar con un sistema de gestión de calidad, que promueve la formación de líderes, resignificar su plan de estudios, fortalecer la relación con los padres de familia y comunidad, haber establecido convenios de integración son diversas entidades y asumir los retos tecnológicos del siglo XXI.</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B165" t="inlineStr">
         <is>
@@ -17770,11 +17774,11 @@
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>155</t>
         </is>
       </c>
       <c r="E165" t="n">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F165" t="inlineStr">
         <is>
@@ -17793,22 +17797,22 @@
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="K165" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="L165" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="M165" t="inlineStr">
@@ -17841,27 +17845,22 @@
           <t>No</t>
         </is>
       </c>
-      <c r="S165" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-Este año en particular se están haciendo muchas adecuaciones a nivel curricular en el área de TI incorporando el pensamiento computacional desde grado sexto a once. Ya se está implementando en sus prácticas educativas y queda pendiente formalizarlo en el documento oficial de la institución.</t>
-        </is>
-      </c>
+      <c r="S165" t="inlineStr"/>
       <c r="T165" t="inlineStr"/>
       <c r="U165" t="inlineStr">
         <is>
-          <t xml:space="preserve">Formar integralmente estudiantes calificados y cualificados en competencias generales y laborales en los niveles técnico y académico, con espíritu humanístico y valores que le permitan participar crítica y creativamente en el la transformación y mejora de la sociedad. </t>
+          <t>Somos una institución educativa de carácter oficial que propende a la formación social y académica en los niveles de preescolar, básica y media; garantizando metodologías apropiadas con un enfoque constructivista social, un buen clima organizacional, ambiente escolar con sentido humanista y una adecuada infraestructura para la transformación del entorno sociocultural en lo relacionado con la convivencia y la cultura ciudadana propendiendo mejores resultados en las pruebas académicas internas y externas.</t>
         </is>
       </c>
       <c r="V165" t="inlineStr">
         <is>
-          <t xml:space="preserve">Para el año 2025 seremos una institución líder en el municipio de Valledupar destacándonos por el desarrollo de procesos educativos de calidad, donde nuestros egresados sean reconocidos por la integralidad de su formación humana y técnica, con altos niveles académicos y competitivos a nivel laboral, seremos una institución que establece relaciones interinstitucionales, sólida económicamente y con un equipo de trabajo competitivo e idóneo. </t>
+          <t>La comunidad educativa Joaquín Ochoa Maestre al 2025, será reconocida por promover una convivencia pacífica y una mayor seguridad institucional que permite optimizar los procesos académicos para alcanzar el nivel alto en las pruebas saber, fundamentado en la formación humanística, científica y técnica, que posibilite crear espacios y ambientes para el desarrollo, crecimiento y transformación en la población (comunidad educativa).</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B166" t="inlineStr">
         <is>
@@ -17875,11 +17874,11 @@
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>158</t>
+          <t>156</t>
         </is>
       </c>
       <c r="E166" t="n">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F166" t="inlineStr">
         <is>
@@ -17949,24 +17948,24 @@
       <c r="S166" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Se tiene en cuenta la caracterización de los estudiantes de inclusión pero en el plan de estudios no se incluye como un capitulo que permita tener un marco metodológico para la atención de estudiantes con necesidades especiales.</t>
+Este año en particular se están haciendo muchas adecuaciones a nivel curricular en el área de TI incorporando el pensamiento computacional desde grado sexto a once. Ya se está implementando en sus prácticas educativas y queda pendiente formalizarlo en el documento oficial de la institución.</t>
         </is>
       </c>
       <c r="T166" t="inlineStr"/>
       <c r="U166" t="inlineStr">
         <is>
-          <t>Somos una institución educativa que promueve el desarrollo integral de los estudiantes de preescolar, básica primaria, básica secundaria y media, y en formación especial por ciclos, en los niveles ético, social, cognoscitivos y creativos; basados en parámetros curriculares, que permiten desarrollar su proyecto de vida, siendo competentes y comprometidos con la comunidad a la que pertenecen.</t>
+          <t xml:space="preserve">Formar integralmente estudiantes calificados y cualificados en competencias generales y laborales en los niveles técnico y académico, con espíritu humanístico y valores que le permitan participar crítica y creativamente en el la transformación y mejora de la sociedad. </t>
         </is>
       </c>
       <c r="V166" t="inlineStr">
         <is>
-          <t>Para el año 2019, la Institución educativa Rodolfo Castro Castro, consciente de su labor social, será líder en el municipio ofreciendo a sus educandos una educación integral, a través de la innovación pedagógica basada en una cultura de paz, orientada hacia la excelencia.</t>
+          <t xml:space="preserve">Para el año 2025 seremos una institución líder en el municipio de Valledupar destacándonos por el desarrollo de procesos educativos de calidad, donde nuestros egresados sean reconocidos por la integralidad de su formación humana y técnica, con altos niveles académicos y competitivos a nivel laboral, seremos una institución que establece relaciones interinstitucionales, sólida económicamente y con un equipo de trabajo competitivo e idóneo. </t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B167" t="inlineStr">
         <is>
@@ -17980,11 +17979,11 @@
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>160</t>
+          <t>158</t>
         </is>
       </c>
       <c r="E167" t="n">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F167" t="inlineStr">
         <is>
@@ -18053,7 +18052,8 @@
       </c>
       <c r="S167" t="inlineStr">
         <is>
-          <t xml:space="preserve">Desde orientación escolar se han destinado espacios para los estudiantes de Once con charlas con respecto a orientación profesional y la oportunidad de vincularse a una institución para sus estudios de educación superior, fortaleciendo la idea de la importancia de las pruebas saber para la consecución de cupos en universidades públicas. Por ahora las indagaciones que se hacen a partir de la coordinación académica tienen el objetivo de identificar qué cantidad de estudiantes continúan sus estudios después de egresar de bachillerato. </t>
+          <t xml:space="preserve">
+Se tiene en cuenta la caracterización de los estudiantes de inclusión pero en el plan de estudios no se incluye como un capitulo que permita tener un marco metodológico para la atención de estudiantes con necesidades especiales.</t>
         </is>
       </c>
       <c r="T167" t="inlineStr"/>
@@ -18070,7 +18070,7 @@
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B168" t="inlineStr">
         <is>
@@ -18084,11 +18084,11 @@
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>161</t>
+          <t>160</t>
         </is>
       </c>
       <c r="E168" t="n">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F168" t="inlineStr">
         <is>
@@ -18127,7 +18127,7 @@
       </c>
       <c r="M168" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No</t>
         </is>
       </c>
       <c r="N168" t="inlineStr">
@@ -18137,7 +18137,7 @@
       </c>
       <c r="O168" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No</t>
         </is>
       </c>
       <c r="P168" t="inlineStr">
@@ -18147,7 +18147,7 @@
       </c>
       <c r="Q168" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No</t>
         </is>
       </c>
       <c r="R168" t="inlineStr">
@@ -18157,24 +18157,24 @@
       </c>
       <c r="S168" t="inlineStr">
         <is>
-          <t>A pesar que los docentes del área de TI no han incluido el pensamiento computacional en su malla curricular, es evidente que al tener un convenio con el SENA para el desarrollo de cursos técnicos se promueve la orientación para el desarrollo de carreras profesionales STEM.</t>
+          <t xml:space="preserve">Desde orientación escolar se han destinado espacios para los estudiantes de Once con charlas con respecto a orientación profesional y la oportunidad de vincularse a una institución para sus estudios de educación superior, fortaleciendo la idea de la importancia de las pruebas saber para la consecución de cupos en universidades públicas. Por ahora las indagaciones que se hacen a partir de la coordinación académica tienen el objetivo de identificar qué cantidad de estudiantes continúan sus estudios después de egresar de bachillerato. </t>
         </is>
       </c>
       <c r="T168" t="inlineStr"/>
       <c r="U168" t="inlineStr">
         <is>
-          <t>La Institución educativa Técnico Upar es una institución oficial que ofrece educación en los niveles de preescolar, básica y media técnica en las especialidades en sistemas, elaboración de productos químicos de aseo para el hogar y manipulación de alimentos, bachillerato por ciclos, para la adquisición de conocimientos científicos y técnicos avanzados que permitan formar personas competentes para ingresar al mercado laboral, continuar estudios superiores y contribuir a la solución de los problemas de su entorno.</t>
+          <t>Somos una institución educativa que promueve el desarrollo integral de los estudiantes de preescolar, básica primaria, básica secundaria y media, y en formación especial por ciclos, en los niveles ético, social, cognoscitivos y creativos; basados en parámetros curriculares, que permiten desarrollar su proyecto de vida, siendo competentes y comprometidos con la comunidad a la que pertenecen.</t>
         </is>
       </c>
       <c r="V168" t="inlineStr">
         <is>
-          <t>La Institución educativa Técnico Upar es una institución formadora de personas quienes, por su alto nivel académico y técnico, contribuyen permanentemente en la solución de los distintos problemas de la sociedad. La Institución educativa Técnico Upar espera dar los mejores técnicos en las diferentes especialidades o énfasis que ofrece, para ingresar al mercado laboral en términos de calidad y responsabilidad frente a los servicios que preste en la comunidad, sin dejar de lado la continua formación y preparación académica</t>
+          <t>Para el año 2019, la Institución educativa Rodolfo Castro Castro, consciente de su labor social, será líder en el municipio ofreciendo a sus educandos una educación integral, a través de la innovación pedagógica basada en una cultura de paz, orientada hacia la excelencia.</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B169" t="inlineStr">
         <is>
@@ -18188,11 +18188,11 @@
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>247</t>
+          <t>161</t>
         </is>
       </c>
       <c r="E169" t="n">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F169" t="inlineStr">
         <is>
@@ -18201,7 +18201,7 @@
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="H169" t="inlineStr">
@@ -18231,7 +18231,7 @@
       </c>
       <c r="M169" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="N169" t="inlineStr">
@@ -18241,7 +18241,7 @@
       </c>
       <c r="O169" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="P169" t="inlineStr">
@@ -18251,7 +18251,7 @@
       </c>
       <c r="Q169" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="R169" t="inlineStr">
@@ -18261,24 +18261,24 @@
       </c>
       <c r="S169" t="inlineStr">
         <is>
-          <t xml:space="preserve">El plan de área se enfoca en ofimática. </t>
+          <t>A pesar que los docentes del área de TI no han incluido el pensamiento computacional en su malla curricular, es evidente que al tener un convenio con el SENA para el desarrollo de cursos técnicos se promueve la orientación para el desarrollo de carreras profesionales STEM.</t>
         </is>
       </c>
       <c r="T169" t="inlineStr"/>
       <c r="U169" t="inlineStr">
         <is>
-          <t>La Institución Educativa Distrital Ciudadela Estudiantil orienta su acción educativa hacia la formación con calidad y equidad en niños, niñas, jóvenes y adultos, para que sean capaces de afrontar retos de competitividad: intelectual, social, humano y laboral con énfasis en el área comercial, a través de la practica y fomento de valores como la responsabilidad, respeto, autoestima y autonomía unidos con  el uso de las nuevas tecnologías, informática y comunicaciones,  aplicadas  en las diferentes áreas del conocimiento, contribuyendo con el desarrollo ambiental, cultural, económico ,social  y sostenible de su comunidad.</t>
+          <t>La Institución educativa Técnico Upar es una institución oficial que ofrece educación en los niveles de preescolar, básica y media técnica en las especialidades en sistemas, elaboración de productos químicos de aseo para el hogar y manipulación de alimentos, bachillerato por ciclos, para la adquisición de conocimientos científicos y técnicos avanzados que permitan formar personas competentes para ingresar al mercado laboral, continuar estudios superiores y contribuir a la solución de los problemas de su entorno.</t>
         </is>
       </c>
       <c r="V169" t="inlineStr">
         <is>
-          <t>En el 2024 estaremos posicionados como  una Institución que ejerce  liderazgo en la comunidad barranquillera, con una amplia infraestructura acorde a los programas de formación laboral ofrecidos con las entidades SENA – CODETEC, siendo modelo de calidad y equidad académica, entregando personas integras que resalten vivencialmente los valores humanos y se desempeñen de manera competitiva en  su comunidad, en el campo laboral - comercial, tecnológico e intelectual; capaces de transformar positivamente su entorno local, regional y nacional, respondiendo con éxito a las exigencias del Siglo XXI.</t>
+          <t>La Institución educativa Técnico Upar es una institución formadora de personas quienes, por su alto nivel académico y técnico, contribuyen permanentemente en la solución de los distintos problemas de la sociedad. La Institución educativa Técnico Upar espera dar los mejores técnicos en las diferentes especialidades o énfasis que ofrece, para ingresar al mercado laboral en términos de calidad y responsabilidad frente a los servicios que preste en la comunidad, sin dejar de lado la continua formación y preparación académica</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B170" t="inlineStr">
         <is>
@@ -18292,11 +18292,11 @@
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>247</t>
         </is>
       </c>
       <c r="E170" t="n">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F170" t="inlineStr">
         <is>
@@ -18325,7 +18325,7 @@
       </c>
       <c r="K170" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No</t>
         </is>
       </c>
       <c r="L170" t="inlineStr">
@@ -18363,22 +18363,26 @@
           <t>No</t>
         </is>
       </c>
-      <c r="S170" t="inlineStr"/>
+      <c r="S170" t="inlineStr">
+        <is>
+          <t xml:space="preserve">El plan de área se enfoca en ofimática. </t>
+        </is>
+      </c>
       <c r="T170" t="inlineStr"/>
       <c r="U170" t="inlineStr">
         <is>
-          <t>La Institución Educativa Rural Luis Antonio Robles propende por el desarrollo integral de los educandos encaminando sus capacidades y potencialidades físicas, ambientales y morales hacía el desarrollo sostenible para que participe activa y creativamente en su entorno social.</t>
+          <t>La Institución Educativa Distrital Ciudadela Estudiantil orienta su acción educativa hacia la formación con calidad y equidad en niños, niñas, jóvenes y adultos, para que sean capaces de afrontar retos de competitividad: intelectual, social, humano y laboral con énfasis en el área comercial, a través de la practica y fomento de valores como la responsabilidad, respeto, autoestima y autonomía unidos con  el uso de las nuevas tecnologías, informática y comunicaciones,  aplicadas  en las diferentes áreas del conocimiento, contribuyendo con el desarrollo ambiental, cultural, económico ,social  y sostenible de su comunidad.</t>
         </is>
       </c>
       <c r="V170" t="inlineStr">
         <is>
-          <t xml:space="preserve">La Institución Educativa Rural Luis Antonio Robles proyecta ser a 2022 líder en el contexto social del Distrito de Riohacha con la participación de toda la comunidad educativa, mediante un proceso significativo que incluye el énfasis en ECOTURISMO, propiciando el desarrollo sostenible y sustentable con sentido de pertenencia y conciencia ciudadana. </t>
+          <t>En el 2024 estaremos posicionados como  una Institución que ejerce  liderazgo en la comunidad barranquillera, con una amplia infraestructura acorde a los programas de formación laboral ofrecidos con las entidades SENA – CODETEC, siendo modelo de calidad y equidad académica, entregando personas integras que resalten vivencialmente los valores humanos y se desempeñen de manera competitiva en  su comunidad, en el campo laboral - comercial, tecnológico e intelectual; capaces de transformar positivamente su entorno local, regional y nacional, respondiendo con éxito a las exigencias del Siglo XXI.</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B171" t="inlineStr">
         <is>
@@ -18396,7 +18400,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F171" t="inlineStr">
         <is>
@@ -18415,7 +18419,7 @@
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No</t>
         </is>
       </c>
       <c r="J171" t="inlineStr">
@@ -18425,7 +18429,7 @@
       </c>
       <c r="K171" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="L171" t="inlineStr">
@@ -18478,7 +18482,7 @@
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B172" t="inlineStr">
         <is>
@@ -18492,11 +18496,11 @@
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>043</t>
+          <t>140</t>
         </is>
       </c>
       <c r="E172" t="n">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F172" t="inlineStr">
         <is>
@@ -18505,7 +18509,7 @@
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No</t>
         </is>
       </c>
       <c r="H172" t="inlineStr">
@@ -18515,7 +18519,7 @@
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
@@ -18567,18 +18571,18 @@
       <c r="T172" t="inlineStr"/>
       <c r="U172" t="inlineStr">
         <is>
-          <t>“El colegio ciudadela educativa de bosa, es una institución de carácter oficial ubicada en la localidad séptima de la ciudad de Bogotá; que ofrece los niveles de formación del preescolar, básica y media con énfasis en TIC, propendiendo por la formación integral, inclusiva y transformadora de la problemática social, económica, política y ambiental que contribuye al plan de desarrollo de la educación.”</t>
+          <t>La Institución Educativa Rural Luis Antonio Robles propende por el desarrollo integral de los educandos encaminando sus capacidades y potencialidades físicas, ambientales y morales hacía el desarrollo sostenible para que participe activa y creativamente en su entorno social.</t>
         </is>
       </c>
       <c r="V172" t="inlineStr">
         <is>
-          <t>"El colegio ciudadela educativa de bosa, al 2025 será reconocida como una institución comprometida con la formación integral de la comunidad, orientando sus esfuerzos hacia el crecimiento personal de los estudiantes, con un alto sentido humanista y competente en el adecuado uso e innovación de las tecnologías; que permita afrontar los retos y compromisos en la sociedad actual.”</t>
+          <t xml:space="preserve">La Institución Educativa Rural Luis Antonio Robles proyecta ser a 2022 líder en el contexto social del Distrito de Riohacha con la participación de toda la comunidad educativa, mediante un proceso significativo que incluye el énfasis en ECOTURISMO, propiciando el desarrollo sostenible y sustentable con sentido de pertenencia y conciencia ciudadana. </t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B173" t="inlineStr">
         <is>
@@ -18587,16 +18591,16 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>17/05</t>
+          <t>16/05</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>126</t>
+          <t>043</t>
         </is>
       </c>
       <c r="E173" t="n">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F173" t="inlineStr">
         <is>
@@ -18610,27 +18614,27 @@
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No</t>
         </is>
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No</t>
         </is>
       </c>
       <c r="K173" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No</t>
         </is>
       </c>
       <c r="L173" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No</t>
         </is>
       </c>
       <c r="M173" t="inlineStr">
@@ -18645,7 +18649,7 @@
       </c>
       <c r="O173" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No</t>
         </is>
       </c>
       <c r="P173" t="inlineStr">
@@ -18660,29 +18664,25 @@
       </c>
       <c r="R173" t="inlineStr">
         <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="S173" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La institución apenas esta incursionando en todos los procesos que tiene que ver con el pensamiento computacional. </t>
-        </is>
-      </c>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="S173" t="inlineStr"/>
       <c r="T173" t="inlineStr"/>
       <c r="U173" t="inlineStr">
         <is>
-          <t>La Institución Educativa Jorge Artel forma significativamente al ser humano en valores, principios, competencias y capacidades para posibilitar el ejercicio de una cultura ciudadana crítica, analítica y participativa, en el marco de prácticas respetuosas con el medio ambiente, a través de las artes, las letras, la ciencia, el deporte y la tecnología, en escenarios incluyentes y pertinentes para las comunidades que habitan la Vía Perimetral, a orillas de la Ciénaga de la Virgen en la ciudad de Cartagena de Indias.</t>
+          <t>“El colegio ciudadela educativa de bosa, es una institución de carácter oficial ubicada en la localidad séptima de la ciudad de Bogotá; que ofrece los niveles de formación del preescolar, básica y media con énfasis en TIC, propendiendo por la formación integral, inclusiva y transformadora de la problemática social, económica, política y ambiental que contribuye al plan de desarrollo de la educación.”</t>
         </is>
       </c>
       <c r="V173" t="inlineStr">
         <is>
-          <t>La Institución Educativa Jorge Artel será reconocida en el 2025 como el más importante referente de formación en competencias para la vida, cultura ciudadana y cuidado del medio ambiente en las comunidades que habitan la Vía Perimetral de la ciudad de Cartagena de Indias</t>
+          <t>"El colegio ciudadela educativa de bosa, al 2025 será reconocida como una institución comprometida con la formación integral de la comunidad, orientando sus esfuerzos hacia el crecimiento personal de los estudiantes, con un alto sentido humanista y competente en el adecuado uso e innovación de las tecnologías; que permita afrontar los retos y compromisos en la sociedad actual.”</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B174" t="inlineStr">
         <is>
@@ -18696,11 +18696,11 @@
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>191</t>
+          <t>126</t>
         </is>
       </c>
       <c r="E174" t="n">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F174" t="inlineStr">
         <is>
@@ -18714,7 +18714,7 @@
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="I174" t="inlineStr">
@@ -18734,22 +18734,22 @@
       </c>
       <c r="L174" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="M174" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No</t>
         </is>
       </c>
       <c r="N174" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No</t>
         </is>
       </c>
       <c r="O174" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="P174" t="inlineStr">
@@ -18764,25 +18764,29 @@
       </c>
       <c r="R174" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="S174" t="inlineStr"/>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="S174" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La institución apenas esta incursionando en todos los procesos que tiene que ver con el pensamiento computacional. </t>
+        </is>
+      </c>
       <c r="T174" t="inlineStr"/>
       <c r="U174" t="inlineStr">
         <is>
-          <t>Facilitar el servicios educativo en los diferentes niveles de formación con un enfoque holístico y diferencial que garanticen la calidad de la misma, bajo los principios de equidad y garantía de acceso a las diferentes herramientas educativas disponibles para la niñez y la adolescencia, permitiendo el desarrollo máximo de todo su potencial y talento creativo para asumir roles de liderazgo como agentes de cambios y transformación en sus comunidades, tomando como base para esto la reflexión crítica, la resiliencia social, el emprendimiento y la innovación</t>
+          <t>La Institución Educativa Jorge Artel forma significativamente al ser humano en valores, principios, competencias y capacidades para posibilitar el ejercicio de una cultura ciudadana crítica, analítica y participativa, en el marco de prácticas respetuosas con el medio ambiente, a través de las artes, las letras, la ciencia, el deporte y la tecnología, en escenarios incluyentes y pertinentes para las comunidades que habitan la Vía Perimetral, a orillas de la Ciénaga de la Virgen en la ciudad de Cartagena de Indias.</t>
         </is>
       </c>
       <c r="V174" t="inlineStr">
         <is>
-          <t>Ser reconocida hacia el año 2027 como la Institución Educativa de la Guajira formadora, con los más altos niveles de Calidad, Pertinencia y Relevancia, de jóvenes indígenas con liderazgo ético e identidad con su pueblo Wayuu para la promoción del emprendimiento y la innovación social diferencial.</t>
+          <t>La Institución Educativa Jorge Artel será reconocida en el 2025 como el más importante referente de formación en competencias para la vida, cultura ciudadana y cuidado del medio ambiente en las comunidades que habitan la Vía Perimetral de la ciudad de Cartagena de Indias</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B175" t="inlineStr">
         <is>
@@ -18796,15 +18800,15 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>234</t>
+          <t>191</t>
         </is>
       </c>
       <c r="E175" t="n">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="G175" t="inlineStr">
@@ -18824,7 +18828,7 @@
       </c>
       <c r="J175" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="K175" t="inlineStr">
@@ -18839,17 +18843,17 @@
       </c>
       <c r="M175" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="N175" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="O175" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No</t>
         </is>
       </c>
       <c r="P175" t="inlineStr">
@@ -18867,26 +18871,22 @@
           <t>No</t>
         </is>
       </c>
-      <c r="S175" t="inlineStr">
-        <is>
-          <t>En el plan se menciona a los y las docentes que tienen asignación académica en el área; sin embrago, no es claro si las mismas personas son las encargadas de realizar el plan. Además, En pocos grados se contemplan estrategias para el trabajo con población en situación de discapacidad y/o necesidades educativas especiales; sin embrago, no está en todos los grados y los que se menciona no se habla de ellas detalladamente. De otro lado, se menciona aula de apoyo y se da a entender que este servicio no es permanente en la IE, por lo cual no podría determinarse si se incluye personal experto en la atención a estudiantes con necesidades educativas especiales</t>
-        </is>
-      </c>
+      <c r="S175" t="inlineStr"/>
       <c r="T175" t="inlineStr"/>
       <c r="U175" t="inlineStr">
         <is>
-          <t>La Institución educativa Finca la Mesa a través de su modelo pedagógico socio - cognitivo  se enfoca en la formación de personas en valores sociales y en habilidades para la vida que permita la inclusión de elementos en el desarrollo de su proyecto de vida  como el respeto, la autorreflexión, la convivencia y la resolución asertiva de conflictos en su entorno.</t>
+          <t>Facilitar el servicios educativo en los diferentes niveles de formación con un enfoque holístico y diferencial que garanticen la calidad de la misma, bajo los principios de equidad y garantía de acceso a las diferentes herramientas educativas disponibles para la niñez y la adolescencia, permitiendo el desarrollo máximo de todo su potencial y talento creativo para asumir roles de liderazgo como agentes de cambios y transformación en sus comunidades, tomando como base para esto la reflexión crítica, la resiliencia social, el emprendimiento y la innovación</t>
         </is>
       </c>
       <c r="V175" t="inlineStr">
         <is>
-          <t>Para el año 2026 Finca la Mesa busca ser una Institución de referencia local y regional en constante evolución que ofrece a sus estudiantes la posibilidad de desarrollar competencias necesarias para su inclusión e integración en la sociedad y mercado laboral, fomentando el pensamiento crítico, autónomo y respetuoso que propende por el bienestar del individuo y la sociedad.</t>
+          <t>Ser reconocida hacia el año 2027 como la Institución Educativa de la Guajira formadora, con los más altos niveles de Calidad, Pertinencia y Relevancia, de jóvenes indígenas con liderazgo ético e identidad con su pueblo Wayuu para la promoción del emprendimiento y la innovación social diferencial.</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B176" t="inlineStr">
         <is>
@@ -18900,15 +18900,15 @@
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>212</t>
+          <t>234</t>
         </is>
       </c>
       <c r="E176" t="n">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No</t>
         </is>
       </c>
       <c r="G176" t="inlineStr">
@@ -18933,12 +18933,12 @@
       </c>
       <c r="K176" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="L176" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No</t>
         </is>
       </c>
       <c r="M176" t="inlineStr">
@@ -18953,7 +18953,7 @@
       </c>
       <c r="O176" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="P176" t="inlineStr">
@@ -18973,240 +18973,239 @@
       </c>
       <c r="S176" t="inlineStr">
         <is>
-          <t>La institución  trabaja ofimática y tiene articulación con el SENA para actividades específicas con 10 y 11</t>
-        </is>
-      </c>
-      <c r="T176" t="inlineStr">
-        <is>
-          <t>No se encontró nada referente al pensamiento computacional</t>
-        </is>
-      </c>
+          <t>En el plan se menciona a los y las docentes que tienen asignación académica en el área; sin embrago, no es claro si las mismas personas son las encargadas de realizar el plan. Además, En pocos grados se contemplan estrategias para el trabajo con población en situación de discapacidad y/o necesidades educativas especiales; sin embrago, no está en todos los grados y los que se menciona no se habla de ellas detalladamente. De otro lado, se menciona aula de apoyo y se da a entender que este servicio no es permanente en la IE, por lo cual no podría determinarse si se incluye personal experto en la atención a estudiantes con necesidades educativas especiales</t>
+        </is>
+      </c>
+      <c r="T176" t="inlineStr"/>
       <c r="U176" t="inlineStr">
         <is>
-          <t>Somos una Institución Educativa de carácter oficial-rural, ubicada en el corregimiento de Caimalito de la ciudad Pereira. Ofrecemos una educación de calidad inclusiva en formación preescolar, básica y secundaria, con énfasis en emprendimiento, así como medias técnicas en articulación con el Sena en contabilización de operaciones comerciales y financieras, técnico en integración de operaciones logísticas además de educación para jóvenes y adultos en jornadas nocturna y sabatina. Procuramos formar estudiantes con principios como identidad, sabiduría y superación y valores como la responsabilidad y respeto en pro de la transformación social de nuestro contexto multicultural y de la comunidad educativa.</t>
+          <t>La Institución educativa Finca la Mesa a través de su modelo pedagógico socio - cognitivo  se enfoca en la formación de personas en valores sociales y en habilidades para la vida que permita la inclusión de elementos en el desarrollo de su proyecto de vida  como el respeto, la autorreflexión, la convivencia y la resolución asertiva de conflictos en su entorno.</t>
         </is>
       </c>
       <c r="V176" t="inlineStr">
         <is>
-          <t>Para el año 2023 la Institución será reconocida por formar estudiantes con principios como identidad, sabiduría y superación y valores como la responsabilidad y respeto en pro de la transformación social de nuestro contexto multicultural y de la comunidad educativa.</t>
+          <t>Para el año 2026 Finca la Mesa busca ser una Institución de referencia local y regional en constante evolución que ofrece a sus estudiantes la posibilidad de desarrollar competencias necesarias para su inclusión e integración en la sociedad y mercado laboral, fomentando el pensamiento crítico, autónomo y respetuoso que propende por el bienestar del individuo y la sociedad.</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
+        <v>180</v>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>Encuesta Planes de estudio</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>17/05</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>212</t>
+        </is>
+      </c>
+      <c r="E177" t="n">
+        <v>180</v>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="H177" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I177" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="J177" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="L177" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="M177" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="N177" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="O177" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="P177" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="Q177" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="R177" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="S177" t="inlineStr">
+        <is>
+          <t>La institución  trabaja ofimática y tiene articulación con el SENA para actividades específicas con 10 y 11</t>
+        </is>
+      </c>
+      <c r="T177" t="inlineStr">
+        <is>
+          <t>No se encontró nada referente al pensamiento computacional</t>
+        </is>
+      </c>
+      <c r="U177" t="inlineStr">
+        <is>
+          <t>Somos una Institución Educativa de carácter oficial-rural, ubicada en el corregimiento de Caimalito de la ciudad Pereira. Ofrecemos una educación de calidad inclusiva en formación preescolar, básica y secundaria, con énfasis en emprendimiento, así como medias técnicas en articulación con el Sena en contabilización de operaciones comerciales y financieras, técnico en integración de operaciones logísticas además de educación para jóvenes y adultos en jornadas nocturna y sabatina. Procuramos formar estudiantes con principios como identidad, sabiduría y superación y valores como la responsabilidad y respeto en pro de la transformación social de nuestro contexto multicultural y de la comunidad educativa.</t>
+        </is>
+      </c>
+      <c r="V177" t="inlineStr">
+        <is>
+          <t>Para el año 2023 la Institución será reconocida por formar estudiantes con principios como identidad, sabiduría y superación y valores como la responsabilidad y respeto en pro de la transformación social de nuestro contexto multicultural y de la comunidad educativa.</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="n">
         <v>181</v>
       </c>
-      <c r="B177" t="inlineStr">
+      <c r="B178" t="inlineStr">
         <is>
           <t>Encuesta Planes de estudio</t>
         </is>
       </c>
-      <c r="C177" t="inlineStr">
+      <c r="C178" t="inlineStr">
         <is>
           <t>17/05</t>
         </is>
       </c>
-      <c r="D177" t="inlineStr">
+      <c r="D178" t="inlineStr">
         <is>
           <t>060</t>
         </is>
       </c>
-      <c r="E177" t="n">
+      <c r="E178" t="n">
         <v>181</v>
       </c>
-      <c r="F177" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="G177" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="H177" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="I177" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="J177" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="L177" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="M177" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="N177" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="O177" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="P177" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="Q177" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="R177" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="S177" t="inlineStr">
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="H178" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I178" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="J178" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="L178" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="M178" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="N178" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="O178" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="P178" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="Q178" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="R178" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="S178" t="inlineStr">
         <is>
           <t>El pensamiento computacional se esta desarrollando como practivas anexas a otros temas del area de informatica</t>
         </is>
       </c>
-      <c r="T177" t="inlineStr"/>
-      <c r="U177" t="inlineStr">
+      <c r="T178" t="inlineStr"/>
+      <c r="U178" t="inlineStr">
         <is>
           <t>Formamos a la niñez y juventud femenina de los sectores populares,
 fundamentados en la Filosofía Personalizante y Humanizadora, para construir una
 sociedad más humana y justa.</t>
         </is>
       </c>
-      <c r="V177" t="inlineStr">
+      <c r="V178" t="inlineStr">
         <is>
           <t>Seremos reconocidos regionalmente por la proyección de nuestras
 estudiantes y la formación al estilo del Enfoque pedagógico Personalizante y Humanizador</t>
-        </is>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" t="n">
-        <v>182</v>
-      </c>
-      <c r="B178" t="inlineStr">
-        <is>
-          <t>Encuesta Planes de estudio</t>
-        </is>
-      </c>
-      <c r="C178" t="inlineStr">
-        <is>
-          <t>17/05</t>
-        </is>
-      </c>
-      <c r="D178" t="inlineStr">
-        <is>
-          <t>211</t>
-        </is>
-      </c>
-      <c r="E178" t="n">
-        <v>182</v>
-      </c>
-      <c r="F178" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="G178" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="H178" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="I178" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="J178" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="L178" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="M178" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="N178" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="O178" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="P178" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="Q178" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="R178" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="S178" t="inlineStr">
-        <is>
-          <t>Si se enfoca en problemas ambientales y sociales pero más enfocado a la tecnología y su impacto ambiental</t>
-        </is>
-      </c>
-      <c r="T178" t="inlineStr"/>
-      <c r="U178" t="inlineStr">
-        <is>
-          <t>En nuestra Institución Educativa ciudadela Cuba ofrecemos educación formal en los niveles de Preescolar, Básica Primaria, Secundaria y Media en los programas académicos de las jornadas diurna, nocturna y sabatina atendiendo propósitos educativos en torno a los saberes de las áreas fundamentales establecidas en la Ley General de Educación y a los de otras áreas que se desarrollan en articulación con el Sena en la Media Técnica.
-Además atiende estudiantes con inteligencias múltiples de tipo cognitivo, psicológico, físico y neurológico a través de la aplicación de Planes Individuales de Ajustes Razonables (PIAR).</t>
-        </is>
-      </c>
-      <c r="V178" t="inlineStr">
-        <is>
-          <t>Nuestra Institución Educativa Ciudadela Cuba deberá consolidarse durante los próximos cinco años como una de las mejores de la región, ofreciendo formación integral con fortalezas en sistemas de información, desarrollando en sus egresados competencias para ingresar a la educación superior o al mercado laboral, como respuesta a las necesidades de un mundo globalizado que cambia al ritmo de los avances de la cuarta revolución industrial y la inteligencia artificial, en donde el factor humano será el que moldee cambios dignos para el proseguir de la vida de los seres vivos del universo.</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B179" t="inlineStr">
         <is>
@@ -19220,15 +19219,15 @@
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>214</t>
+          <t>211</t>
         </is>
       </c>
       <c r="E179" t="n">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="G179" t="inlineStr">
@@ -19253,7 +19252,7 @@
       </c>
       <c r="K179" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="L179" t="inlineStr">
@@ -19273,7 +19272,7 @@
       </c>
       <c r="O179" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No</t>
         </is>
       </c>
       <c r="P179" t="inlineStr">
@@ -19293,18 +19292,123 @@
       </c>
       <c r="S179" t="inlineStr">
         <is>
-          <t>Desde grado sexto se enseña el manejo de correo electrónico</t>
+          <t>Si se enfoca en problemas ambientales y sociales pero más enfocado a la tecnología y su impacto ambiental</t>
         </is>
       </c>
       <c r="T179" t="inlineStr"/>
       <c r="U179" t="inlineStr">
+        <is>
+          <t>En nuestra Institución Educativa ciudadela Cuba ofrecemos educación formal en los niveles de Preescolar, Básica Primaria, Secundaria y Media en los programas académicos de las jornadas diurna, nocturna y sabatina atendiendo propósitos educativos en torno a los saberes de las áreas fundamentales establecidas en la Ley General de Educación y a los de otras áreas que se desarrollan en articulación con el Sena en la Media Técnica.
+Además atiende estudiantes con inteligencias múltiples de tipo cognitivo, psicológico, físico y neurológico a través de la aplicación de Planes Individuales de Ajustes Razonables (PIAR).</t>
+        </is>
+      </c>
+      <c r="V179" t="inlineStr">
+        <is>
+          <t>Nuestra Institución Educativa Ciudadela Cuba deberá consolidarse durante los próximos cinco años como una de las mejores de la región, ofreciendo formación integral con fortalezas en sistemas de información, desarrollando en sus egresados competencias para ingresar a la educación superior o al mercado laboral, como respuesta a las necesidades de un mundo globalizado que cambia al ritmo de los avances de la cuarta revolución industrial y la inteligencia artificial, en donde el factor humano será el que moldee cambios dignos para el proseguir de la vida de los seres vivos del universo.</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="n">
+        <v>183</v>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>Encuesta Planes de estudio</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>17/05</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>214</t>
+        </is>
+      </c>
+      <c r="E180" t="n">
+        <v>183</v>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="H180" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I180" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="J180" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="L180" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="M180" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="N180" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="O180" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="P180" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="Q180" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="R180" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="S180" t="inlineStr">
+        <is>
+          <t>Desde grado sexto se enseña el manejo de correo electrónico</t>
+        </is>
+      </c>
+      <c r="T180" t="inlineStr"/>
+      <c r="U180" t="inlineStr">
         <is>
           <t xml:space="preserve">Educamos de manera  integral niños, niñas, jóvenes y adultos. Formamos personas capaces de transformar el medio en el cual viven  comprometiéndose con el cambio y mejoramiento socio-económico de su familia y comunidad, mediante la formación en valores, competencias generales y apropiación de los elementos de la ciencia y la tecnología.  
 Nuestros egresados al concluir la educación media podrán ingresar al mercado laboral calificado en el área de la informática y/o podrán continuar sus estudios superiores. Para lo anterior se gestionan recursos financieros y de infraestructura, y se compromete el personal directivo, docente y administrativo.
 </t>
         </is>
       </c>
-      <c r="V179" t="inlineStr">
+      <c r="V180" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La institución impulsará el desarrollo social, cultural y tecnológico del corregimiento de Puerto Caldas. Nuestra institución será reconocida en el municipio de Pereira y el departamento de Risaralda por brindar una educación con excelencia,  especialmente en el área de tecnología e informática, proyectándose a la comunidad con programas de extensión. La institución tendrá una visión y unas  políticas de carácter social.
@@ -19312,113 +19416,9 @@
         </is>
       </c>
     </row>
-    <row r="180">
-      <c r="A180" t="n">
-        <v>184</v>
-      </c>
-      <c r="B180" t="inlineStr">
-        <is>
-          <t>Encuesta Planes de estudio</t>
-        </is>
-      </c>
-      <c r="C180" t="inlineStr">
-        <is>
-          <t>17/05</t>
-        </is>
-      </c>
-      <c r="D180" t="inlineStr">
-        <is>
-          <t>215</t>
-        </is>
-      </c>
-      <c r="E180" t="n">
-        <v>184</v>
-      </c>
-      <c r="F180" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="G180" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="H180" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="I180" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="J180" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="L180" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="M180" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="N180" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="O180" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="P180" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="Q180" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="R180" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="S180" t="inlineStr">
-        <is>
-          <t>No se trabaja pensamiento computacional de manera explícita, en 10 y 11 se trabaja con resolución de problemas usando la tecnología que de alguna manera podría estar relacionado.</t>
-        </is>
-      </c>
-      <c r="T180" t="inlineStr"/>
-      <c r="U180" t="inlineStr">
-        <is>
-          <t>Garantizar la continuidad del servicio educativo a los niños, jóvenes y adultos en los tres niveles de educación formal, en la media técnica y en integración con SENA en capacitación laboral, formando integralmente el talento humano fundamentado en una filosofía humanista, en valores como el amor, el respeto, la responsabilidad, la justicia, la autoestima y desarrollando fortalezas para su desempeño social, laboral, técnico y académico.</t>
-        </is>
-      </c>
-      <c r="V180" t="inlineStr">
-        <is>
-          <t>Ser formadora de talento humano, académico, técnico y laboral, respondiendo a las necesidades  sociales, económicas, productivas de la región y personales del estudiante; apropiando herramientas técnicas y tecnológicas basadas en el conocimiento global y en estrategias de emprendimiento, aportándoles a los jóvenes elementos eficaces para enfrentarse al mundo del trabajo y del emprendimiento.</t>
-        </is>
-      </c>
-    </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B181" t="inlineStr">
         <is>
@@ -19432,11 +19432,11 @@
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>217</t>
+          <t>215</t>
         </is>
       </c>
       <c r="E181" t="n">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F181" t="inlineStr">
         <is>
@@ -19460,17 +19460,17 @@
       </c>
       <c r="J181" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No</t>
         </is>
       </c>
       <c r="K181" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No</t>
         </is>
       </c>
       <c r="L181" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="M181" t="inlineStr">
@@ -19495,7 +19495,7 @@
       </c>
       <c r="Q181" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No</t>
         </is>
       </c>
       <c r="R181" t="inlineStr">
@@ -19505,24 +19505,24 @@
       </c>
       <c r="S181" t="inlineStr">
         <is>
-          <t>Tiene un plan de estudio organizado para cada grado. Busca resolver problemas usando las tecnologías</t>
+          <t>No se trabaja pensamiento computacional de manera explícita, en 10 y 11 se trabaja con resolución de problemas usando la tecnología que de alguna manera podría estar relacionado.</t>
         </is>
       </c>
       <c r="T181" t="inlineStr"/>
       <c r="U181" t="inlineStr">
         <is>
-          <t>La I.E Carlota Sánchez, ofrece formación integral e inclusiva a niños, jóvenes y adultos en los niveles de educación Preescolar, Básica Primaria y Media Vocacional. Desde el respeto y fortalecimiento a los valores a través de la construcción de aprendizajes significativos que aporten a su formación personal, académica, laboral, el respeto al medio ambiente y a la diferencia.</t>
+          <t>Garantizar la continuidad del servicio educativo a los niños, jóvenes y adultos en los tres niveles de educación formal, en la media técnica y en integración con SENA en capacitación laboral, formando integralmente el talento humano fundamentado en una filosofía humanista, en valores como el amor, el respeto, la responsabilidad, la justicia, la autoestima y desarrollando fortalezas para su desempeño social, laboral, técnico y académico.</t>
         </is>
       </c>
       <c r="V181" t="inlineStr">
         <is>
-          <t xml:space="preserve">Para el año 2025 seremos reconocidos como una institución que ofrece la mejor opción formativa integral en la zona centro de la ciudad de Pereira. Lo cual se evidenciará a través del aporte que sus estudiantes realizarán al desarrollo económico, social y cultural de su entorno. </t>
+          <t>Ser formadora de talento humano, académico, técnico y laboral, respondiendo a las necesidades  sociales, económicas, productivas de la región y personales del estudiante; apropiando herramientas técnicas y tecnológicas basadas en el conocimiento global y en estrategias de emprendimiento, aportándoles a los jóvenes elementos eficaces para enfrentarse al mundo del trabajo y del emprendimiento.</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B182" t="inlineStr">
         <is>
@@ -19536,11 +19536,11 @@
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>216</t>
+          <t>217</t>
         </is>
       </c>
       <c r="E182" t="n">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F182" t="inlineStr">
         <is>
@@ -19564,7 +19564,7 @@
       </c>
       <c r="J182" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="K182" t="inlineStr">
@@ -19574,7 +19574,7 @@
       </c>
       <c r="L182" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No</t>
         </is>
       </c>
       <c r="M182" t="inlineStr">
@@ -19594,12 +19594,12 @@
       </c>
       <c r="P182" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No</t>
         </is>
       </c>
       <c r="Q182" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="R182" t="inlineStr">
@@ -19609,24 +19609,24 @@
       </c>
       <c r="S182" t="inlineStr">
         <is>
-          <t>El objetivo en cada una de las asignaturas que conforman el plan de estudios de cada programa de la Especialidad de informática, está encaminado en formar estudiantes integrales capaces de identificar los valores de las herramientas computacionales articulándolas a la producción gráfica de elementos publicitarios, a la creación de contenidos y aplicaciones para la WEB o a la aplicación de las herramientas electrónicas y computacionales</t>
+          <t>Tiene un plan de estudio organizado para cada grado. Busca resolver problemas usando las tecnologías</t>
         </is>
       </c>
       <c r="T182" t="inlineStr"/>
       <c r="U182" t="inlineStr">
         <is>
-          <t>Ser una Institución eficiente, cualificada, formadora de personas integrales, con espíritu crítico y reflexivo, reconocida por sus aportes a la educación técnica y tecnológica que contribuya al desarrollo local, regional, nacional y su inserción en los procesos de globalización.</t>
+          <t>La I.E Carlota Sánchez, ofrece formación integral e inclusiva a niños, jóvenes y adultos en los niveles de educación Preescolar, Básica Primaria y Media Vocacional. Desde el respeto y fortalecimiento a los valores a través de la construcción de aprendizajes significativos que aporten a su formación personal, académica, laboral, el respeto al medio ambiente y a la diferencia.</t>
         </is>
       </c>
       <c r="V182" t="inlineStr">
         <is>
-          <t>Institución Educativa de carácter oficial con especialidad técnica industrial, comprometida en acompañar y fortalecer a los jóvenes en los procesos curriculares críticos y reflexivos para contribuir a la formación humana integral, mediante el desarrollo de competencias que permitan su proyección hacia la universidad, el trabajo, o empresa fundamentada en los principios humanísticos, científicos y tecnológicos al servicio de una sociedad sustentable y globalizada.</t>
+          <t xml:space="preserve">Para el año 2025 seremos reconocidos como una institución que ofrece la mejor opción formativa integral en la zona centro de la ciudad de Pereira. Lo cual se evidenciará a través del aporte que sus estudiantes realizarán al desarrollo económico, social y cultural de su entorno. </t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B183" t="inlineStr">
         <is>
@@ -19640,11 +19640,11 @@
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>079</t>
+          <t>216</t>
         </is>
       </c>
       <c r="E183" t="n">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F183" t="inlineStr">
         <is>
@@ -19663,7 +19663,7 @@
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
@@ -19673,12 +19673,12 @@
       </c>
       <c r="K183" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="L183" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="M183" t="inlineStr">
@@ -19698,7 +19698,7 @@
       </c>
       <c r="P183" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="Q183" t="inlineStr">
@@ -19708,25 +19708,29 @@
       </c>
       <c r="R183" t="inlineStr">
         <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="S183" t="inlineStr"/>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="S183" t="inlineStr">
+        <is>
+          <t>El objetivo en cada una de las asignaturas que conforman el plan de estudios de cada programa de la Especialidad de informática, está encaminado en formar estudiantes integrales capaces de identificar los valores de las herramientas computacionales articulándolas a la producción gráfica de elementos publicitarios, a la creación de contenidos y aplicaciones para la WEB o a la aplicación de las herramientas electrónicas y computacionales</t>
+        </is>
+      </c>
       <c r="T183" t="inlineStr"/>
       <c r="U183" t="inlineStr">
         <is>
-          <t>Formar personas integras y trascendentes que contribuyan en la construcción de una sociedad más justa, humana, fraterna y solidaria, mediante la ejecución continua del Proyecto Educativo Institucional Claretiano Gustavo Torres Parra.</t>
+          <t>Ser una Institución eficiente, cualificada, formadora de personas integrales, con espíritu crítico y reflexivo, reconocida por sus aportes a la educación técnica y tecnológica que contribuya al desarrollo local, regional, nacional y su inserción en los procesos de globalización.</t>
         </is>
       </c>
       <c r="V183" t="inlineStr">
         <is>
-          <t>Para el año 2025 la Institución Educativa Claretiano Gustavo Torres Parra, será reconocida por su excelente labor en la formación integral, fundamentada en el fortalecimiento de los valores fuerza: libertad, amor, comunitariedad, justicia, fe y trascendencia, y en la exigencia académica como una fuente de crecimiento personal y social esencial para continuar siendo la mejor institución oficial a nivel local, regional y nacional.</t>
+          <t>Institución Educativa de carácter oficial con especialidad técnica industrial, comprometida en acompañar y fortalecer a los jóvenes en los procesos curriculares críticos y reflexivos para contribuir a la formación humana integral, mediante el desarrollo de competencias que permitan su proyección hacia la universidad, el trabajo, o empresa fundamentada en los principios humanísticos, científicos y tecnológicos al servicio de una sociedad sustentable y globalizada.</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B184" t="inlineStr">
         <is>
@@ -19740,11 +19744,11 @@
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>079</t>
         </is>
       </c>
       <c r="E184" t="n">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F184" t="inlineStr">
         <is>
@@ -19753,12 +19757,12 @@
       </c>
       <c r="G184" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No</t>
         </is>
       </c>
       <c r="I184" t="inlineStr">
@@ -19768,42 +19772,42 @@
       </c>
       <c r="J184" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No</t>
         </is>
       </c>
       <c r="K184" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No</t>
         </is>
       </c>
       <c r="L184" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No</t>
         </is>
       </c>
       <c r="M184" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No</t>
         </is>
       </c>
       <c r="N184" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No</t>
         </is>
       </c>
       <c r="O184" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No</t>
         </is>
       </c>
       <c r="P184" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No</t>
         </is>
       </c>
       <c r="Q184" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No</t>
         </is>
       </c>
       <c r="R184" t="inlineStr">
@@ -19815,18 +19819,18 @@
       <c r="T184" t="inlineStr"/>
       <c r="U184" t="inlineStr">
         <is>
-          <t>La Institución Educativa “CHON KAY”, de carácter oficial, ofrece a la comunidad los servicios en Educación Pre-escolar, Básica y Media con énfasis en procesos administrativos público y turístico para fomentar entre los estudiantes competencias éticas, morales, intelectuales, afectivos, laborales, de cultura ciudadana y de emprendimiento como pilar de la formación integral y centro de las políticas educativas que les permitirá desenvolverse en su entorno social, cultural, laboral y étnico como resultado de su interactuar dentro del proceso de aprendizaje.</t>
+          <t>Formar personas integras y trascendentes que contribuyan en la construcción de una sociedad más justa, humana, fraterna y solidaria, mediante la ejecución continua del Proyecto Educativo Institucional Claretiano Gustavo Torres Parra.</t>
         </is>
       </c>
       <c r="V184" t="inlineStr">
         <is>
-          <t>La Institución Educativa “CHON KAY”, se posesionará en el año 2025 de manera competente y competitiva a nivel cultural, investigativo, empresarial y tecnológico, en el contexto nacional, regional y local, empleando estrategias pedagógicas y evaluativas, orientadas a alcanzar las metas propuestas</t>
+          <t>Para el año 2025 la Institución Educativa Claretiano Gustavo Torres Parra, será reconocida por su excelente labor en la formación integral, fundamentada en el fortalecimiento de los valores fuerza: libertad, amor, comunitariedad, justicia, fe y trascendencia, y en la exigencia académica como una fuente de crecimiento personal y social esencial para continuar siendo la mejor institución oficial a nivel local, regional y nacional.</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B185" t="inlineStr">
         <is>
@@ -19835,20 +19839,20 @@
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>18/05</t>
+          <t>17/05</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>080</t>
+          <t>135</t>
         </is>
       </c>
       <c r="E185" t="n">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="G185" t="inlineStr">
@@ -19858,7 +19862,7 @@
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="I185" t="inlineStr">
@@ -19868,42 +19872,42 @@
       </c>
       <c r="J185" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="K185" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="L185" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="M185" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="N185" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="O185" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="P185" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="Q185" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="R185" t="inlineStr">
@@ -19915,18 +19919,18 @@
       <c r="T185" t="inlineStr"/>
       <c r="U185" t="inlineStr">
         <is>
-          <t>La Institución Educativa El Caguán, de carácter oficial rural, ofrece el servicio educativo formal, en los niveles de preescolar, básica y media académica con articulación SENA de acuerdo a las necesidades inclusivas de la comunidad; comprometidos en la formación integral de personas líderes, críticas, emprendedoras, competentes, con espíritu investigativo, que vivencien principios y valores institucionales, que contribuyan en la transformación de su proyecto de vida y de su entorno con responsabilidad.</t>
+          <t>La Institución Educativa “CHON KAY”, de carácter oficial, ofrece a la comunidad los servicios en Educación Pre-escolar, Básica y Media con énfasis en procesos administrativos público y turístico para fomentar entre los estudiantes competencias éticas, morales, intelectuales, afectivos, laborales, de cultura ciudadana y de emprendimiento como pilar de la formación integral y centro de las políticas educativas que les permitirá desenvolverse en su entorno social, cultural, laboral y étnico como resultado de su interactuar dentro del proceso de aprendizaje.</t>
         </is>
       </c>
       <c r="V185" t="inlineStr">
         <is>
-          <t>Para el año 2025 la institución educativa El Caguán, será reconocida por contar con un ambiente escolar democrático organizado e inclusivo, basado en la vivencia de valores y el respeto por la diversidad, que reconoce y se adapta a las transformaciones como ciudadana del mundo, liderando procesos de participación y responsabilidad social, comprometida con el desarrollo sostenible del entorno de forma crítica, creativa, emprendedora y tecnológica.</t>
+          <t>La Institución Educativa “CHON KAY”, se posesionará en el año 2025 de manera competente y competitiva a nivel cultural, investigativo, empresarial y tecnológico, en el contexto nacional, regional y local, empleando estrategias pedagógicas y evaluativas, orientadas a alcanzar las metas propuestas</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B186" t="inlineStr">
         <is>
@@ -19940,20 +19944,20 @@
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>082</t>
+          <t>080</t>
         </is>
       </c>
       <c r="E186" t="n">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No</t>
         </is>
       </c>
       <c r="G186" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No</t>
         </is>
       </c>
       <c r="H186" t="inlineStr">
@@ -19968,17 +19972,17 @@
       </c>
       <c r="J186" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No</t>
         </is>
       </c>
       <c r="K186" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No</t>
         </is>
       </c>
       <c r="L186" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No</t>
         </is>
       </c>
       <c r="M186" t="inlineStr">
@@ -20015,18 +20019,18 @@
       <c r="T186" t="inlineStr"/>
       <c r="U186" t="inlineStr">
         <is>
-          <t>Ofrecer una educación integral a niños, jóvenes y adultos en niveles de preescolar, básica, media y media técnica, con un alto contenido científico, tecnológico, cultural, ético y moral, que permita la transformación de la realidad social, laboral, ambiental y comunitaria.</t>
+          <t>La Institución Educativa El Caguán, de carácter oficial rural, ofrece el servicio educativo formal, en los niveles de preescolar, básica y media académica con articulación SENA de acuerdo a las necesidades inclusivas de la comunidad; comprometidos en la formación integral de personas líderes, críticas, emprendedoras, competentes, con espíritu investigativo, que vivencien principios y valores institucionales, que contribuyan en la transformación de su proyecto de vida y de su entorno con responsabilidad.</t>
         </is>
       </c>
       <c r="V186" t="inlineStr">
         <is>
-          <t>En el año 2025, la Institución Educativa Agustín Codazzi será reconocida como una de las mejores en la ciudad de Neiva, en la formación académica e integral de sus estudiantes, con un alto nivel de excelencia, comprometida con la construcción de valores humanos y desarrollo de su proyecto de vida, mediante la aplicación de los avances de la ciencia la cultura y la tecnología.</t>
+          <t>Para el año 2025 la institución educativa El Caguán, será reconocida por contar con un ambiente escolar democrático organizado e inclusivo, basado en la vivencia de valores y el respeto por la diversidad, que reconoce y se adapta a las transformaciones como ciudadana del mundo, liderando procesos de participación y responsabilidad social, comprometida con el desarrollo sostenible del entorno de forma crítica, creativa, emprendedora y tecnológica.</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B187" t="inlineStr">
         <is>
@@ -20040,11 +20044,11 @@
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>083</t>
+          <t>082</t>
         </is>
       </c>
       <c r="E187" t="n">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F187" t="inlineStr">
         <is>
@@ -20068,7 +20072,7 @@
       </c>
       <c r="J187" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="K187" t="inlineStr">
@@ -20078,7 +20082,7 @@
       </c>
       <c r="L187" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="M187" t="inlineStr">
@@ -20115,18 +20119,18 @@
       <c r="T187" t="inlineStr"/>
       <c r="U187" t="inlineStr">
         <is>
-          <t xml:space="preserve">La Institución Educativa Técnico  Superior de Neiva concentra sus esfuerzos en formar jóvenes líderes en el desarrollo de procesos de calidad, mediante una educación humanística, técnica, tecnológica, empresarial, laboral y académica, en interacción con otras instituciones para que sean competentes y competitivos en el campo  donde se desempeñen. </t>
+          <t>Ofrecer una educación integral a niños, jóvenes y adultos en niveles de preescolar, básica, media y media técnica, con un alto contenido científico, tecnológico, cultural, ético y moral, que permita la transformación de la realidad social, laboral, ambiental y comunitaria.</t>
         </is>
       </c>
       <c r="V187" t="inlineStr">
         <is>
-          <t xml:space="preserve">La Institución Educativa Técnico  Superior de Neiva, pretende  hacia el año 2020, proyectarse como una organización líder en el desarrollo de procesos técnicos, tecnológicos y académicos. Con una comunidad educativa actuante y participante, abierta al debate, a la crítica autónoma, con valores éticos y morales, con un currículo flexible y pertinente que privilegie la formación integral  a través del aprendizaje significativo, para que  el egresado sea capaz de insertarse a la sociedad de manera productiva  y con responsabilidad social. </t>
+          <t>En el año 2025, la Institución Educativa Agustín Codazzi será reconocida como una de las mejores en la ciudad de Neiva, en la formación académica e integral de sus estudiantes, con un alto nivel de excelencia, comprometida con la construcción de valores humanos y desarrollo de su proyecto de vida, mediante la aplicación de los avances de la ciencia la cultura y la tecnología.</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B188" t="inlineStr">
         <is>
@@ -20140,11 +20144,11 @@
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>141</t>
+          <t>083</t>
         </is>
       </c>
       <c r="E188" t="n">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F188" t="inlineStr">
         <is>
@@ -20178,7 +20182,7 @@
       </c>
       <c r="L188" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No</t>
         </is>
       </c>
       <c r="M188" t="inlineStr">
@@ -20188,7 +20192,7 @@
       </c>
       <c r="N188" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No</t>
         </is>
       </c>
       <c r="O188" t="inlineStr">
@@ -20208,29 +20212,25 @@
       </c>
       <c r="R188" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="S188" t="inlineStr"/>
-      <c r="T188" t="inlineStr">
-        <is>
-          <t>No aplica.</t>
-        </is>
-      </c>
+      <c r="T188" t="inlineStr"/>
       <c r="U188" t="inlineStr">
         <is>
-          <t>Formar ciudadanos bilingües y biculturales que posean unos altos valores éticos y un compromiso en la búsqueda de la excelencia académica y un éxito en la vida.</t>
+          <t xml:space="preserve">La Institución Educativa Técnico  Superior de Neiva concentra sus esfuerzos en formar jóvenes líderes en el desarrollo de procesos de calidad, mediante una educación humanística, técnica, tecnológica, empresarial, laboral y académica, en interacción con otras instituciones para que sean competentes y competitivos en el campo  donde se desempeñen. </t>
         </is>
       </c>
       <c r="V188" t="inlineStr">
         <is>
-          <t>Ser un colegio líder en Cartagena y la costa en la formación de estudiantes bilingües preparados para enfrentar los retos del mundo globalizado.</t>
+          <t xml:space="preserve">La Institución Educativa Técnico  Superior de Neiva, pretende  hacia el año 2020, proyectarse como una organización líder en el desarrollo de procesos técnicos, tecnológicos y académicos. Con una comunidad educativa actuante y participante, abierta al debate, a la crítica autónoma, con valores éticos y morales, con un currículo flexible y pertinente que privilegie la formación integral  a través del aprendizaje significativo, para que  el egresado sea capaz de insertarse a la sociedad de manera productiva  y con responsabilidad social. </t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B189" t="inlineStr">
         <is>
@@ -20244,11 +20244,11 @@
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>144</t>
+          <t>141</t>
         </is>
       </c>
       <c r="E189" t="n">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F189" t="inlineStr">
         <is>
@@ -20277,12 +20277,12 @@
       </c>
       <c r="K189" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="L189" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="M189" t="inlineStr">
@@ -20292,7 +20292,7 @@
       </c>
       <c r="N189" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="O189" t="inlineStr">
@@ -20316,21 +20316,25 @@
         </is>
       </c>
       <c r="S189" t="inlineStr"/>
-      <c r="T189" t="inlineStr"/>
+      <c r="T189" t="inlineStr">
+        <is>
+          <t>No aplica.</t>
+        </is>
+      </c>
       <c r="U189" t="inlineStr">
         <is>
-          <t>.Brindar a los niños y jóvenes de la zona suroriental una educación integral de calidad en los niveles de preescolar, básica y media académica basada en principios axiológicos como la honradez, el respeto, la tolerancia, amor y convivencia pacífica; facilitando a los estudiantes el ejercicio de las prácticas democráticas y de liderazgo.</t>
+          <t>Formar ciudadanos bilingües y biculturales que posean unos altos valores éticos y un compromiso en la búsqueda de la excelencia académica y un éxito en la vida.</t>
         </is>
       </c>
       <c r="V189" t="inlineStr">
         <is>
-          <t>Ser siempre una gran concentración educativa, en donde los estudiantes, las familias y la comunidad encontrarán la oportunidad para un mejoramiento personal y comunitario. Hoy en día son esa gran concentración educativa, gracias al apoyo y la decisión de todos los estamentos que conforman la comunidad</t>
+          <t>Ser un colegio líder en Cartagena y la costa en la formación de estudiantes bilingües preparados para enfrentar los retos del mundo globalizado.</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B190" t="inlineStr">
         <is>
@@ -20344,11 +20348,11 @@
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>145</t>
+          <t>144</t>
         </is>
       </c>
       <c r="E190" t="n">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F190" t="inlineStr">
         <is>
@@ -20372,17 +20376,17 @@
       </c>
       <c r="J190" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No</t>
         </is>
       </c>
       <c r="K190" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No</t>
         </is>
       </c>
       <c r="L190" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No</t>
         </is>
       </c>
       <c r="M190" t="inlineStr">
@@ -20392,7 +20396,7 @@
       </c>
       <c r="N190" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No</t>
         </is>
       </c>
       <c r="O190" t="inlineStr">
@@ -20419,18 +20423,18 @@
       <c r="T190" t="inlineStr"/>
       <c r="U190" t="inlineStr">
         <is>
-          <t>Formar ciudadanos competentes, seguros de sí mismos con una educación de calidad fundamentada en los valores y proyectos institucionales, capaces de liderar procesos de profunda transformación para la construcción de una sociedad más humana</t>
+          <t>.Brindar a los niños y jóvenes de la zona suroriental una educación integral de calidad en los niveles de preescolar, básica y media académica basada en principios axiológicos como la honradez, el respeto, la tolerancia, amor y convivencia pacífica; facilitando a los estudiantes el ejercicio de las prácticas democráticas y de liderazgo.</t>
         </is>
       </c>
       <c r="V190" t="inlineStr">
         <is>
-          <t>En el 2018 la Institución Educativa Soledad Acosta de Samper estará certificada bajo la norma ISO 9001:2008, en su sistema de gestión de calidad y será reconocida por su excelencia académica, liderazgo, autonomía, compromiso social y humano a nivel local, regional y nacional.</t>
+          <t>Ser siempre una gran concentración educativa, en donde los estudiantes, las familias y la comunidad encontrarán la oportunidad para un mejoramiento personal y comunitario. Hoy en día son esa gran concentración educativa, gracias al apoyo y la decisión de todos los estamentos que conforman la comunidad</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B191" t="inlineStr">
         <is>
@@ -20444,11 +20448,11 @@
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>146</t>
+          <t>145</t>
         </is>
       </c>
       <c r="E191" t="n">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F191" t="inlineStr">
         <is>
@@ -20467,12 +20471,12 @@
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No</t>
         </is>
       </c>
       <c r="J191" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="K191" t="inlineStr">
@@ -20492,7 +20496,7 @@
       </c>
       <c r="N191" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="O191" t="inlineStr">
@@ -20519,18 +20523,18 @@
       <c r="T191" t="inlineStr"/>
       <c r="U191" t="inlineStr">
         <is>
-          <t>La Institución Educativa Técnica de Pasacaballos, forma miembros de la comunidad educativa en conocimientos, valores y principios con el propósito de mejorar la calidad de vida a través de la implementación de procesos sustentados en el SGC con el uso adecuado de las nuevas tecnologías y estrategias de mejoramiento continuo, que contribuyan al fortalecimiento de la identidad étnica y la satisfacción de las necesidades, intereses y expectativas de la comunidad de Pasacaballos y el Distrito de Cartagena.</t>
+          <t>Formar ciudadanos competentes, seguros de sí mismos con una educación de calidad fundamentada en los valores y proyectos institucionales, capaces de liderar procesos de profunda transformación para la construcción de una sociedad más humana</t>
         </is>
       </c>
       <c r="V191" t="inlineStr">
         <is>
-          <t>A 2020 la Institución Educativa Técnica de Pasacaballos, seguirá siendo líder a Nivel Local con proyección Nacional e Internacional, como Institución Etnoeducativa y formación integral Académica – Técnica de calidad, fundamentada en el uso adecuado de herramientas tecnológicas con una alta formación y competencia en inglés de sus estudiantes, promoviendo la formación de líderes con pensamiento crítico, creativo, con valores y principios éticos para responder a las exigencias educativas y necesidades del mercado laboral; y seguir contribuyendo al desarrollo de la región y el país.</t>
+          <t>En el 2018 la Institución Educativa Soledad Acosta de Samper estará certificada bajo la norma ISO 9001:2008, en su sistema de gestión de calidad y será reconocida por su excelencia académica, liderazgo, autonomía, compromiso social y humano a nivel local, regional y nacional.</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B192" t="inlineStr">
         <is>
@@ -20544,11 +20548,11 @@
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>147</t>
+          <t>146</t>
         </is>
       </c>
       <c r="E192" t="n">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F192" t="inlineStr">
         <is>
@@ -20577,12 +20581,12 @@
       </c>
       <c r="K192" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="L192" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="M192" t="inlineStr">
@@ -20619,224 +20623,224 @@
       <c r="T192" t="inlineStr"/>
       <c r="U192" t="inlineStr">
         <is>
-          <t xml:space="preserve">Somos una institución educativa comprometida en formar personas integrales, fortaleciendo en ellas la práctica de valores humanos y la adquisición de conocimientos, que les permitan desarrollarse como ciudadanos competentes acorde con la exigencia y expectativas locales, regionales y nacionales; en un ámbito globalizado , utilizando para ello los medios de la ciencia y la tecnología  </t>
+          <t>La Institución Educativa Técnica de Pasacaballos, forma miembros de la comunidad educativa en conocimientos, valores y principios con el propósito de mejorar la calidad de vida a través de la implementación de procesos sustentados en el SGC con el uso adecuado de las nuevas tecnologías y estrategias de mejoramiento continuo, que contribuyan al fortalecimiento de la identidad étnica y la satisfacción de las necesidades, intereses y expectativas de la comunidad de Pasacaballos y el Distrito de Cartagena.</t>
         </is>
       </c>
       <c r="V192" t="inlineStr">
         <is>
-          <t>La institución Educativa Foco Rojo, se proyecta al año 2025 como líder en la formación integral y la convivencia armónica de los educandos de la localidad número 2 de la Virgen y Turística,  para que en su entorno sean agentes positivos de cambio hacia la consolidación de la paz y la justicia social</t>
+          <t>A 2020 la Institución Educativa Técnica de Pasacaballos, seguirá siendo líder a Nivel Local con proyección Nacional e Internacional, como Institución Etnoeducativa y formación integral Académica – Técnica de calidad, fundamentada en el uso adecuado de herramientas tecnológicas con una alta formación y competencia en inglés de sus estudiantes, promoviendo la formación de líderes con pensamiento crítico, creativo, con valores y principios éticos para responder a las exigencias educativas y necesidades del mercado laboral; y seguir contribuyendo al desarrollo de la región y el país.</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
+        <v>196</v>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>Encuesta Planes de estudio</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>18/05</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>147</t>
+        </is>
+      </c>
+      <c r="E193" t="n">
+        <v>196</v>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="G193" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="H193" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I193" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="J193" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="L193" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="M193" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="N193" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="O193" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="P193" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="Q193" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="R193" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="S193" t="inlineStr"/>
+      <c r="T193" t="inlineStr"/>
+      <c r="U193" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Somos una institución educativa comprometida en formar personas integrales, fortaleciendo en ellas la práctica de valores humanos y la adquisición de conocimientos, que les permitan desarrollarse como ciudadanos competentes acorde con la exigencia y expectativas locales, regionales y nacionales; en un ámbito globalizado , utilizando para ello los medios de la ciencia y la tecnología  </t>
+        </is>
+      </c>
+      <c r="V193" t="inlineStr">
+        <is>
+          <t>La institución Educativa Foco Rojo, se proyecta al año 2025 como líder en la formación integral y la convivencia armónica de los educandos de la localidad número 2 de la Virgen y Turística,  para que en su entorno sean agentes positivos de cambio hacia la consolidación de la paz y la justicia social</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="n">
         <v>197</v>
       </c>
-      <c r="B193" t="inlineStr">
+      <c r="B194" t="inlineStr">
         <is>
           <t>Encuesta Planes de estudio</t>
         </is>
       </c>
-      <c r="C193" t="inlineStr">
+      <c r="C194" t="inlineStr">
         <is>
           <t>18/05</t>
         </is>
       </c>
-      <c r="D193" t="inlineStr">
+      <c r="D194" t="inlineStr">
         <is>
           <t>219</t>
         </is>
       </c>
-      <c r="E193" t="n">
+      <c r="E194" t="n">
         <v>197</v>
       </c>
-      <c r="F193" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="G193" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="H193" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="I193" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="J193" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="L193" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="M193" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="N193" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="O193" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="P193" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="Q193" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="R193" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="S193" t="inlineStr"/>
-      <c r="T193" t="inlineStr">
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="G194" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="H194" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I194" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="J194" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="L194" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="M194" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="N194" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="O194" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="P194" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="Q194" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="R194" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="S194" t="inlineStr"/>
+      <c r="T194" t="inlineStr">
         <is>
           <t>En el plan de área se desarrollan actividades sobre pensamiento computacional únicamente en los grado superiores (decimo y once)</t>
         </is>
       </c>
-      <c r="U193" t="inlineStr">
+      <c r="U194" t="inlineStr">
         <is>
           <t xml:space="preserve">Misión 
 Somos una institución educativa distrital de carácter formal, en la que cada uno de los integrantes de la comunidad educativa se compromete con la formación. El desarrollo humano, el fortalecimiento de valores y competencias básicas, laborales, científicas, artísticas, ambientales y deportivas. Niñas y niños y jóvenes que se apropian de herramientas teórico-prácticas para el diseño, gestión y ejecución de proyectos, que contribuyen a su formación integral.  
 </t>
         </is>
       </c>
-      <c r="V193" t="inlineStr">
+      <c r="V194" t="inlineStr">
         <is>
           <t>Al 2020 LA INSTITUCION EDUCATIVA DISTRITAL MANUELITA SAENZ tendrá una educación y formación acorde con las necesidades de la comunidad educativa y de la localidad; definida por acciones que se desarrollarán en un ambiente sano y agradable aprovechando las amplias  zonas verdes e instalaciones que poseemos, formando niñas, niños y jóvenes que conserven y respeten el medio ambiente preparados académicamente e integralmente para ser útiles a la sociedad.    *No esta actualizado*</t>
-        </is>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" t="n">
-        <v>198</v>
-      </c>
-      <c r="B194" t="inlineStr">
-        <is>
-          <t>Encuesta Planes de estudio</t>
-        </is>
-      </c>
-      <c r="C194" t="inlineStr">
-        <is>
-          <t>18/05</t>
-        </is>
-      </c>
-      <c r="D194" t="inlineStr">
-        <is>
-          <t>204</t>
-        </is>
-      </c>
-      <c r="E194" t="n">
-        <v>198</v>
-      </c>
-      <c r="F194" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="G194" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="H194" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="I194" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="J194" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="L194" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="M194" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="N194" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="O194" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="P194" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="Q194" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="R194" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="S194" t="inlineStr"/>
-      <c r="T194" t="inlineStr"/>
-      <c r="U194" t="inlineStr">
-        <is>
-          <t>La Institución Educativa Colegio de San Simón de Ibagué Tolima, fundada en 1822, integrante de la comunidad santanderina, con su Proyecto Educativo Institucional, contribuye a la formación integral de seres humanos, autónomos, interdependientes y democráticos; comprometidos con la preservación del ambiente, el desarrollo de nuestra región y la construcción de la paz; cultura, generadoras de progreso y desarrollo con sentido ético y humano, competentes en la ciencia, la tecnología, el deporte y el arte, con sentido humanista.</t>
-        </is>
-      </c>
-      <c r="V194" t="inlineStr">
-        <is>
-          <t>La Institución Educativa “Colegio de San Simón” del municipio Ibagué, al 2025 alcanzará niveles de excelencia académica, tecnológica, deportiva y artística, mediante el desarrollo de competencias cognitivas y la práctica de valores en sana convivencia, que le permita al claustro ilustre mantenerse en los primeros lugares de la educación en Colombia.</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B195" t="inlineStr">
         <is>
@@ -20850,11 +20854,11 @@
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>205</t>
+          <t>204</t>
         </is>
       </c>
       <c r="E195" t="n">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F195" t="inlineStr">
         <is>
@@ -20878,12 +20882,12 @@
       </c>
       <c r="J195" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="K195" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="L195" t="inlineStr">
@@ -20898,32 +20902,132 @@
       </c>
       <c r="N195" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No</t>
         </is>
       </c>
       <c r="O195" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No</t>
         </is>
       </c>
       <c r="P195" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No</t>
         </is>
       </c>
       <c r="Q195" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No</t>
         </is>
       </c>
       <c r="R195" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="S195" t="inlineStr"/>
       <c r="T195" t="inlineStr"/>
       <c r="U195" t="inlineStr">
+        <is>
+          <t>La Institución Educativa Colegio de San Simón de Ibagué Tolima, fundada en 1822, integrante de la comunidad santanderina, con su Proyecto Educativo Institucional, contribuye a la formación integral de seres humanos, autónomos, interdependientes y democráticos; comprometidos con la preservación del ambiente, el desarrollo de nuestra región y la construcción de la paz; cultura, generadoras de progreso y desarrollo con sentido ético y humano, competentes en la ciencia, la tecnología, el deporte y el arte, con sentido humanista.</t>
+        </is>
+      </c>
+      <c r="V195" t="inlineStr">
+        <is>
+          <t>La Institución Educativa “Colegio de San Simón” del municipio Ibagué, al 2025 alcanzará niveles de excelencia académica, tecnológica, deportiva y artística, mediante el desarrollo de competencias cognitivas y la práctica de valores en sana convivencia, que le permita al claustro ilustre mantenerse en los primeros lugares de la educación en Colombia.</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="n">
+        <v>199</v>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>Encuesta Planes de estudio</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>18/05</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>205</t>
+        </is>
+      </c>
+      <c r="E196" t="n">
+        <v>199</v>
+      </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="G196" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="H196" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I196" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="J196" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="L196" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="M196" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="N196" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="O196" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="P196" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="Q196" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="R196" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="S196" t="inlineStr"/>
+      <c r="T196" t="inlineStr"/>
+      <c r="U196" t="inlineStr">
         <is>
           <t>Ser una Institución Educativa Técnica Empresarial que, en el
 marco de la Educación Humanista, inclusiva y de la Pedagogía
@@ -20938,7 +21042,7 @@
 Emprendimiento.</t>
         </is>
       </c>
-      <c r="V195" t="inlineStr">
+      <c r="V196" t="inlineStr">
         <is>
           <t>Para el año 2020, La Institución Educativa Técnica Empresarial
 “Alberto Castilla” se consolidará como entidad formadora de
@@ -20951,113 +21055,9 @@
         </is>
       </c>
     </row>
-    <row r="196">
-      <c r="A196" t="n">
-        <v>200</v>
-      </c>
-      <c r="B196" t="inlineStr">
-        <is>
-          <t>Encuesta Planes de estudio</t>
-        </is>
-      </c>
-      <c r="C196" t="inlineStr">
-        <is>
-          <t>18/05</t>
-        </is>
-      </c>
-      <c r="D196" t="inlineStr">
-        <is>
-          <t>206</t>
-        </is>
-      </c>
-      <c r="E196" t="n">
-        <v>200</v>
-      </c>
-      <c r="F196" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="G196" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="H196" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="I196" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="J196" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="L196" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="M196" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="N196" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="O196" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="P196" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="Q196" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="R196" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="S196" t="inlineStr">
-        <is>
-          <t>Para este año 2022, se contempla incluir competencias relacionadas con el pensamiento computacional</t>
-        </is>
-      </c>
-      <c r="T196" t="inlineStr"/>
-      <c r="U196" t="inlineStr">
-        <is>
-          <t>La IET NUEVA ESPERANZA LA PALMA, es una institución educativa de carácter oficial rural, líder en jornada única, que desarrolla sus procesos educativos en los niveles de preescolar, básica , media y adultos;  proyectando su accionar pedagógico, hacia el desarrollo humano  y atención integral  de sus estudiantes, a través de aprendizajes funcionales y significativos, para el desarrollo de las competencias básicas y específicas, en cada una de las áreas del conocimiento, dentro del contexto socio-cultural-productivo de la región, con calidad cobertura y pertinencia y acorde con las políticas educativas del estado colombiano.</t>
-        </is>
-      </c>
-      <c r="V196" t="inlineStr">
-        <is>
-          <t>Para el año 2025 la I E T NUEVA ESPERANZA LA PALMA, de Ibagué, será un establecimiento educativo abanderado de la jornada única, con una educación con total cobertura, pertinente y de calidad, reconocida por el desarrollo humano y atención  integral de sus estudiantes con liderazgo, habilidad para construir sus proyectos de vida, la responsabilidad y el respeto con el medio ambiente, la valoración asertiva de la diversidad, emprendedores y altamente creativos e innovadores</t>
-        </is>
-      </c>
-    </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B197" t="inlineStr">
         <is>
@@ -21071,15 +21071,15 @@
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>210</t>
+          <t>206</t>
         </is>
       </c>
       <c r="E197" t="n">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F197" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No</t>
         </is>
       </c>
       <c r="G197" t="inlineStr">
@@ -21119,7 +21119,7 @@
       </c>
       <c r="N197" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="O197" t="inlineStr">
@@ -21139,25 +21139,29 @@
       </c>
       <c r="R197" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="S197" t="inlineStr"/>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="S197" t="inlineStr">
+        <is>
+          <t>Para este año 2022, se contempla incluir competencias relacionadas con el pensamiento computacional</t>
+        </is>
+      </c>
       <c r="T197" t="inlineStr"/>
       <c r="U197" t="inlineStr">
         <is>
-          <t>La Institución Educativa GUILLERMO ANGULO GOMEZ  está comprometida con  la formación integral de los estudiantes (niños y jóvenes) desde el nivel de preescolar hasta el grado 11º, y adultos, desde básica primaria hasta media; forma bachilleres académicos, facilita los procesos de articulación con el mundo laboral; fomenta las capacidades y competencias ciudadanas, tecnológicas, laborales y científicas que posibilitan la construcción y dialogo de saberes a partir del trabajo investigativo e  interdisciplinario  para contribuir con el  mejoramiento de la calidad de vida, la convivencia social y el desarrollo humano de los egresados</t>
+          <t>La IET NUEVA ESPERANZA LA PALMA, es una institución educativa de carácter oficial rural, líder en jornada única, que desarrolla sus procesos educativos en los niveles de preescolar, básica , media y adultos;  proyectando su accionar pedagógico, hacia el desarrollo humano  y atención integral  de sus estudiantes, a través de aprendizajes funcionales y significativos, para el desarrollo de las competencias básicas y específicas, en cada una de las áreas del conocimiento, dentro del contexto socio-cultural-productivo de la región, con calidad cobertura y pertinencia y acorde con las políticas educativas del estado colombiano.</t>
         </is>
       </c>
       <c r="V197" t="inlineStr">
         <is>
-          <t>En 2020, la Institución Educativa Guillermo Angulo Gómez será líder y referente en su propuesta curricular y formación integral de los niños, jóvenes y adultos; basada en el humanismo, la ciencia,  la tecnología, la formación de investigadores, el fomento del liderazgo, el reconocimiento y excelencia en la realización personal, ética y social  de sus egresados con proyección Local,  regional y Nacional</t>
+          <t>Para el año 2025 la I E T NUEVA ESPERANZA LA PALMA, de Ibagué, será un establecimiento educativo abanderado de la jornada única, con una educación con total cobertura, pertinente y de calidad, reconocida por el desarrollo humano y atención  integral de sus estudiantes con liderazgo, habilidad para construir sus proyectos de vida, la responsabilidad y el respeto con el medio ambiente, la valoración asertiva de la diversidad, emprendedores y altamente creativos e innovadores</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B198" t="inlineStr">
         <is>
@@ -21171,11 +21175,11 @@
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>209</t>
+          <t>210</t>
         </is>
       </c>
       <c r="E198" t="n">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F198" t="inlineStr">
         <is>
@@ -21189,7 +21193,7 @@
       </c>
       <c r="H198" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No</t>
         </is>
       </c>
       <c r="I198" t="inlineStr">
@@ -21199,12 +21203,12 @@
       </c>
       <c r="J198" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No</t>
         </is>
       </c>
       <c r="K198" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No</t>
         </is>
       </c>
       <c r="L198" t="inlineStr">
@@ -21242,26 +21246,22 @@
           <t>No</t>
         </is>
       </c>
-      <c r="S198" t="inlineStr">
-        <is>
-          <t>A partir del grado 9 se evidencian procesos afines al pensamiento computacional</t>
-        </is>
-      </c>
+      <c r="S198" t="inlineStr"/>
       <c r="T198" t="inlineStr"/>
       <c r="U198" t="inlineStr">
         <is>
-          <t xml:space="preserve">La Institución Educativa Raíces Del Futuro, Ofrece el servicio educativo en los niveles de preescolar, básica y media con profundización en ciencias naturales y Educación ambiental y humanidades-ingles.La Institución Educativa Raíces del Futuro se dedica al fortalecimiento de la disciplina académica,en la comunidad educativa, con personal ético, académico y profesionalmente idóneo, generando ambientes óptimos para el desempeño armónico,pluralista,participativo y bioético, para que los estudiantes adopten la disciplina como insumo en la solución de situaciones, en la construcción de sus proyectos de vida, usando herramientas y/o competencias del siglo XXI. </t>
+          <t>La Institución Educativa GUILLERMO ANGULO GOMEZ  está comprometida con  la formación integral de los estudiantes (niños y jóvenes) desde el nivel de preescolar hasta el grado 11º, y adultos, desde básica primaria hasta media; forma bachilleres académicos, facilita los procesos de articulación con el mundo laboral; fomenta las capacidades y competencias ciudadanas, tecnológicas, laborales y científicas que posibilitan la construcción y dialogo de saberes a partir del trabajo investigativo e  interdisciplinario  para contribuir con el  mejoramiento de la calidad de vida, la convivencia social y el desarrollo humano de los egresados</t>
         </is>
       </c>
       <c r="V198" t="inlineStr">
         <is>
-          <t>La Institución Educativa RAICES DEL FUTURO será reconocida en el año 2025, por brindar una educación transversal e integral y por contribuir al desarrollo multidimensional del ser humano, desde el principio de la disciplina, centrado en procesos de investigación de aula y el uso de tecnologías para el aprendizaje y la comunicación TAC, con personal capaz de formar en la autonomía y el reconocimiento de iguales y diferentes; con principios éticos, ambientales y de trascendencia.</t>
+          <t>En 2020, la Institución Educativa Guillermo Angulo Gómez será líder y referente en su propuesta curricular y formación integral de los niños, jóvenes y adultos; basada en el humanismo, la ciencia,  la tecnología, la formación de investigadores, el fomento del liderazgo, el reconocimiento y excelencia en la realización personal, ética y social  de sus egresados con proyección Local,  regional y Nacional</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B199" t="inlineStr">
         <is>
@@ -21275,11 +21275,11 @@
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>084</t>
+          <t>209</t>
         </is>
       </c>
       <c r="E199" t="n">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F199" t="inlineStr">
         <is>
@@ -21293,7 +21293,7 @@
       </c>
       <c r="H199" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="I199" t="inlineStr">
@@ -21303,17 +21303,17 @@
       </c>
       <c r="J199" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="K199" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="L199" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="M199" t="inlineStr">
@@ -21343,25 +21343,29 @@
       </c>
       <c r="R199" t="inlineStr">
         <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="S199" t="inlineStr"/>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="S199" t="inlineStr">
+        <is>
+          <t>A partir del grado 9 se evidencian procesos afines al pensamiento computacional</t>
+        </is>
+      </c>
       <c r="T199" t="inlineStr"/>
       <c r="U199" t="inlineStr">
         <is>
-          <t xml:space="preserve">Somos una institución educativa con un enfoque integral humanista diversificado que ofrece los niveles de educación preescolar, básica y media (Técnica y Académica) que respeta las diferencias individuales y fomenta el desarrollo de las competencias básicas, laborales y ciudadanas en concordancia con las exigencias del mundo globalizado. </t>
+          <t xml:space="preserve">La Institución Educativa Raíces Del Futuro, Ofrece el servicio educativo en los niveles de preescolar, básica y media con profundización en ciencias naturales y Educación ambiental y humanidades-ingles.La Institución Educativa Raíces del Futuro se dedica al fortalecimiento de la disciplina académica,en la comunidad educativa, con personal ético, académico y profesionalmente idóneo, generando ambientes óptimos para el desempeño armónico,pluralista,participativo y bioético, para que los estudiantes adopten la disciplina como insumo en la solución de situaciones, en la construcción de sus proyectos de vida, usando herramientas y/o competencias del siglo XXI. </t>
         </is>
       </c>
       <c r="V199" t="inlineStr">
         <is>
-          <t>Para el año 2025 continuaremos siendo una institución incluyente, reconocida por su destacado trabajo en la formación integral, con pensamiento crítico, emprendedora que le permitirá dar soluciones acertadas a las necesidades y retos que exige la sociedad actual y su momento histórico de los procesos de paz, teniendo en cuenta las apuestas productivas de la región y su proyección a nivel nacional e internacional.</t>
+          <t>La Institución Educativa RAICES DEL FUTURO será reconocida en el año 2025, por brindar una educación transversal e integral y por contribuir al desarrollo multidimensional del ser humano, desde el principio de la disciplina, centrado en procesos de investigación de aula y el uso de tecnologías para el aprendizaje y la comunicación TAC, con personal capaz de formar en la autonomía y el reconocimiento de iguales y diferentes; con principios éticos, ambientales y de trascendencia.</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B200" t="inlineStr">
         <is>
@@ -21370,16 +21374,16 @@
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>19/05</t>
+          <t>18/05</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>016</t>
+          <t>084</t>
         </is>
       </c>
       <c r="E200" t="n">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F200" t="inlineStr">
         <is>
@@ -21403,17 +21407,17 @@
       </c>
       <c r="J200" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No</t>
         </is>
       </c>
       <c r="K200" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No</t>
         </is>
       </c>
       <c r="L200" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No</t>
         </is>
       </c>
       <c r="M200" t="inlineStr">
@@ -21428,7 +21432,7 @@
       </c>
       <c r="O200" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No</t>
         </is>
       </c>
       <c r="P200" t="inlineStr">
@@ -21443,25 +21447,25 @@
       </c>
       <c r="R200" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="S200" t="inlineStr"/>
       <c r="T200" t="inlineStr"/>
       <c r="U200" t="inlineStr">
         <is>
-          <t>La Institución Educativa “GENERAL JOSÉ MARÍA CABAL”, es una institución que vela por Formar ciudadanos autónomos, críticos y éticos; con habilidades socioemocionales; con competencias adecuadas para la paz y la democracia; comprometidos en la acción y el servicio para la transformación de sí mismo, de la escuela y de la comunidad; con aptitudes para el emprendimiento y el uso de herramientas tecnológicas, el trabajo productivo y/o continuar estudios superiores; individuos investigadores, creativos e innovadores, con gran sensibilidad por el entorno ambiental, respetuosos de lo público, resilientes y comprometidos con el desarrollo sostenible.</t>
+          <t xml:space="preserve">Somos una institución educativa con un enfoque integral humanista diversificado que ofrece los niveles de educación preescolar, básica y media (Técnica y Académica) que respeta las diferencias individuales y fomenta el desarrollo de las competencias básicas, laborales y ciudadanas en concordancia con las exigencias del mundo globalizado. </t>
         </is>
       </c>
       <c r="V200" t="inlineStr">
         <is>
-          <t>Al 2030, estar dentro de las mejores Instituciones Educativas de Santiago de Cali, en educación preescolar, básica y media técnica; siendo una institución formadora de individuos útiles a la comunidad, ciudadanos constructores de paz, cultura, convivencia y promotores de democracia representativa y participativa; con altos niveles de calidad humana y profesional, innovadores y transformadores de su entorno; con habilidades adecuadas para reflexionar, pensar de forma crítica y responsables con el desarrollo sostenible.</t>
+          <t>Para el año 2025 continuaremos siendo una institución incluyente, reconocida por su destacado trabajo en la formación integral, con pensamiento crítico, emprendedora que le permitirá dar soluciones acertadas a las necesidades y retos que exige la sociedad actual y su momento histórico de los procesos de paz, teniendo en cuenta las apuestas productivas de la región y su proyección a nivel nacional e internacional.</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B201" t="inlineStr">
         <is>
@@ -21475,11 +21479,11 @@
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>017</t>
+          <t>016</t>
         </is>
       </c>
       <c r="E201" t="n">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F201" t="inlineStr">
         <is>
@@ -21498,12 +21502,12 @@
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="J201" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="K201" t="inlineStr">
@@ -21550,19 +21554,18 @@
       <c r="T201" t="inlineStr"/>
       <c r="U201" t="inlineStr">
         <is>
-          <t>Formar normalistas superiores para el ejercicio de la docencia en preescolar y básica primaria, a través de procesos pedagógicos y curriculares, articulados dentro de un contexto social incluyente que permitan el desarrollo de un maestro de alta calidad.
-Formar un Normalista Superior implica la organización y desarrollo de una propuesta formativa acorde con lo dispuesto en las políticas Educativas del Ministerio de Educación Nacional tal como la Ley 115 de 1994, sus decretos y resoluciones reglamentarias y el Decreto 4790 de 2008.</t>
+          <t>La Institución Educativa “GENERAL JOSÉ MARÍA CABAL”, es una institución que vela por Formar ciudadanos autónomos, críticos y éticos; con habilidades socioemocionales; con competencias adecuadas para la paz y la democracia; comprometidos en la acción y el servicio para la transformación de sí mismo, de la escuela y de la comunidad; con aptitudes para el emprendimiento y el uso de herramientas tecnológicas, el trabajo productivo y/o continuar estudios superiores; individuos investigadores, creativos e innovadores, con gran sensibilidad por el entorno ambiental, respetuosos de lo público, resilientes y comprometidos con el desarrollo sostenible.</t>
         </is>
       </c>
       <c r="V201" t="inlineStr">
         <is>
-          <t>La INSTITUCIÓN EDUCATIVA ESCUELA NORMAL SUPERIOR FARALLONES DE CALI, organización formadora de normalistas superiores de acuerdo con su misión, será para el 2023reconocida por sus altos resultados académicos, el aprovechamiento de las herramientas tecnológicas de la información y la comunicación y la aplicación de los requisitos y directrices de las entidades y órganos de regulación y control del servicio educativo, capaz de soportar los cambios en la normatividad, aprovechando sus alianzas y convenios y la optimización de sus recursos garantizando así su sostenibilidad y crecimiento.</t>
+          <t>Al 2030, estar dentro de las mejores Instituciones Educativas de Santiago de Cali, en educación preescolar, básica y media técnica; siendo una institución formadora de individuos útiles a la comunidad, ciudadanos constructores de paz, cultura, convivencia y promotores de democracia representativa y participativa; con altos niveles de calidad humana y profesional, innovadores y transformadores de su entorno; con habilidades adecuadas para reflexionar, pensar de forma crítica y responsables con el desarrollo sostenible.</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="n">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B202" t="inlineStr">
         <is>
@@ -21576,11 +21579,11 @@
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>022</t>
+          <t>017</t>
         </is>
       </c>
       <c r="E202" t="n">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F202" t="inlineStr">
         <is>
@@ -21599,7 +21602,7 @@
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No</t>
         </is>
       </c>
       <c r="J202" t="inlineStr">
@@ -21609,12 +21612,12 @@
       </c>
       <c r="K202" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="L202" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="M202" t="inlineStr">
@@ -21651,18 +21654,19 @@
       <c r="T202" t="inlineStr"/>
       <c r="U202" t="inlineStr">
         <is>
-          <t>Somos una institución educativa de carácter técnico, fundamentada en una formación integral fundamentada en una formación integral, incluyente y de calidad para los educandos, en los niveles de preescolar, básica, media y de adultos, generando procesos de pensamiento y competencias que promuevan una actitud de liderazgo, emprendedora y transformadora de su calidad de vida y entorno social, articulada con instituciones, que aportan al desarrollo de las competencias laborales.</t>
+          <t>Formar normalistas superiores para el ejercicio de la docencia en preescolar y básica primaria, a través de procesos pedagógicos y curriculares, articulados dentro de un contexto social incluyente que permitan el desarrollo de un maestro de alta calidad.
+Formar un Normalista Superior implica la organización y desarrollo de una propuesta formativa acorde con lo dispuesto en las políticas Educativas del Ministerio de Educación Nacional tal como la Ley 115 de 1994, sus decretos y resoluciones reglamentarias y el Decreto 4790 de 2008.</t>
         </is>
       </c>
       <c r="V202" t="inlineStr">
         <is>
-          <t>En el año 2020 la IED Técnico Santuario, será una institución reconocida en el distrito de barranquilla, por ser el centro de formación integral, comprometida con el desarrollo l de su comunidad en la calidad de la formación humanística, académica y técnica, en convenio con otras instituciones que respondan a las necesidades y expectativas del sector educativo, productivo y del ciudadano que necesita el país.</t>
+          <t>La INSTITUCIÓN EDUCATIVA ESCUELA NORMAL SUPERIOR FARALLONES DE CALI, organización formadora de normalistas superiores de acuerdo con su misión, será para el 2023reconocida por sus altos resultados académicos, el aprovechamiento de las herramientas tecnológicas de la información y la comunicación y la aplicación de los requisitos y directrices de las entidades y órganos de regulación y control del servicio educativo, capaz de soportar los cambios en la normatividad, aprovechando sus alianzas y convenios y la optimización de sus recursos garantizando así su sostenibilidad y crecimiento.</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="n">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B203" t="inlineStr">
         <is>
@@ -21676,11 +21680,11 @@
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>010</t>
+          <t>022</t>
         </is>
       </c>
       <c r="E203" t="n">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F203" t="inlineStr">
         <is>
@@ -21729,7 +21733,7 @@
       </c>
       <c r="O203" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="P203" t="inlineStr">
@@ -21751,18 +21755,18 @@
       <c r="T203" t="inlineStr"/>
       <c r="U203" t="inlineStr">
         <is>
-          <t>Somos una comunidad educativa con modalidad comercial y articulada con Instituciones de Educación Superior, e Instituciones de formación para el trabajo y el desarrollo humano comprometida con la pedagogía de la Misericordia, cimentada y  dinamizada por valores humanos, cristianos, cívicos, ecológicos, tecnológicos y empresariales, que busca la formación integral de niñas y jóvenes autónomas,emprendedoras, trascendentes, en armonía con Dios,con la naturaleza, consigo misma y su entorno social.</t>
+          <t>Somos una institución educativa de carácter técnico, fundamentada en una formación integral fundamentada en una formación integral, incluyente y de calidad para los educandos, en los niveles de preescolar, básica, media y de adultos, generando procesos de pensamiento y competencias que promuevan una actitud de liderazgo, emprendedora y transformadora de su calidad de vida y entorno social, articulada con instituciones, que aportan al desarrollo de las competencias laborales.</t>
         </is>
       </c>
       <c r="V203" t="inlineStr">
         <is>
-          <t>Buscamos al año 2013 alcanzar las metas en el Plan de Desarrollo Institucional ofreciendo una educación  de calidad. Asumiendo los procesos de la Pedagogía de la Misericordia y la articulación con Instituciones de Educación Superior e Instituciones de formación para el trabajo y el Desarrollo humano. Acorde a los avances científicos, tecnológicos y empresariales con una dimensión evangelizadora.</t>
+          <t>En el año 2020 la IED Técnico Santuario, será una institución reconocida en el distrito de barranquilla, por ser el centro de formación integral, comprometida con el desarrollo l de su comunidad en la calidad de la formación humanística, académica y técnica, en convenio con otras instituciones que respondan a las necesidades y expectativas del sector educativo, productivo y del ciudadano que necesita el país.</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="n">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B204" t="inlineStr">
         <is>
@@ -21776,11 +21780,11 @@
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>013</t>
+          <t>010</t>
         </is>
       </c>
       <c r="E204" t="n">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F204" t="inlineStr">
         <is>
@@ -21851,19 +21855,18 @@
       <c r="T204" t="inlineStr"/>
       <c r="U204" t="inlineStr">
         <is>
-          <t>Misión: La Institución Educativa Francisco José de Caldas es una institución de carácter oficial, mixta e inclusiva, que ofrece un servicio educativo de calidad en jornada diurna en los niveles de Preescolar, Básica y Media  articulados con  el SENA e ITSA  mediante Programas en Formación para el Trabajo, así como los ciclos nocturnos en Básica Secundaria y Media, cumpliendo con los requisitos de ley  vigentes emanados por el MEN y la Secretaría de Educación, orientando a los  estudiantes hacia el desarrollo de todas las dimensiones humanas, dirigido a una comunidad de estratos 1, 2 y 3  del Municipio de Soledad y barrios circunvecinos, con un enfoque administrativo de servicio y responsabilidad que responde a las necesidades de la comunidad y el entorno.</t>
+          <t>Somos una comunidad educativa con modalidad comercial y articulada con Instituciones de Educación Superior, e Instituciones de formación para el trabajo y el desarrollo humano comprometida con la pedagogía de la Misericordia, cimentada y  dinamizada por valores humanos, cristianos, cívicos, ecológicos, tecnológicos y empresariales, que busca la formación integral de niñas y jóvenes autónomas,emprendedoras, trascendentes, en armonía con Dios,con la naturaleza, consigo misma y su entorno social.</t>
         </is>
       </c>
       <c r="V204" t="inlineStr">
         <is>
-          <t>Visión: 
-La Institución Educativa Francisco José de Caldas del Municipio de Soledad en el año 2025 ofrecerá un servicio de alta calidad en los niveles de Preescolar, Básica y Media, articulados con  el SENA e ITSA  mediante Programas en Formación para el Trabajo,  coherentes con el Proyecto Educativo Institucional de alta cobertura, incluyente y basado en un desarrollo humano integral, contando con un equipo de trabajo  idóneo que forme ciudadanos competentes y competitivos en lo  social, científico, técnico y tecnológico dispuestos a contribuir con el desarrollo del  municipio,  la Región Caribe y el país.</t>
+          <t>Buscamos al año 2013 alcanzar las metas en el Plan de Desarrollo Institucional ofreciendo una educación  de calidad. Asumiendo los procesos de la Pedagogía de la Misericordia y la articulación con Instituciones de Educación Superior e Instituciones de formación para el trabajo y el Desarrollo humano. Acorde a los avances científicos, tecnológicos y empresariales con una dimensión evangelizadora.</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="n">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B205" t="inlineStr">
         <is>
@@ -21877,11 +21880,11 @@
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>246</t>
+          <t>013</t>
         </is>
       </c>
       <c r="E205" t="n">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F205" t="inlineStr">
         <is>
@@ -21905,7 +21908,7 @@
       </c>
       <c r="J205" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No</t>
         </is>
       </c>
       <c r="K205" t="inlineStr">
@@ -21915,7 +21918,7 @@
       </c>
       <c r="L205" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No</t>
         </is>
       </c>
       <c r="M205" t="inlineStr">
@@ -21948,26 +21951,23 @@
           <t>No</t>
         </is>
       </c>
-      <c r="S205" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En la IE se utilizan dos planes de área, uno en la jornada matinal y otro en la jornada de la tarde. Adicionalmente, en el plan de área de la jornada de la tarde están definidos los temas para 10 y 11, sin embargo en la IE actualmente estos grados no reciben clases de informática. </t>
-        </is>
-      </c>
+      <c r="S205" t="inlineStr"/>
       <c r="T205" t="inlineStr"/>
       <c r="U205" t="inlineStr">
         <is>
-          <t>La Institución Educativa Distrital Pestalozzi es una entidad oficial, modelo de gestión gerencial, sistémico y con calidad del servicio público educativo, retroalimentada por la comunidad educativa responsable de la formación estudiantil en las competencias básicas, ciudadanas y laborales correspondientes al plan de estudios del nivel de formación básica y media, garantizando los estándares de calidad que les permitan un desarrollo personal, cultural, social y productivo acorde con sus proyectos de vida y la dinámica y proyección socioeconómica, cultural y política de la ciudad de Barranquilla y la Región Caribe Colombiana.</t>
+          <t>Misión: La Institución Educativa Francisco José de Caldas es una institución de carácter oficial, mixta e inclusiva, que ofrece un servicio educativo de calidad en jornada diurna en los niveles de Preescolar, Básica y Media  articulados con  el SENA e ITSA  mediante Programas en Formación para el Trabajo, así como los ciclos nocturnos en Básica Secundaria y Media, cumpliendo con los requisitos de ley  vigentes emanados por el MEN y la Secretaría de Educación, orientando a los  estudiantes hacia el desarrollo de todas las dimensiones humanas, dirigido a una comunidad de estratos 1, 2 y 3  del Municipio de Soledad y barrios circunvecinos, con un enfoque administrativo de servicio y responsabilidad que responde a las necesidades de la comunidad y el entorno.</t>
         </is>
       </c>
       <c r="V205" t="inlineStr">
         <is>
-          <t>En el año 2030 la Institución Educativa Distrital Pestalozzi será reconocida a nivel local y regional como el establecimiento oficial líder en la formación integral, multicultural, técnica, inclusiva y bilingüe de estudiantes identificados con la búsqueda permanente de la excelencia académica, y docentes comprometidos en garantizar altos estándares de calidad del servicio educativo con énfasis en la investigación y el desarrollo a profundidad de los contenidos correspondientes al nivel de formación básica y media, necesarios para promover la integración de la comunidad educativa a los procesos de construcción de competitividad social, económica y política de la ciudad y la Región caribe de Colombia.</t>
+          <t>Visión: 
+La Institución Educativa Francisco José de Caldas del Municipio de Soledad en el año 2025 ofrecerá un servicio de alta calidad en los niveles de Preescolar, Básica y Media, articulados con  el SENA e ITSA  mediante Programas en Formación para el Trabajo,  coherentes con el Proyecto Educativo Institucional de alta cobertura, incluyente y basado en un desarrollo humano integral, contando con un equipo de trabajo  idóneo que forme ciudadanos competentes y competitivos en lo  social, científico, técnico y tecnológico dispuestos a contribuir con el desarrollo del  municipio,  la Región Caribe y el país.</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="n">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B206" t="inlineStr">
         <is>
@@ -21981,15 +21981,15 @@
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>029</t>
+          <t>246</t>
         </is>
       </c>
       <c r="E206" t="n">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F206" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="G206" t="inlineStr">
@@ -22009,12 +22009,12 @@
       </c>
       <c r="J206" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="K206" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No</t>
         </is>
       </c>
       <c r="L206" t="inlineStr">
@@ -22054,24 +22054,24 @@
       </c>
       <c r="S206" t="inlineStr">
         <is>
-          <t>En el plan de estudio se menciona que en grados 6°, 7° y 8° se involucran saberes fundamentales como  la animación en Scratch, razonamiento lógico, ya en noveno  se abordan temas como algoritmos, diagramas de flujo en lenguaje natural, seudocódigos, programación básica en Pseint, en décimo se habla sobre conceptualización de los lenguajes de programación y algunos tipos, también de elementos básicos del lenguaje de programación  y visual  Basic desde el desarrollador de Power Pointy en once se habla sobre los juegos virtuales como herramientas didácticas para la  práctica pedagógica y la programación de una actividad didáctica en Visual Basic.</t>
+          <t xml:space="preserve">En la IE se utilizan dos planes de área, uno en la jornada matinal y otro en la jornada de la tarde. Adicionalmente, en el plan de área de la jornada de la tarde están definidos los temas para 10 y 11, sin embargo en la IE actualmente estos grados no reciben clases de informática. </t>
         </is>
       </c>
       <c r="T206" t="inlineStr"/>
       <c r="U206" t="inlineStr">
         <is>
-          <t>La Escuela Normal Superior de Ibagué es una Institución Educativa de carácter oficial, formadora de maestros para preescolar y básica primaria; fundamenta en todos los niveles, los valores de compromiso, respeto, honestidad e idoneidad, y desarrolla prácticas pedagógicas, académicas e investigativas a través de la reflexión dialogada de acuerdo con las necesidades de inclusión, modernización y calidad educativa.</t>
+          <t>La Institución Educativa Distrital Pestalozzi es una entidad oficial, modelo de gestión gerencial, sistémico y con calidad del servicio público educativo, retroalimentada por la comunidad educativa responsable de la formación estudiantil en las competencias básicas, ciudadanas y laborales correspondientes al plan de estudios del nivel de formación básica y media, garantizando los estándares de calidad que les permitan un desarrollo personal, cultural, social y productivo acorde con sus proyectos de vida y la dinámica y proyección socioeconómica, cultural y política de la ciudad de Barranquilla y la Región Caribe Colombiana.</t>
         </is>
       </c>
       <c r="V206" t="inlineStr">
         <is>
-          <t>En el año 2023, La Escuela Normal Superior de Ibagué será una Institución líder a nivel local, regional y nacional, con proyección internacional en el campo de la formación docente, a través del fortalecimiento de las prácticas pedagógicas, de educación inclusiva, de los procesos de calidad educativa y de investigación, como ejes dinamizadores del desarrollo institucional.</t>
+          <t>En el año 2030 la Institución Educativa Distrital Pestalozzi será reconocida a nivel local y regional como el establecimiento oficial líder en la formación integral, multicultural, técnica, inclusiva y bilingüe de estudiantes identificados con la búsqueda permanente de la excelencia académica, y docentes comprometidos en garantizar altos estándares de calidad del servicio educativo con énfasis en la investigación y el desarrollo a profundidad de los contenidos correspondientes al nivel de formación básica y media, necesarios para promover la integración de la comunidad educativa a los procesos de construcción de competitividad social, económica y política de la ciudad y la Región caribe de Colombia.</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="n">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B207" t="inlineStr">
         <is>
@@ -22085,15 +22085,15 @@
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>034</t>
+          <t>029</t>
         </is>
       </c>
       <c r="E207" t="n">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F207" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No</t>
         </is>
       </c>
       <c r="G207" t="inlineStr">
@@ -22108,7 +22108,7 @@
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="J207" t="inlineStr">
@@ -22118,12 +22118,12 @@
       </c>
       <c r="K207" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="L207" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="M207" t="inlineStr">
@@ -22156,22 +22156,26 @@
           <t>No</t>
         </is>
       </c>
-      <c r="S207" t="inlineStr"/>
+      <c r="S207" t="inlineStr">
+        <is>
+          <t>En el plan de estudio se menciona que en grados 6°, 7° y 8° se involucran saberes fundamentales como  la animación en Scratch, razonamiento lógico, ya en noveno  se abordan temas como algoritmos, diagramas de flujo en lenguaje natural, seudocódigos, programación básica en Pseint, en décimo se habla sobre conceptualización de los lenguajes de programación y algunos tipos, también de elementos básicos del lenguaje de programación  y visual  Basic desde el desarrollador de Power Pointy en once se habla sobre los juegos virtuales como herramientas didácticas para la  práctica pedagógica y la programación de una actividad didáctica en Visual Basic.</t>
+        </is>
+      </c>
       <c r="T207" t="inlineStr"/>
       <c r="U207" t="inlineStr">
         <is>
-          <t xml:space="preserve">La Institución Educativa Técnica Ismael Santofimio Trujillo, se propone formar integralmente, niños, jóvenes y adultos, con capacidad de competir en el campo académico y técnico acorde a las exigencias y avances de la sociedad, con el fin de ser agentes dinamizadores del desarrollo humano, contribuyendo a la formación de una sociedad democrática, participativa y pluralista. </t>
+          <t>La Escuela Normal Superior de Ibagué es una Institución Educativa de carácter oficial, formadora de maestros para preescolar y básica primaria; fundamenta en todos los niveles, los valores de compromiso, respeto, honestidad e idoneidad, y desarrolla prácticas pedagógicas, académicas e investigativas a través de la reflexión dialogada de acuerdo con las necesidades de inclusión, modernización y calidad educativa.</t>
         </is>
       </c>
       <c r="V207" t="inlineStr">
         <is>
-          <t>Al 2024, la Institución Educativa Técnica Ismael Santofimio Trujillo, tiene como visión, posicionarse como una institución líder en la educación académica, técnica y empresarial, reconocida por su calidad humana, fundamentada en los principios de autonomía, en la búsqueda, construcción y apropiación del conocimiento en un ambiente de sana convivencia, basado en la adquisición y fortalecimiento de competencias que propendan el desarrollo integral del ser.</t>
+          <t>En el año 2023, La Escuela Normal Superior de Ibagué será una Institución líder a nivel local, regional y nacional, con proyección internacional en el campo de la formación docente, a través del fortalecimiento de las prácticas pedagógicas, de educación inclusiva, de los procesos de calidad educativa y de investigación, como ejes dinamizadores del desarrollo institucional.</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="n">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B208" t="inlineStr">
         <is>
@@ -22185,11 +22189,11 @@
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>031</t>
+          <t>034</t>
         </is>
       </c>
       <c r="E208" t="n">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F208" t="inlineStr">
         <is>
@@ -22256,27 +22260,22 @@
           <t>No</t>
         </is>
       </c>
-      <c r="S208" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En el plan de área de tecnología e informática el eje principal es la ofimática y algunos temas de alfabetización digital, articulándolos a proyectos transversales de otras áreas de enseñanza obligatoria, sin embargo, en el acuerdo pedagógico del primer semestre académico con grado sexto, la docente incluye un primer acercamiento y la exploración inicial del simulador makecode. </t>
-        </is>
-      </c>
+      <c r="S208" t="inlineStr"/>
       <c r="T208" t="inlineStr"/>
       <c r="U208" t="inlineStr">
         <is>
-          <t>La Institución Educativa Técnica Ambiental Combeima presta y ofrece una formación académica y en competencias laborales en el área de Ecoturismo y Turismo Local enfocado
-a la educación ambiental, en los niveles de preescolar, básica, media técnica y educación para adultos por ciclos (Sabatina) con el fin de capacitar y estructurar los nuevos modelos de liderazgo en zonas rurales, mixtas y urbanas asentadas en la región del Cañón del combeima. Hacia el empoderamiento de líderes rurales, que utilizan el Cañón del Combeima para su proyecto de vida familiar, social y universal. Por el trabajo cooperativo, su fortalecimiento de proyecto de vida y formación en desarrollo turístico con principios de responsabilidad.</t>
+          <t xml:space="preserve">La Institución Educativa Técnica Ismael Santofimio Trujillo, se propone formar integralmente, niños, jóvenes y adultos, con capacidad de competir en el campo académico y técnico acorde a las exigencias y avances de la sociedad, con el fin de ser agentes dinamizadores del desarrollo humano, contribuyendo a la formación de una sociedad democrática, participativa y pluralista. </t>
         </is>
       </c>
       <c r="V208" t="inlineStr">
         <is>
-          <t>La Institución Educativa Técnica Ambiental Combeima para el año 2025 será formadora de jóvenes que promuevan el turismo sostenible, con manejo de instrumentos para consultar, registrar y socializar información y experiencias, construyendo una comunidad educativa que identifique procesos y estructuras a través de proyectos donde el emprendimiento es la estrategia que caracteriza el líder.</t>
+          <t>Al 2024, la Institución Educativa Técnica Ismael Santofimio Trujillo, tiene como visión, posicionarse como una institución líder en la educación académica, técnica y empresarial, reconocida por su calidad humana, fundamentada en los principios de autonomía, en la búsqueda, construcción y apropiación del conocimiento en un ambiente de sana convivencia, basado en la adquisición y fortalecimiento de competencias que propendan el desarrollo integral del ser.</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="n">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B209" t="inlineStr">
         <is>
@@ -22290,11 +22289,11 @@
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>208</t>
+          <t>031</t>
         </is>
       </c>
       <c r="E209" t="n">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F209" t="inlineStr">
         <is>
@@ -22313,7 +22312,7 @@
       </c>
       <c r="I209" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No</t>
         </is>
       </c>
       <c r="J209" t="inlineStr">
@@ -22323,7 +22322,7 @@
       </c>
       <c r="K209" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No</t>
         </is>
       </c>
       <c r="L209" t="inlineStr">
@@ -22343,7 +22342,7 @@
       </c>
       <c r="O209" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No</t>
         </is>
       </c>
       <c r="P209" t="inlineStr">
@@ -22353,30 +22352,35 @@
       </c>
       <c r="Q209" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No</t>
         </is>
       </c>
       <c r="R209" t="inlineStr">
         <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="S209" t="inlineStr"/>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="S209" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En el plan de área de tecnología e informática el eje principal es la ofimática y algunos temas de alfabetización digital, articulándolos a proyectos transversales de otras áreas de enseñanza obligatoria, sin embargo, en el acuerdo pedagógico del primer semestre académico con grado sexto, la docente incluye un primer acercamiento y la exploración inicial del simulador makecode. </t>
+        </is>
+      </c>
       <c r="T209" t="inlineStr"/>
       <c r="U209" t="inlineStr">
         <is>
-          <t>La institución Educativa Liceo Nacional de carácter oficial, se encuentra ubicada en la comuna diez del municipio de Ibagué. Propende por la formación académica y humana de niñas y adolescentes que cursan los grados de transición a once a través de un modelo pedagógico de inspiración constructivista; orientado por docentes altamente calificados,  en procura de formar estudiantes con alta autoestima, sentido de pertenencia, respetuosas de su entorno vital y su cultura; líderes en sus comunidades y responsables de sus actos, asumiendo el reto de construir la paz como manifestación de amor a la vida.</t>
+          <t>La Institución Educativa Técnica Ambiental Combeima presta y ofrece una formación académica y en competencias laborales en el área de Ecoturismo y Turismo Local enfocado
+a la educación ambiental, en los niveles de preescolar, básica, media técnica y educación para adultos por ciclos (Sabatina) con el fin de capacitar y estructurar los nuevos modelos de liderazgo en zonas rurales, mixtas y urbanas asentadas en la región del Cañón del combeima. Hacia el empoderamiento de líderes rurales, que utilizan el Cañón del Combeima para su proyecto de vida familiar, social y universal. Por el trabajo cooperativo, su fortalecimiento de proyecto de vida y formación en desarrollo turístico con principios de responsabilidad.</t>
         </is>
       </c>
       <c r="V209" t="inlineStr">
         <is>
-          <t>El Liceo Nacional en el 2022, se vislumbra como Institución Educativa líder a nivel local, departamental y nacional, en la formación integral de la mujer desde la niñez hasta la juventud, a través del apoyo de instituciones de educación superior y alianzas estratégicas; mediante el fortalecimiento de las especialidades y profundizaciones de carácter académico, tecnológico e investigativo con un enfoque diferencial y el fortalecimiento de una lengua extranjera para afianzar el desarrollo, la construcción de la  paz y la convivencia ciudadana</t>
+          <t>La Institución Educativa Técnica Ambiental Combeima para el año 2025 será formadora de jóvenes que promuevan el turismo sostenible, con manejo de instrumentos para consultar, registrar y socializar información y experiencias, construyendo una comunidad educativa que identifique procesos y estructuras a través de proyectos donde el emprendimiento es la estrategia que caracteriza el líder.</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="n">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B210" t="inlineStr">
         <is>
@@ -22385,20 +22389,20 @@
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>20/05</t>
+          <t>19/05</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>018</t>
+          <t>208</t>
         </is>
       </c>
       <c r="E210" t="n">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F210" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="G210" t="inlineStr">
@@ -22413,22 +22417,22 @@
       </c>
       <c r="I210" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="J210" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No</t>
         </is>
       </c>
       <c r="K210" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="L210" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No</t>
         </is>
       </c>
       <c r="M210" t="inlineStr">
@@ -22453,30 +22457,30 @@
       </c>
       <c r="Q210" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="R210" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="S210" t="inlineStr"/>
       <c r="T210" t="inlineStr"/>
       <c r="U210" t="inlineStr">
         <is>
-          <t>Somos una institución educativa oficial certificada, inclusora con  enfoque constructivista–humanista. Potenciamos  estudiantes con talentos y/o capacidades excepcionales y posibilitamos ambientes pedagógicos de sana convivencia que favorecen  la formación de ciudadanos integrales, capaces de asumir  los retos de un mundo globalizado.</t>
+          <t>La institución Educativa Liceo Nacional de carácter oficial, se encuentra ubicada en la comuna diez del municipio de Ibagué. Propende por la formación académica y humana de niñas y adolescentes que cursan los grados de transición a once a través de un modelo pedagógico de inspiración constructivista; orientado por docentes altamente calificados,  en procura de formar estudiantes con alta autoestima, sentido de pertenencia, respetuosas de su entorno vital y su cultura; líderes en sus comunidades y responsables de sus actos, asumiendo el reto de construir la paz como manifestación de amor a la vida.</t>
         </is>
       </c>
       <c r="V210" t="inlineStr">
         <is>
-          <t>Ser una institución educativa reconocida  a nivel  nacional e internacional  por su liderazgo  en la prestación del servicio educativo que contribuya al desarrollo social, económico, político y cultural del país.</t>
+          <t>El Liceo Nacional en el 2022, se vislumbra como Institución Educativa líder a nivel local, departamental y nacional, en la formación integral de la mujer desde la niñez hasta la juventud, a través del apoyo de instituciones de educación superior y alianzas estratégicas; mediante el fortalecimiento de las especialidades y profundizaciones de carácter académico, tecnológico e investigativo con un enfoque diferencial y el fortalecimiento de una lengua extranjera para afianzar el desarrollo, la construcción de la  paz y la convivencia ciudadana</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="n">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B211" t="inlineStr">
         <is>
@@ -22490,11 +22494,11 @@
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>085</t>
+          <t>018</t>
         </is>
       </c>
       <c r="E211" t="n">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F211" t="inlineStr">
         <is>
@@ -22518,7 +22522,7 @@
       </c>
       <c r="J211" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="K211" t="inlineStr">
@@ -22543,7 +22547,7 @@
       </c>
       <c r="O211" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="P211" t="inlineStr">
@@ -22561,26 +22565,22 @@
           <t>No</t>
         </is>
       </c>
-      <c r="S211" t="inlineStr">
-        <is>
-          <t>Quien define lo que se enseña es el MEN a través de la guía 30. La programación se da con estudiantes de grado 11 y trabajan en celulares con Pydroid3. Ofimática no se está dando.</t>
-        </is>
-      </c>
+      <c r="S211" t="inlineStr"/>
       <c r="T211" t="inlineStr"/>
       <c r="U211" t="inlineStr">
         <is>
-          <t>Ofrecer a sus estudiantes una formación holística a través de un currículo diseñado para estimular y desarrollar competencias laborales básicas, y laborales específicas, buscando la excelencia académica y la formación en valores humanos para contribuir al desarrollo de la región y el país, mediante el fomento de la ciencia, la tecnología y el amor por la cultura ambientalista.</t>
+          <t>Somos una institución educativa oficial certificada, inclusora con  enfoque constructivista–humanista. Potenciamos  estudiantes con talentos y/o capacidades excepcionales y posibilitamos ambientes pedagógicos de sana convivencia que favorecen  la formación de ciudadanos integrales, capaces de asumir  los retos de un mundo globalizado.</t>
         </is>
       </c>
       <c r="V211" t="inlineStr">
         <is>
-          <t>Ser reconocida en el ámbito local, regional, nacional y comunidad internacional como una institución educativa inteligente líder en la formación de competencias laborales básicas, y laborales específicas; con un modelo de gestión que responda a las exigencias del mundo actual.</t>
+          <t>Ser una institución educativa reconocida  a nivel  nacional e internacional  por su liderazgo  en la prestación del servicio educativo que contribuya al desarrollo social, económico, político y cultural del país.</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="n">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B212" t="inlineStr">
         <is>
@@ -22594,15 +22594,15 @@
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>087</t>
+          <t>085</t>
         </is>
       </c>
       <c r="E212" t="n">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F212" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No</t>
         </is>
       </c>
       <c r="G212" t="inlineStr">
@@ -22612,22 +22612,22 @@
       </c>
       <c r="H212" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No</t>
         </is>
       </c>
       <c r="I212" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No</t>
         </is>
       </c>
       <c r="J212" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No</t>
         </is>
       </c>
       <c r="K212" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No</t>
         </is>
       </c>
       <c r="L212" t="inlineStr">
@@ -22647,7 +22647,7 @@
       </c>
       <c r="O212" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No</t>
         </is>
       </c>
       <c r="P212" t="inlineStr">
@@ -22657,7 +22657,7 @@
       </c>
       <c r="Q212" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No</t>
         </is>
       </c>
       <c r="R212" t="inlineStr">
@@ -22667,24 +22667,24 @@
       </c>
       <c r="S212" t="inlineStr">
         <is>
-          <t>A partir del grado 8 es explícita la programación en el plan de estudios. La inclusión se trabaja desde los PIAR. Los programas están diseñados para todos los géneros sin diferenciación.</t>
+          <t>Quien define lo que se enseña es el MEN a través de la guía 30. La programación se da con estudiantes de grado 11 y trabajan en celulares con Pydroid3. Ofimática no se está dando.</t>
         </is>
       </c>
       <c r="T212" t="inlineStr"/>
       <c r="U212" t="inlineStr">
         <is>
-          <t>La Institución Educativa Cecilia de Lleras, ofrece una educación integral que propicia la formación de personas competentes e idóneas, capaces de ejercer liderazgo con autonomía, a través de la implementación de políticas de calidad, desde la inclusión y del modelo pedagógico Constructivista Social Dialogante, para proyectarse de manera positiva, hacia la construcción de competencias de ciudadanos globales tendiente hacia la concientización del cuidado y mejoramiento de su entorno.</t>
+          <t>Ofrecer a sus estudiantes una formación holística a través de un currículo diseñado para estimular y desarrollar competencias laborales básicas, y laborales específicas, buscando la excelencia académica y la formación en valores humanos para contribuir al desarrollo de la región y el país, mediante el fomento de la ciencia, la tecnología y el amor por la cultura ambientalista.</t>
         </is>
       </c>
       <c r="V212" t="inlineStr">
         <is>
-          <t>La Institución Educativa Cecilia de Lleras en el año 2022 será reconocida como una Institución líder en el servicio educativo, en modalidad jornada única, desde los criterios de calidad, principios de equidad y eficiencia, en los niveles de Preescolar, Básica y Media, atendiendo a las políticas de inclusión, medioambientales y de innovación en contextos de convivencia pacífica.</t>
+          <t>Ser reconocida en el ámbito local, regional, nacional y comunidad internacional como una institución educativa inteligente líder en la formación de competencias laborales básicas, y laborales específicas; con un modelo de gestión que responda a las exigencias del mundo actual.</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="n">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B213" t="inlineStr">
         <is>
@@ -22693,16 +22693,16 @@
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>23/05</t>
+          <t>20/05</t>
         </is>
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>207</t>
+          <t>087</t>
         </is>
       </c>
       <c r="E213" t="n">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F213" t="inlineStr">
         <is>
@@ -22716,27 +22716,27 @@
       </c>
       <c r="H213" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="I213" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="J213" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="K213" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="L213" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="M213" t="inlineStr">
@@ -22751,7 +22751,7 @@
       </c>
       <c r="O213" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="P213" t="inlineStr">
@@ -22761,7 +22761,7 @@
       </c>
       <c r="Q213" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="R213" t="inlineStr">
@@ -22771,17 +22771,121 @@
       </c>
       <c r="S213" t="inlineStr">
         <is>
-          <t>El plan de estudio se encuentra en reconstrucción para el 2022</t>
+          <t>A partir del grado 8 es explícita la programación en el plan de estudios. La inclusión se trabaja desde los PIAR. Los programas están diseñados para todos los géneros sin diferenciación.</t>
         </is>
       </c>
       <c r="T213" t="inlineStr"/>
       <c r="U213" t="inlineStr">
         <is>
+          <t>La Institución Educativa Cecilia de Lleras, ofrece una educación integral que propicia la formación de personas competentes e idóneas, capaces de ejercer liderazgo con autonomía, a través de la implementación de políticas de calidad, desde la inclusión y del modelo pedagógico Constructivista Social Dialogante, para proyectarse de manera positiva, hacia la construcción de competencias de ciudadanos globales tendiente hacia la concientización del cuidado y mejoramiento de su entorno.</t>
+        </is>
+      </c>
+      <c r="V213" t="inlineStr">
+        <is>
+          <t>La Institución Educativa Cecilia de Lleras en el año 2022 será reconocida como una Institución líder en el servicio educativo, en modalidad jornada única, desde los criterios de calidad, principios de equidad y eficiencia, en los niveles de Preescolar, Básica y Media, atendiendo a las políticas de inclusión, medioambientales y de innovación en contextos de convivencia pacífica.</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="n">
+        <v>219</v>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>Encuesta Planes de estudio</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>23/05</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>207</t>
+        </is>
+      </c>
+      <c r="E214" t="n">
+        <v>219</v>
+      </c>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="G214" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="H214" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I214" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="J214" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="L214" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="M214" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="N214" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="O214" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="P214" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="Q214" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="R214" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="S214" t="inlineStr">
+        <is>
+          <t>El plan de estudio se encuentra en reconstrucción para el 2022</t>
+        </is>
+      </c>
+      <c r="T214" t="inlineStr"/>
+      <c r="U214" t="inlineStr">
+        <is>
           <t xml:space="preserve">La Institución Educativa Fernando Villalobos Arango se propone Facilitar y liderar en nuestros, niñas, jóvenes y adultos la construcción de proyectos de vida proactivos y propositivos con alto sentido de autoestima fortalecidos desde el compromiso social, académico, axiológico y profesional.
 </t>
         </is>
       </c>
-      <c r="V213" t="inlineStr">
+      <c r="V214" t="inlineStr">
         <is>
           <t xml:space="preserve">La Institución Educativa Fernando Villalobos Arango para el año 2024, se posesionará Como la
 mejor Institución Rural del Municipio de Ibagué, frente a los ámbitos:
@@ -22799,109 +22903,9 @@
         </is>
       </c>
     </row>
-    <row r="214">
-      <c r="A214" t="n">
-        <v>220</v>
-      </c>
-      <c r="B214" t="inlineStr">
-        <is>
-          <t>Encuesta Planes de estudio</t>
-        </is>
-      </c>
-      <c r="C214" t="inlineStr">
-        <is>
-          <t>23/05</t>
-        </is>
-      </c>
-      <c r="D214" t="inlineStr">
-        <is>
-          <t>137</t>
-        </is>
-      </c>
-      <c r="E214" t="n">
-        <v>220</v>
-      </c>
-      <c r="F214" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="G214" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="H214" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="I214" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="J214" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="K214" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="L214" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="M214" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="N214" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="O214" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="P214" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="Q214" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="R214" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="S214" t="inlineStr"/>
-      <c r="T214" t="inlineStr"/>
-      <c r="U214" t="inlineStr">
-        <is>
-          <t>Contribuir a la formación integral de la persona humana con principios ecológicos y valores sociales, éticos, religiosos y culturales que contribuyan al sostenimiento y conservación del entorno, la ciudad y el departamento.</t>
-        </is>
-      </c>
-      <c r="V214" t="inlineStr">
-        <is>
-          <t>Ser una institución líder en la formación integral del  estudiante para el sostenimiento y conservación del medio ambiente, dotándolo de herramienta para que cree una conciencia ecológica que se refleje en su entorno social.</t>
-        </is>
-      </c>
-    </row>
     <row r="215">
       <c r="A215" t="n">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B215" t="inlineStr">
         <is>
@@ -22915,11 +22919,11 @@
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>033</t>
+          <t>137</t>
         </is>
       </c>
       <c r="E215" t="n">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F215" t="inlineStr">
         <is>
@@ -22928,7 +22932,7 @@
       </c>
       <c r="G215" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No</t>
         </is>
       </c>
       <c r="H215" t="inlineStr">
@@ -22938,7 +22942,7 @@
       </c>
       <c r="I215" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No</t>
         </is>
       </c>
       <c r="J215" t="inlineStr">
@@ -22953,7 +22957,7 @@
       </c>
       <c r="L215" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No</t>
         </is>
       </c>
       <c r="M215" t="inlineStr">
@@ -22986,20 +22990,16 @@
           <t>No</t>
         </is>
       </c>
-      <c r="S215" t="inlineStr">
-        <is>
-          <t>En el plan de estudio y los acuerdos pedagógicos con bachillerato (6° a 11°), se incluye ofimática, alfabetización digital y programación a través de la exploración de herramientas como code.org y makecode, trabajando con cada grado actividades especificas y acordes a su edad, sin embargo,  no se menciona, profundiza en conceptualización, comprensión, relevancia, habilidades y sub habilidades del PC.</t>
-        </is>
-      </c>
+      <c r="S215" t="inlineStr"/>
       <c r="T215" t="inlineStr"/>
       <c r="U215" t="inlineStr">
         <is>
-          <t xml:space="preserve">Somos una Institución educativa al servicio de la niñez y juventud en los niveles de preescolar, básica y media con una filosofía humanizante y evangelizadora centrada en los valores que imparte una formación espiritual y académica mediante un enfoque problémico para el desarrollo de su autonomía cognitiva y social, con proyección investigativa, humanística, artística, cultural y de liderazgo. </t>
+          <t>Contribuir a la formación integral de la persona humana con principios ecológicos y valores sociales, éticos, religiosos y culturales que contribuyan al sostenimiento y conservación del entorno, la ciudad y el departamento.</t>
         </is>
       </c>
       <c r="V215" t="inlineStr">
         <is>
-          <t>El Colegio Santa Teresa de Jesús será reconocido a nivel municipal, departamental,  nacional e internacional,   por la integralidad de la propuesta educativa centrada en la formación del ser, el impacto que genera su formación en valores humano-cristianos,  los resultados académicos,   el desarrollo de un currículo  con  enfoque  problémico, el compromiso en la  formación integral de mujeres líderes capaces de comprometerse profesional y vocacionalmente  con sólidos principios ético-cristianos y sensibilidad humana y social.</t>
+          <t>Ser una institución líder en la formación integral del  estudiante para el sostenimiento y conservación del medio ambiente, dotándolo de herramienta para que cree una conciencia ecológica que se refleje en su entorno social.</t>
         </is>
       </c>
     </row>
